--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearning Study\발표자료\DeepLearningStudy\PPT data\3 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearning Study\발표자료\DeepLearning Study\DeepLearningStudy\PPT data\6 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A6984-C969-461D-A75C-6C4FCEA31945}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E79EA78-B802-476E-800B-16C40C7DE9D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,138 +28,356 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="94">
+  <si>
+    <t>1,2-(2)</t>
+  </si>
+  <si>
+    <t>1,2-(6)</t>
+  </si>
+  <si>
+    <t>1,2-(5)</t>
+  </si>
+  <si>
+    <t>1,2-(3)</t>
+  </si>
+  <si>
+    <t>1,2-(1)</t>
+  </si>
+  <si>
+    <t>1,2-(4)</t>
+  </si>
+  <si>
+    <t>총합</t>
+  </si>
+  <si>
+    <t>조동민</t>
+  </si>
+  <si>
+    <t>이용준</t>
+  </si>
+  <si>
+    <t>이태학</t>
+  </si>
+  <si>
+    <t>김영진</t>
+  </si>
+  <si>
+    <t>김현종</t>
+  </si>
+  <si>
+    <t>안준헌</t>
+  </si>
+  <si>
+    <t>이지선</t>
+  </si>
+  <si>
+    <t>김윤호</t>
+  </si>
+  <si>
+    <t>홍유진</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>천수빈</t>
+  </si>
+  <si>
+    <t>홍혁진</t>
+  </si>
+  <si>
+    <t>고재형</t>
+  </si>
+  <si>
+    <t>조시훈</t>
+  </si>
+  <si>
+    <t>윤인섭</t>
+  </si>
+  <si>
+    <t>정다은</t>
+  </si>
+  <si>
+    <t>이태근</t>
+  </si>
+  <si>
+    <t>이성찬</t>
+  </si>
+  <si>
+    <t>윤소민</t>
+  </si>
+  <si>
+    <t>1,2-(7)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(8)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(9)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(10)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(11)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(13)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(14)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(15)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(16)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(17)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2-(18)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(2)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(3)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(4)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
   <si>
     <t>3,4-(5)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(6)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(7)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(8)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(9)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(10)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(11)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(13)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(14)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(15)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(16)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(17)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(18)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(19)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4-(20)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(2)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(3)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(4)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(18)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(17)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(16)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(15)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(14)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(5)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(6)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(7)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(8)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(9)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(10)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(11)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,6-(13)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(1)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(2)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(3)</t>
-  </si>
-  <si>
-    <t>3,4-(2)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(4)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(5)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(6)</t>
-  </si>
-  <si>
-    <t>5,6-(3)</t>
-  </si>
-  <si>
-    <t>3,4-(1)</t>
-  </si>
-  <si>
-    <t>5,6-(2)</t>
-  </si>
-  <si>
-    <t>1,2-(2)</t>
-  </si>
-  <si>
-    <t>1,2-(6)</t>
-  </si>
-  <si>
-    <t>1,2-(5)</t>
-  </si>
-  <si>
-    <t>3,4-(6)</t>
-  </si>
-  <si>
-    <t>3,4-(4)</t>
-  </si>
-  <si>
-    <t>1,2-(3)</t>
-  </si>
-  <si>
-    <t>5,6-(5)</t>
-  </si>
-  <si>
-    <t>3,4-(3)</t>
-  </si>
-  <si>
-    <t>1,2-(1)</t>
-  </si>
-  <si>
-    <t>7,8-(1)</t>
-  </si>
-  <si>
-    <t>7,8-(4)</t>
-  </si>
-  <si>
-    <t>7,8-(5)</t>
-  </si>
-  <si>
-    <t>1,2-(4)</t>
-  </si>
-  <si>
-    <t>5,6-(1)</t>
-  </si>
-  <si>
-    <t>총합</t>
-  </si>
-  <si>
-    <t>조동민</t>
-  </si>
-  <si>
-    <t>이용준</t>
-  </si>
-  <si>
-    <t>이태학</t>
-  </si>
-  <si>
-    <t>김영진</t>
-  </si>
-  <si>
-    <t>김현종</t>
-  </si>
-  <si>
-    <t>안준헌</t>
-  </si>
-  <si>
-    <t>이지선</t>
-  </si>
-  <si>
-    <t>김윤호</t>
-  </si>
-  <si>
-    <t>홍유진</t>
-  </si>
-  <si>
-    <t>김나영</t>
-  </si>
-  <si>
-    <t>천수빈</t>
-  </si>
-  <si>
-    <t>홍혁진</t>
-  </si>
-  <si>
-    <t>고재형</t>
-  </si>
-  <si>
-    <t>조시훈</t>
-  </si>
-  <si>
-    <t>윤인섭</t>
-  </si>
-  <si>
-    <t>정다은</t>
-  </si>
-  <si>
-    <t>이태근</t>
-  </si>
-  <si>
-    <t>이성찬</t>
-  </si>
-  <si>
-    <t>윤소민</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(7)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(8)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(9)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(10)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(11)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(12)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(13)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(14)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(15)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(16)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(17)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,8-(18)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1329,10 +1547,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U26"/>
+  <dimension ref="A1:U80"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="Q66" sqref="Q66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1344,66 +1562,66 @@
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" ref="U2:U25" si="0">SUM(B2:T2)</f>
@@ -1412,7 +1630,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2">
         <f t="shared" si="0"/>
@@ -1421,7 +1639,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="U4" s="2">
         <f t="shared" si="0"/>
@@ -1430,7 +1648,7 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="U5" s="2">
         <f t="shared" si="0"/>
@@ -1439,7 +1657,7 @@
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="U6" s="2">
         <f t="shared" si="0"/>
@@ -1448,7 +1666,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="U7" s="2">
         <f t="shared" si="0"/>
@@ -1457,7 +1675,7 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="U8" s="2">
         <f t="shared" si="0"/>
@@ -1466,7 +1684,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="U9" s="2">
         <f t="shared" si="0"/>
@@ -1475,7 +1693,7 @@
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="U10" s="2">
         <f t="shared" si="0"/>
@@ -1484,7 +1702,7 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="U11" s="2">
         <f t="shared" si="0"/>
@@ -1493,7 +1711,7 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" si="0"/>
@@ -1502,7 +1720,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="U13" s="2">
         <f t="shared" si="0"/>
@@ -1511,7 +1729,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="U14" s="2">
         <f t="shared" si="0"/>
@@ -1520,7 +1738,7 @@
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="U15" s="2">
         <f t="shared" si="0"/>
@@ -1529,7 +1747,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" si="0"/>
@@ -1538,7 +1756,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="U17" s="2">
         <f t="shared" si="0"/>
@@ -1547,7 +1765,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="U18" s="2">
         <f t="shared" si="0"/>
@@ -1556,7 +1774,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="U19" s="2">
         <f t="shared" si="0"/>
@@ -1565,138 +1783,614 @@
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="U20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="U20:U76" si="1">SUM(B20:T20)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="U30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="U31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="U43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="U44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="U45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U47" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U48" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U49" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="U50" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="U51" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="U52" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U53" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U54" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U55" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U56" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U57" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U58" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="U59" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U60" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U61" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U62" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="U63" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U64" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="U65" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U66" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="U67" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U68" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U69" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U70" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="U71" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U72" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="U73" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U74" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U75" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="U25" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="shared" ref="B26:T26" si="1">SUM(B2:B25)</f>
-        <v>0</v>
-      </c>
-      <c r="C26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="4">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
+      <c r="B76" s="4">
+        <f t="shared" ref="B76:T76" si="2">SUM(B52:B75)</f>
+        <v>0</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T76" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U76" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>

--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DeepLearning Study\발표자료\DeepLearning Study\DeepLearningStudy\PPT data\6 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\학교관련\DeepLearning Study\DeepLearningStudy\PPT data\6 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E79EA78-B802-476E-800B-16C40C7DE9D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84DB286-19B6-4AEA-A6A8-2A89FA512138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>1,2-(2)</t>
   </si>
@@ -377,6 +377,16 @@
   </si>
   <si>
     <t>7,8-(18)</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>정답제출에 파일이 없는 인원의 셀은 숨기기 해놓았습니다. 
+숨기기를 취소하시려면 모든셀을 선택 후 마우스 우클릭 
+숨기기 취소를 클릭하시면 됩니다.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -539,8 +549,24 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="32">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,8 +753,32 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -843,6 +893,737 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -981,21 +1762,204 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="12" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1547,759 +2511,2362 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U80"/>
+  <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="Q66" sqref="Q66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1"/>
+    <col min="9" max="11" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="16" width="9" style="1"/>
+    <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9" style="1"/>
+    <col min="20" max="20" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37"/>
+      <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="U1" s="38"/>
+    </row>
+    <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="2">
-        <f t="shared" ref="U2:U25" si="0">SUM(B2:T2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="39">
+        <f t="shared" ref="U2:U65" si="0">SUM(B2:T2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="65"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="U4" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="59"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="U5" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="57"/>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58"/>
+      <c r="AD5" s="59"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="57"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="58"/>
+      <c r="Z6" s="58"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="58"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="59"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="U7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="57"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="59"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="U8" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="57"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+      <c r="Z8" s="58"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="58"/>
+      <c r="AC8" s="58"/>
+      <c r="AD8" s="59"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="57"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="59"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="U10" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="57"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="58"/>
+      <c r="Z10" s="58"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="58"/>
+      <c r="AD10" s="59"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="U11" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="57"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="58"/>
+      <c r="Z11" s="58"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="58"/>
+      <c r="AD11" s="59"/>
+    </row>
+    <row r="12" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="U12" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="60"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="61"/>
+      <c r="AA12" s="61"/>
+      <c r="AB12" s="61"/>
+      <c r="AC12" s="61"/>
+      <c r="AD12" s="62"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="U13" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="U14" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="23"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="U16" s="2">
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="U17" s="2">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="23"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="23"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="U18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="2">
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="U20" s="2">
-        <f t="shared" ref="U20:U76" si="1">SUM(B20:T20)</f>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="46"/>
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="46"/>
+      <c r="S20" s="46"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="39">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="U21" s="2">
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="16">
+        <v>0</v>
+      </c>
+      <c r="C32" s="17">
+        <v>0</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17">
+        <v>1</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17">
+        <v>1</v>
+      </c>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17">
+        <v>1</v>
+      </c>
+      <c r="M32" s="17">
+        <v>1</v>
+      </c>
+      <c r="N32" s="17">
+        <v>1</v>
+      </c>
+      <c r="O32" s="17">
+        <v>1</v>
+      </c>
+      <c r="P32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17">
+        <v>1</v>
+      </c>
+      <c r="S32" s="17">
+        <v>1</v>
+      </c>
+      <c r="T32" s="18"/>
+      <c r="U32" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17">
+        <v>1</v>
+      </c>
+      <c r="M33" s="17">
+        <v>1</v>
+      </c>
+      <c r="N33" s="17">
+        <v>0</v>
+      </c>
+      <c r="O33" s="17">
+        <v>0</v>
+      </c>
+      <c r="P33" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17">
+        <v>1</v>
+      </c>
+      <c r="S33" s="17">
+        <v>1</v>
+      </c>
+      <c r="T33" s="18"/>
+      <c r="U33" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="48"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="49"/>
+      <c r="H39" s="49"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="49"/>
+      <c r="K39" s="49"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="49"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="49"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="49"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="51"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="52"/>
+      <c r="S40" s="52"/>
+      <c r="T40" s="53"/>
+      <c r="U40" s="39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="25"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="27"/>
+      <c r="U41" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="27"/>
+      <c r="U42" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="27"/>
+      <c r="U43" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="27"/>
+      <c r="U44" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="27"/>
+      <c r="U45" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="25"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="27"/>
+      <c r="U46" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="27"/>
+      <c r="U47" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="25"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="27"/>
+      <c r="U48" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="25"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="25"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B51" s="25"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="25"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="27"/>
+      <c r="U52" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" s="25"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="26"/>
+      <c r="R53" s="26"/>
+      <c r="S53" s="26"/>
+      <c r="T53" s="27"/>
+      <c r="U53" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" s="25"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="26"/>
+      <c r="R54" s="26"/>
+      <c r="S54" s="26"/>
+      <c r="T54" s="27"/>
+      <c r="U54" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B55" s="25"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+      <c r="T55" s="27"/>
+      <c r="U55" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="25"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="27"/>
+      <c r="U56" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" s="54"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+      <c r="L57" s="55"/>
+      <c r="M57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="55"/>
+      <c r="P57" s="55"/>
+      <c r="Q57" s="55"/>
+      <c r="R57" s="55"/>
+      <c r="S57" s="55"/>
+      <c r="T57" s="56"/>
+      <c r="U57" s="44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="30"/>
+      <c r="U58" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
+      <c r="K59" s="32"/>
+      <c r="L59" s="32"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="32"/>
+      <c r="P59" s="32"/>
+      <c r="Q59" s="32"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="31">
+        <v>0</v>
+      </c>
+      <c r="C60" s="32">
+        <v>1</v>
+      </c>
+      <c r="D60" s="32">
+        <v>1</v>
+      </c>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32">
+        <v>1</v>
+      </c>
+      <c r="G60" s="32">
+        <v>1</v>
+      </c>
+      <c r="H60" s="32">
+        <v>1</v>
+      </c>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32">
+        <v>1</v>
+      </c>
+      <c r="M60" s="32">
+        <v>1</v>
+      </c>
+      <c r="N60" s="32">
+        <v>0</v>
+      </c>
+      <c r="O60" s="32">
+        <v>1</v>
+      </c>
+      <c r="P60" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32">
+        <v>1</v>
+      </c>
+      <c r="S60" s="32">
+        <v>0</v>
+      </c>
+      <c r="T60" s="33"/>
+      <c r="U60" s="14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="31"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="32"/>
+      <c r="Q61" s="32"/>
+      <c r="R61" s="32"/>
+      <c r="S61" s="32"/>
+      <c r="T61" s="33"/>
+      <c r="U61" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="31">
+        <v>0</v>
+      </c>
+      <c r="C62" s="32">
+        <v>0</v>
+      </c>
+      <c r="D62" s="32">
+        <v>1</v>
+      </c>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32">
+        <v>1</v>
+      </c>
+      <c r="G62" s="32">
+        <v>1</v>
+      </c>
+      <c r="H62" s="32">
+        <v>1</v>
+      </c>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="32">
+        <v>1</v>
+      </c>
+      <c r="M62" s="32">
+        <v>0</v>
+      </c>
+      <c r="N62" s="32">
+        <v>0</v>
+      </c>
+      <c r="O62" s="32">
+        <v>1</v>
+      </c>
+      <c r="P62" s="32">
+        <v>1</v>
+      </c>
+      <c r="Q62" s="32"/>
+      <c r="R62" s="32">
+        <v>1</v>
+      </c>
+      <c r="S62" s="32">
+        <v>0</v>
+      </c>
+      <c r="T62" s="33"/>
+      <c r="U62" s="14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B63" s="31"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="32"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="32"/>
+      <c r="P63" s="32"/>
+      <c r="Q63" s="32"/>
+      <c r="R63" s="32"/>
+      <c r="S63" s="32"/>
+      <c r="T63" s="33"/>
+      <c r="U63" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="31"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="32"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="32"/>
+      <c r="P64" s="32"/>
+      <c r="Q64" s="32"/>
+      <c r="R64" s="32"/>
+      <c r="S64" s="32"/>
+      <c r="T64" s="33"/>
+      <c r="U64" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B65" s="31"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="32"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="32"/>
+      <c r="P65" s="32"/>
+      <c r="Q65" s="32"/>
+      <c r="R65" s="32"/>
+      <c r="S65" s="32"/>
+      <c r="T65" s="33"/>
+      <c r="U65" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="31"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="32"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="32"/>
+      <c r="P66" s="32"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="32"/>
+      <c r="S66" s="32"/>
+      <c r="T66" s="33"/>
+      <c r="U66" s="14">
+        <f t="shared" ref="U66:U75" si="1">SUM(B66:T66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="31"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32"/>
+      <c r="P67" s="32"/>
+      <c r="Q67" s="32"/>
+      <c r="R67" s="32"/>
+      <c r="S67" s="32"/>
+      <c r="T67" s="33"/>
+      <c r="U67" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="U22" s="2">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B68" s="31"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
+      <c r="K68" s="32"/>
+      <c r="L68" s="32"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="32"/>
+      <c r="P68" s="32"/>
+      <c r="Q68" s="32"/>
+      <c r="R68" s="32"/>
+      <c r="S68" s="32"/>
+      <c r="T68" s="33"/>
+      <c r="U68" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U23" s="2">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B69" s="31"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="32"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="32"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="32"/>
+      <c r="R69" s="32"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="33"/>
+      <c r="U69" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U24" s="2">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B70" s="31"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="32"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="32"/>
+      <c r="P70" s="32"/>
+      <c r="Q70" s="32"/>
+      <c r="R70" s="32"/>
+      <c r="S70" s="32"/>
+      <c r="T70" s="33"/>
+      <c r="U70" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U25" s="2">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B71" s="31"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="32"/>
+      <c r="P71" s="32"/>
+      <c r="Q71" s="32"/>
+      <c r="R71" s="32"/>
+      <c r="S71" s="32"/>
+      <c r="T71" s="33"/>
+      <c r="U71" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="U26" s="2">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="31"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
+      <c r="R72" s="32"/>
+      <c r="S72" s="32"/>
+      <c r="T72" s="33"/>
+      <c r="U72" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="U27" s="2">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B73" s="31"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="32"/>
+      <c r="P73" s="32"/>
+      <c r="Q73" s="32"/>
+      <c r="R73" s="32"/>
+      <c r="S73" s="32"/>
+      <c r="T73" s="33"/>
+      <c r="U73" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U28" s="2">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="31"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="32"/>
+      <c r="P74" s="32"/>
+      <c r="Q74" s="32"/>
+      <c r="R74" s="32"/>
+      <c r="S74" s="32"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="U29" s="2">
+    <row r="75" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="34"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="36"/>
+      <c r="U75" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U30" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="U31" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U32" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="U33" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="U34" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="U35" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="U36" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="U37" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U38" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U39" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U40" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U41" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="U42" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="U43" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="U44" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="U45" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="U46" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U47" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="U48" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U49" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U50" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="U51" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A52" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U52" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="U53" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="U54" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="U55" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U56" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="U57" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="U58" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="U59" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="U60" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="U61" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="U62" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="U63" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="U64" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="U65" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="U66" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="U67" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="U68" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="U69" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="U70" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="U71" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="U72" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U73" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="U74" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="U75" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="4" t="s">
+    <row r="76" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B76" s="4">
-        <f t="shared" ref="B76:T76" si="2">SUM(B52:B75)</f>
+      <c r="B76" s="8">
+        <f>SUM(B2:B75)</f>
         <v>0</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" ref="C76:T76" si="2">SUM(C2:C75)</f>
+        <v>2</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="2"/>
@@ -2307,15 +4874,15 @@
       </c>
       <c r="F76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" si="2"/>
@@ -2331,23 +4898,23 @@
       </c>
       <c r="L76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76" s="4">
         <f t="shared" si="2"/>
@@ -2355,44 +4922,26 @@
       </c>
       <c r="R76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S76" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T76" s="4">
+        <v>2</v>
+      </c>
+      <c r="T76" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="U76" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="4"/>
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
+      <c r="U76" s="6">
+        <f>SUM(B76:T76)</f>
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="W4:AD12"/>
+    <mergeCell ref="W3:AD3"/>
+  </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
-  <workbookPr codeName="ThisWorkbook"/>
+  <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\학교관련\DeepLearning Study\DeepLearningStudy\PPT data\6 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84DB286-19B6-4AEA-A6A8-2A89FA512138}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009A8E62-B6FD-4A60-A163-7B59FB45CBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
   <si>
     <t>1,2-(2)</t>
   </si>
@@ -387,6 +387,30 @@
   </si>
   <si>
     <t>공지사항</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>1, 2장 이동</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 4장 이동</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>5, 6장 이동</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>7, 8장 이동</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>처음으로</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>채점결과</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
@@ -394,7 +418,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -565,8 +589,26 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -777,8 +819,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="63">
+  <borders count="66">
     <border>
       <left/>
       <right/>
@@ -1624,6 +1678,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1762,7 +1853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1960,6 +2051,39 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="64" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="59" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="60" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="62" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2514,7 +2638,8 @@
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2984,7 +3109,7 @@
       <c r="AC12" s="61"/>
       <c r="AD12" s="62"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -3012,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -3039,8 +3164,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W14" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z14" s="67"/>
+      <c r="AA14" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB14" s="71"/>
+    </row>
+    <row r="15" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -3067,6 +3204,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="W15" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="73"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -3096,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -3124,7 +3271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -3152,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="40" t="s">
         <v>37</v>
       </c>
@@ -3180,7 +3327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -3207,8 +3354,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W20" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="X20" s="75"/>
+    </row>
+    <row r="21" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
@@ -3235,8 +3386,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W21" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z21" s="67"/>
+      <c r="AA21" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB21" s="71"/>
+    </row>
+    <row r="22" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
@@ -3263,8 +3426,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W22" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="X22" s="68"/>
+      <c r="Y22" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="73"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -3292,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -3320,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
@@ -3348,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
@@ -3376,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -3404,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
@@ -3432,7 +3605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
@@ -3460,7 +3633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
@@ -3488,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>49</v>
       </c>
@@ -3516,7 +3689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>50</v>
       </c>
@@ -3570,7 +3743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>51</v>
       </c>
@@ -3624,7 +3797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>52</v>
       </c>
@@ -3652,7 +3825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>53</v>
       </c>
@@ -3680,7 +3853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>54</v>
       </c>
@@ -3708,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>55</v>
       </c>
@@ -3736,7 +3909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>56</v>
       </c>
@@ -3764,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="40" t="s">
         <v>57</v>
       </c>
@@ -3792,7 +3965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>58</v>
       </c>
@@ -3819,8 +3992,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W40" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="X40" s="75"/>
+    </row>
+    <row r="41" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>59</v>
       </c>
@@ -3847,8 +4024,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W41" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z41" s="67"/>
+      <c r="AA41" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB41" s="71"/>
+    </row>
+    <row r="42" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>60</v>
       </c>
@@ -3875,8 +4064,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W42" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="X42" s="68"/>
+      <c r="Y42" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z42" s="69"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="73"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
@@ -3904,7 +4103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>67</v>
       </c>
@@ -3932,7 +4131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
@@ -3960,7 +4159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>69</v>
       </c>
@@ -3988,7 +4187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>70</v>
       </c>
@@ -4016,7 +4215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>71</v>
       </c>
@@ -4044,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>72</v>
       </c>
@@ -4072,7 +4271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>73</v>
       </c>
@@ -4100,7 +4299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>74</v>
       </c>
@@ -4128,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>75</v>
       </c>
@@ -4156,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>66</v>
       </c>
@@ -4184,7 +4383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>65</v>
       </c>
@@ -4212,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>64</v>
       </c>
@@ -4240,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>63</v>
       </c>
@@ -4268,7 +4467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="40" t="s">
         <v>62</v>
       </c>
@@ -4296,7 +4495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>76</v>
       </c>
@@ -4323,8 +4522,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W58" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="X58" s="75"/>
+    </row>
+    <row r="59" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>77</v>
       </c>
@@ -4351,8 +4554,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W59" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="X59" s="66"/>
+      <c r="Y59" s="67" t="s">
+        <v>97</v>
+      </c>
+      <c r="Z59" s="67"/>
+      <c r="AA59" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB59" s="71"/>
+    </row>
+    <row r="60" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>78</v>
       </c>
@@ -4405,8 +4620,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="W60" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="X60" s="68"/>
+      <c r="Y60" s="69" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z60" s="69"/>
+      <c r="AA60" s="72"/>
+      <c r="AB60" s="73"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>79</v>
       </c>
@@ -4434,7 +4659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>80</v>
       </c>
@@ -4488,7 +4713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>81</v>
       </c>
@@ -4516,7 +4741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>82</v>
       </c>
@@ -4544,7 +4769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>83</v>
       </c>
@@ -4572,7 +4797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>84</v>
       </c>
@@ -4600,7 +4825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>85</v>
       </c>
@@ -4628,7 +4853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>86</v>
       </c>
@@ -4656,7 +4881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>87</v>
       </c>
@@ -4684,7 +4909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>88</v>
       </c>
@@ -4712,7 +4937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>89</v>
       </c>
@@ -4740,7 +4965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>90</v>
       </c>
@@ -4768,7 +4993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>91</v>
       </c>
@@ -4796,7 +5021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>92</v>
       </c>
@@ -4824,7 +5049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11" t="s">
         <v>93</v>
       </c>
@@ -4852,7 +5077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>6</v>
       </c>
@@ -4936,13 +5161,63 @@
         <f>SUM(B76:T76)</f>
         <v>36</v>
       </c>
+      <c r="W76" s="76"/>
+      <c r="X76" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="25">
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="AA14:AB15"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W59:X59"/>
     <mergeCell ref="W4:AD12"/>
     <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="W14:X14" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{97292820-5DAF-44F7-A253-CDE3D0FCFEAA}"/>
+    <hyperlink ref="Y14:Z14" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{EC3E0792-B949-4EFA-84EA-49EE59B42DCB}"/>
+    <hyperlink ref="W15:X15" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{DA8052CC-162C-4890-8EF7-8E75FC7D0773}"/>
+    <hyperlink ref="Y15:Z15" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{8B514A99-A346-450C-85FD-DD3A899EE511}"/>
+    <hyperlink ref="W20:X20" location="Sheet1!A1" display="처음으로" xr:uid="{D604647E-4490-40BA-998F-8F9554FEB480}"/>
+    <hyperlink ref="AA14:AB15" location="Sheet1!A76:U76" display="채점결과" xr:uid="{EC6DB0B1-3D4C-4D56-9C62-AAEEDF914F8E}"/>
+    <hyperlink ref="W21:X21" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{32F76B3D-98B0-4F67-AD84-51F7D6865761}"/>
+    <hyperlink ref="Y21:Z21" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{C0350573-3AA9-4E68-96E5-3E0974F7A324}"/>
+    <hyperlink ref="W22:X22" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{5475B6E7-8170-4FBA-849B-31BE6D0CD13B}"/>
+    <hyperlink ref="Y22:Z22" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{6A557AE7-6412-4D5E-9EDD-1D0F422A5A9F}"/>
+    <hyperlink ref="AA21:AB22" location="Sheet1!A76:U76" display="채점결과" xr:uid="{EFF599D2-F8C5-4B05-BC12-9892B54A3E53}"/>
+    <hyperlink ref="W41:X41" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{07BF7E4E-4C5A-471C-9699-A3ED95CC6ABC}"/>
+    <hyperlink ref="Y41:Z41" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{82F3A0F0-695D-47D6-A56E-9EB611793AE7}"/>
+    <hyperlink ref="W42:X42" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{D6A60852-4273-4DF2-92FD-0DBDEAA95319}"/>
+    <hyperlink ref="Y42:Z42" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{4719CA8D-B751-48F9-A1C2-4C1C170A9347}"/>
+    <hyperlink ref="AA41:AB42" location="Sheet1!A76:U76" display="채점결과" xr:uid="{EBD33D43-A5CF-4F66-9EB9-4A7AC018DC9E}"/>
+    <hyperlink ref="W59:X59" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{18825958-DA74-44CB-9CC2-9305993AE416}"/>
+    <hyperlink ref="Y59:Z59" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{A1C19C6A-222B-4E48-9D63-335E44CE1543}"/>
+    <hyperlink ref="W60:X60" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{993EB537-94B4-47AD-8A6E-562B6261A0F7}"/>
+    <hyperlink ref="Y60:Z60" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{665A349A-E561-4B1B-B324-C8C404DE8576}"/>
+    <hyperlink ref="AA59:AB60" location="Sheet1!A76:U76" display="채점결과" xr:uid="{A8AC23C4-3740-454B-B166-F3E19E4A764D}"/>
+    <hyperlink ref="W40:X40" location="Sheet1!A1" display="처음으로" xr:uid="{D4535E40-1AD1-4814-B946-F21DD1AF8DD0}"/>
+    <hyperlink ref="W58:X58" location="Sheet1!A1" display="처음으로" xr:uid="{F1E2AEF6-E841-4150-841E-76E2E86B609B}"/>
+  </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\학교관련\DeepLearning Study\DeepLearningStudy\PPT data\6 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009A8E62-B6FD-4A60-A163-7B59FB45CBCD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410544B-C26A-49BC-90B7-058DE5962F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2025,6 +2025,39 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="64" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="59" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="60" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="62" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2051,39 +2084,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="64" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="59" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="60" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="62" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -2639,7 +2639,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V13" sqref="V13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2772,16 +2772,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W3" s="63" t="s">
+      <c r="W3" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="65"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="75"/>
+      <c r="AD3" s="76"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -2810,16 +2810,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="57" t="s">
+      <c r="W4" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="X4" s="58"/>
-      <c r="Y4" s="58"/>
-      <c r="Z4" s="58"/>
-      <c r="AA4" s="58"/>
-      <c r="AB4" s="58"/>
-      <c r="AC4" s="58"/>
-      <c r="AD4" s="59"/>
+      <c r="X4" s="69"/>
+      <c r="Y4" s="69"/>
+      <c r="Z4" s="69"/>
+      <c r="AA4" s="69"/>
+      <c r="AB4" s="69"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="70"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -2848,14 +2848,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="57"/>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="58"/>
-      <c r="Z5" s="58"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58"/>
-      <c r="AD5" s="59"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="69"/>
+      <c r="Y5" s="69"/>
+      <c r="Z5" s="69"/>
+      <c r="AA5" s="69"/>
+      <c r="AB5" s="69"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="70"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2884,14 +2884,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W6" s="57"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="58"/>
-      <c r="Z6" s="58"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="58"/>
-      <c r="AC6" s="58"/>
-      <c r="AD6" s="59"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="69"/>
+      <c r="Y6" s="69"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="69"/>
+      <c r="AB6" s="69"/>
+      <c r="AC6" s="69"/>
+      <c r="AD6" s="70"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2920,14 +2920,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W7" s="57"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-      <c r="Z7" s="58"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="58"/>
-      <c r="AC7" s="58"/>
-      <c r="AD7" s="59"/>
+      <c r="W7" s="68"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="69"/>
+      <c r="AB7" s="69"/>
+      <c r="AC7" s="69"/>
+      <c r="AD7" s="70"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -2956,14 +2956,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W8" s="57"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-      <c r="Z8" s="58"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="58"/>
-      <c r="AC8" s="58"/>
-      <c r="AD8" s="59"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="70"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -2992,14 +2992,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W9" s="57"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="59"/>
+      <c r="W9" s="68"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+      <c r="AD9" s="70"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -3028,14 +3028,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W10" s="57"/>
-      <c r="X10" s="58"/>
-      <c r="Y10" s="58"/>
-      <c r="Z10" s="58"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="58"/>
-      <c r="AC10" s="58"/>
-      <c r="AD10" s="59"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+      <c r="AD10" s="70"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -3064,14 +3064,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W11" s="57"/>
-      <c r="X11" s="58"/>
-      <c r="Y11" s="58"/>
-      <c r="Z11" s="58"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="58"/>
-      <c r="AD11" s="59"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+      <c r="AD11" s="70"/>
     </row>
     <row r="12" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
@@ -3100,14 +3100,14 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W12" s="60"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="62"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="72"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="72"/>
+      <c r="AB12" s="72"/>
+      <c r="AC12" s="72"/>
+      <c r="AD12" s="73"/>
     </row>
     <row r="13" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -3164,18 +3164,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W14" s="66" t="s">
+      <c r="W14" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="67" t="s">
+      <c r="X14" s="67"/>
+      <c r="Y14" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="Z14" s="67"/>
-      <c r="AA14" s="70" t="s">
+      <c r="Z14" s="58"/>
+      <c r="AA14" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="AB14" s="71"/>
+      <c r="AB14" s="60"/>
     </row>
     <row r="15" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
@@ -3204,16 +3204,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W15" s="68" t="s">
+      <c r="W15" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="69" t="s">
+      <c r="X15" s="63"/>
+      <c r="Y15" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="73"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="62"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -3354,10 +3354,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W20" s="74" t="s">
+      <c r="W20" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="X20" s="75"/>
+      <c r="X20" s="66"/>
     </row>
     <row r="21" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
@@ -3386,18 +3386,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W21" s="66" t="s">
+      <c r="W21" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="67" t="s">
+      <c r="X21" s="67"/>
+      <c r="Y21" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="Z21" s="67"/>
-      <c r="AA21" s="70" t="s">
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="AB21" s="71"/>
+      <c r="AB21" s="60"/>
     </row>
     <row r="22" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
@@ -3426,16 +3426,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W22" s="68" t="s">
+      <c r="W22" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="X22" s="68"/>
-      <c r="Y22" s="69" t="s">
+      <c r="X22" s="63"/>
+      <c r="Y22" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="73"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="62"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
@@ -3992,10 +3992,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W40" s="74" t="s">
+      <c r="W40" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="X40" s="75"/>
+      <c r="X40" s="66"/>
     </row>
     <row r="41" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
@@ -4024,18 +4024,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W41" s="66" t="s">
+      <c r="W41" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="67" t="s">
+      <c r="X41" s="67"/>
+      <c r="Y41" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="Z41" s="67"/>
-      <c r="AA41" s="70" t="s">
+      <c r="Z41" s="58"/>
+      <c r="AA41" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="AB41" s="71"/>
+      <c r="AB41" s="60"/>
     </row>
     <row r="42" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
@@ -4064,16 +4064,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W42" s="68" t="s">
+      <c r="W42" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="X42" s="68"/>
-      <c r="Y42" s="69" t="s">
+      <c r="X42" s="63"/>
+      <c r="Y42" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="Z42" s="69"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="73"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="61"/>
+      <c r="AB42" s="62"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
@@ -4522,10 +4522,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W58" s="74" t="s">
+      <c r="W58" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="X58" s="75"/>
+      <c r="X58" s="66"/>
     </row>
     <row r="59" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
@@ -4554,18 +4554,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W59" s="66" t="s">
+      <c r="W59" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="X59" s="66"/>
-      <c r="Y59" s="67" t="s">
+      <c r="X59" s="67"/>
+      <c r="Y59" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="Z59" s="67"/>
-      <c r="AA59" s="70" t="s">
+      <c r="Z59" s="58"/>
+      <c r="AA59" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="AB59" s="71"/>
+      <c r="AB59" s="60"/>
     </row>
     <row r="60" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
@@ -4620,16 +4620,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W60" s="68" t="s">
+      <c r="W60" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="X60" s="68"/>
-      <c r="Y60" s="69" t="s">
+      <c r="X60" s="63"/>
+      <c r="Y60" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="Z60" s="69"/>
-      <c r="AA60" s="72"/>
-      <c r="AB60" s="73"/>
+      <c r="Z60" s="64"/>
+      <c r="AA60" s="61"/>
+      <c r="AB60" s="62"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
@@ -5161,17 +5161,17 @@
         <f>SUM(B76:T76)</f>
         <v>36</v>
       </c>
-      <c r="W76" s="76"/>
-      <c r="X76" s="76"/>
+      <c r="W76" s="57"/>
+      <c r="X76" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W4:AD12"/>
+    <mergeCell ref="W3:AD3"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="W20:X20"/>
     <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="W21:X21"/>
@@ -5179,18 +5179,18 @@
     <mergeCell ref="AA21:AB22"/>
     <mergeCell ref="W22:X22"/>
     <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W58:X58"/>
     <mergeCell ref="W41:X41"/>
     <mergeCell ref="Y41:Z41"/>
     <mergeCell ref="AA41:AB42"/>
     <mergeCell ref="W42:X42"/>
     <mergeCell ref="Y42:Z42"/>
     <mergeCell ref="W59:X59"/>
-    <mergeCell ref="W4:AD12"/>
-    <mergeCell ref="W3:AD3"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:Z15"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <hyperlinks>
@@ -5198,7 +5198,7 @@
     <hyperlink ref="Y14:Z14" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{EC3E0792-B949-4EFA-84EA-49EE59B42DCB}"/>
     <hyperlink ref="W15:X15" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{DA8052CC-162C-4890-8EF7-8E75FC7D0773}"/>
     <hyperlink ref="Y15:Z15" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{8B514A99-A346-450C-85FD-DD3A899EE511}"/>
-    <hyperlink ref="W20:X20" location="Sheet1!A1" display="처음으로" xr:uid="{D604647E-4490-40BA-998F-8F9554FEB480}"/>
+    <hyperlink ref="W20:X20" location="Sheet1!A2" display="처음으로" xr:uid="{D604647E-4490-40BA-998F-8F9554FEB480}"/>
     <hyperlink ref="AA14:AB15" location="Sheet1!A76:U76" display="채점결과" xr:uid="{EC6DB0B1-3D4C-4D56-9C62-AAEEDF914F8E}"/>
     <hyperlink ref="W21:X21" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{32F76B3D-98B0-4F67-AD84-51F7D6865761}"/>
     <hyperlink ref="Y21:Z21" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{C0350573-3AA9-4E68-96E5-3E0974F7A324}"/>
@@ -5215,8 +5215,8 @@
     <hyperlink ref="W60:X60" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{993EB537-94B4-47AD-8A6E-562B6261A0F7}"/>
     <hyperlink ref="Y60:Z60" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{665A349A-E561-4B1B-B324-C8C404DE8576}"/>
     <hyperlink ref="AA59:AB60" location="Sheet1!A76:U76" display="채점결과" xr:uid="{A8AC23C4-3740-454B-B166-F3E19E4A764D}"/>
-    <hyperlink ref="W40:X40" location="Sheet1!A1" display="처음으로" xr:uid="{D4535E40-1AD1-4814-B946-F21DD1AF8DD0}"/>
-    <hyperlink ref="W58:X58" location="Sheet1!A1" display="처음으로" xr:uid="{F1E2AEF6-E841-4150-841E-76E2E86B609B}"/>
+    <hyperlink ref="W40:X40" location="Sheet1!A2" display="처음으로" xr:uid="{60280C15-A955-45CB-817E-4E08F9EA59FC}"/>
+    <hyperlink ref="W58:X58" location="Sheet1!A2" display="처음으로" xr:uid="{FE7C0538-56C7-4795-A506-96B62426C9F9}"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -1,34 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
-  <workbookPr codeName="현재_통합_문서"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoSihun\Desktop\학교관련\DeepLearning Study\DeepLearningStudy\PPT data\6 week\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410544B-C26A-49BC-90B7-058DE5962F43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="5" rupBuild="8.1.852.35783"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>1,2-(2)</t>
   </si>
@@ -109,511 +96,446 @@
   </si>
   <si>
     <t>1,2-(7)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(8)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(9)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(10)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(11)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(13)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(14)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(15)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(16)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(17)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1,2-(18)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(2)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(3)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(4)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(5)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(6)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(7)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(8)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(9)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(10)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(11)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(13)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(14)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(15)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(16)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(17)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(18)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(19)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3,4-(20)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(2)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(3)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(4)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(18)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(17)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(16)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(15)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(14)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(5)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(6)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(7)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(8)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(9)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(10)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(11)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5,6-(13)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(1)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(2)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(3)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(4)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(5)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(6)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(7)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(8)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(9)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(10)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(11)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(12)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(13)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(14)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(15)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(16)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(17)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7,8-(18)</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>정답제출에 파일이 없는 인원의 셀은 숨기기 해놓았습니다. 
 숨기기를 취소하시려면 모든셀을 선택 후 마우스 우클릭 
 숨기기 취소를 클릭하시면 됩니다.</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>공지사항</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>1, 2장 이동</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>3, 4장 이동</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>5, 6장 이동</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>7, 8장 이동</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>처음으로</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>채점결과</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="25" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="34">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF0563C1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF954F72"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFF0000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="18"/>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF44546A"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF44546A"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF44546A"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF44546A"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F3F"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFA7D00"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF006100"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C0006"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF9C6500"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF00B0F0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="62">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -798,41 +720,185 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.24994659260841701"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="-0.249950"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="66">
+  <borders count="75">
     <border>
       <left/>
       <right/>
@@ -1018,10 +1084,10 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="medium">
         <color theme="1"/>
@@ -1033,7 +1099,7 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right/>
       <top style="medium">
@@ -1058,7 +1124,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="medium">
         <color theme="1"/>
@@ -1133,7 +1199,7 @@
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1145,10 +1211,10 @@
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1160,7 +1226,7 @@
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1183,34 +1249,34 @@
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="medium">
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="medium">
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right style="medium">
         <color theme="1"/>
@@ -1219,7 +1285,7 @@
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,43 +1294,43 @@
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right style="medium">
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,7 +1579,7 @@
         <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1540,7 +1606,7 @@
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -1552,10 +1618,10 @@
         <color theme="1"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -1564,13 +1630,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -1579,13 +1645,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right style="medium">
         <color theme="1"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -1715,15 +1781,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
@@ -1783,7 +1956,7 @@
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="12" borderId="0">
@@ -1792,10 +1965,10 @@
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
@@ -1804,10 +1977,10 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="19" borderId="0">
@@ -1816,10 +1989,10 @@
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
@@ -1828,10 +2001,10 @@
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
@@ -1840,16 +2013,160 @@
     <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="66" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="67" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="68" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="69" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="70" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="71" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="70" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="72" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="73" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="74" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="41" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="42" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="43" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="45" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="46" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="47" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="48" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="49" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="50" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="51" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="52" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="53" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="54" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="55" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="56" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="57" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="58" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="59" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="60" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="61" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1860,278 +2177,326 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="26" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="50" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="64" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="65" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="59" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="60" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="62" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="63" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="22" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="25" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="26" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="49" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="50" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="51" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="63" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="64" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="65" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="57" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="59" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="63" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="63" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="60" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="62" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="63" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="45">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색2" xfId="25" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - 강조색3" xfId="29" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - 강조색4" xfId="33" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - 강조색5" xfId="37" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - 강조색6" xfId="41" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - 강조색1" xfId="22" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - 강조색2" xfId="26" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - 강조색3" xfId="30" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - 강조색4" xfId="34" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - 강조색5" xfId="38" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - 강조색6" xfId="42" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - 강조색1" xfId="23" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - 강조색2" xfId="27" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - 강조색3" xfId="31" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - 강조색4" xfId="35" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - 강조색5" xfId="39" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - 강조색6" xfId="43" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="강조색1" xfId="21" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="강조색2" xfId="24" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="강조색3" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="강조색4" xfId="32" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="강조색5" xfId="36" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="강조색6" xfId="40" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="경고문" xfId="6" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="계산" xfId="14" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="나쁨" xfId="19" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="보통" xfId="20" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="설명텍스트" xfId="44" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="셀 확인" xfId="15" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="연결된 셀" xfId="16" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="5" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="요약" xfId="17" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="입력" xfId="12" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="제목" xfId="7" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="제목 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="제목 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="제목 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="제목 4" xfId="11" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="좋음" xfId="18" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="출력" xfId="13" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+  <cellStyles count="93">
+    <cellStyle name="20% - 강조색1" xfId="69" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="73" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="77" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="81" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="85" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="89" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="70" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="74" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="78" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="82" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="86" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="90" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="71" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="75" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="79" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="83" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="87" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="91" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="68" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="72" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="76" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="80" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="84" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="88" builtinId="49"/>
+    <cellStyle name="경고문" xfId="53" builtinId="11"/>
+    <cellStyle name="계산" xfId="61" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="66" builtinId="27"/>
+    <cellStyle name="메모" xfId="52" builtinId="10"/>
+    <cellStyle name="백분율" xfId="47" builtinId="5"/>
+    <cellStyle name="보통" xfId="67" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="92" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="62" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="45" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="48" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="63" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="64" builtinId="25"/>
+    <cellStyle name="입력" xfId="59" builtinId="20"/>
+    <cellStyle name="제목" xfId="54" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="55" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="56" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="57" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="58" builtinId="19"/>
+    <cellStyle name="좋음" xfId="65" builtinId="26"/>
+    <cellStyle name="출력" xfId="60" builtinId="21"/>
+    <cellStyle name="통화" xfId="46" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="49" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="4" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="하이퍼링크" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색2" xfId="25"/>
+    <cellStyle name="20% - 강조색3" xfId="29"/>
+    <cellStyle name="20% - 강조색4" xfId="33"/>
+    <cellStyle name="20% - 강조색5" xfId="37"/>
+    <cellStyle name="20% - 강조색6" xfId="41"/>
+    <cellStyle name="40% - 강조색1" xfId="22"/>
+    <cellStyle name="40% - 강조색2" xfId="26"/>
+    <cellStyle name="40% - 강조색3" xfId="30"/>
+    <cellStyle name="40% - 강조색4" xfId="34"/>
+    <cellStyle name="40% - 강조색5" xfId="38"/>
+    <cellStyle name="40% - 강조색6" xfId="42"/>
+    <cellStyle name="60% - 강조색1" xfId="23"/>
+    <cellStyle name="60% - 강조색2" xfId="27"/>
+    <cellStyle name="60% - 강조색3" xfId="31"/>
+    <cellStyle name="60% - 강조색4" xfId="35"/>
+    <cellStyle name="60% - 강조색5" xfId="39"/>
+    <cellStyle name="60% - 강조색6" xfId="43"/>
+    <cellStyle name="강조색1" xfId="21"/>
+    <cellStyle name="강조색2" xfId="24"/>
+    <cellStyle name="강조색3" xfId="28"/>
+    <cellStyle name="강조색4" xfId="32"/>
+    <cellStyle name="강조색5" xfId="36"/>
+    <cellStyle name="강조색6" xfId="40"/>
+    <cellStyle name="경고문" xfId="6"/>
+    <cellStyle name="계산" xfId="14"/>
+    <cellStyle name="나쁨" xfId="19"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="보통" xfId="20"/>
+    <cellStyle name="설명텍스트" xfId="44"/>
+    <cellStyle name="셀 확인" xfId="15"/>
+    <cellStyle name="연결된 셀" xfId="16"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="3"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="5"/>
+    <cellStyle name="요약" xfId="17"/>
+    <cellStyle name="입력" xfId="12"/>
+    <cellStyle name="제목" xfId="7"/>
+    <cellStyle name="제목 1" xfId="8"/>
+    <cellStyle name="제목 2" xfId="9"/>
+    <cellStyle name="제목 3" xfId="10"/>
+    <cellStyle name="제목 4" xfId="11"/>
+    <cellStyle name="좋음" xfId="18"/>
+    <cellStyle name="출력" xfId="13"/>
+    <cellStyle name="하이퍼링크" xfId="4"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -2156,40 +2521,53 @@
         <bottom style="thin">
           <color rgb="FF6182D6"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
       </font>
       <border>
         <top style="thin">
           <color rgb="FF6182D6"/>
         </top>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
       </font>
       <border>
         <bottom style="medium">
           <color rgb="FF6182D6"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <border>
@@ -2201,6 +2579,7 @@
         <bottom style="medium">
           <color rgb="FF6182D6"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -2224,6 +2603,8 @@
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -2236,6 +2617,8 @@
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -2248,6 +2631,8 @@
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -2260,11 +2645,14 @@
         <top style="thick">
           <color rgb="FFFFFFFF"/>
         </top>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -2277,10 +2665,13 @@
         <bottom style="thick">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -2302,6 +2693,7 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -2311,8 +2703,8 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="2" defaultTableStyle="Normal Style 1 - Accent 1" defaultPivotStyle="Light Style 1 - Accent 1">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -2321,7 +2713,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" pivot="1" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2331,14 +2723,6 @@
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2633,30 +3017,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M80" sqref="M80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="9" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="11" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="16" width="9" style="1"/>
-    <col min="17" max="17" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="1"/>
-    <col min="20" max="20" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="4" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="9.00500011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="8" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="11" style="1" width="9.00500011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="16" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="17" style="1" width="9.00500011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="19" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="20" max="20" style="1" width="9.00500011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="17.250000">
       <c r="A1" s="37"/>
       <c r="B1" s="7" t="s">
         <v>18</v>
@@ -2717,7 +3100,7 @@
       </c>
       <c r="U1" s="38"/>
     </row>
-    <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="17.250000">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2741,11 +3124,11 @@
       <c r="S2" s="20"/>
       <c r="T2" s="21"/>
       <c r="U2" s="39">
-        <f t="shared" ref="U2:U65" si="0">SUM(B2:T2)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B2:T2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="16.500000" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -2769,7 +3152,7 @@
       <c r="S3" s="23"/>
       <c r="T3" s="24"/>
       <c r="U3" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:T3)</f>
         <v>0</v>
       </c>
       <c r="W3" s="74" t="s">
@@ -2783,7 +3166,7 @@
       <c r="AC3" s="75"/>
       <c r="AD3" s="76"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -2807,7 +3190,7 @@
       <c r="S4" s="23"/>
       <c r="T4" s="24"/>
       <c r="U4" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:T4)</f>
         <v>0</v>
       </c>
       <c r="W4" s="68" t="s">
@@ -2821,7 +3204,7 @@
       <c r="AC4" s="69"/>
       <c r="AD4" s="70"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -2845,7 +3228,7 @@
       <c r="S5" s="23"/>
       <c r="T5" s="24"/>
       <c r="U5" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:T5)</f>
         <v>0</v>
       </c>
       <c r="W5" s="68"/>
@@ -2857,7 +3240,7 @@
       <c r="AC5" s="69"/>
       <c r="AD5" s="70"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -2881,7 +3264,7 @@
       <c r="S6" s="23"/>
       <c r="T6" s="24"/>
       <c r="U6" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:T6)</f>
         <v>0</v>
       </c>
       <c r="W6" s="68"/>
@@ -2893,7 +3276,7 @@
       <c r="AC6" s="69"/>
       <c r="AD6" s="70"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -2917,7 +3300,7 @@
       <c r="S7" s="23"/>
       <c r="T7" s="24"/>
       <c r="U7" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:T7)</f>
         <v>0</v>
       </c>
       <c r="W7" s="68"/>
@@ -2929,32 +3312,58 @@
       <c r="AC7" s="69"/>
       <c r="AD7" s="70"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="23">
+        <v>0</v>
+      </c>
       <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="23">
+        <v>1</v>
+      </c>
+      <c r="G8" s="23">
+        <v>0</v>
+      </c>
+      <c r="H8" s="23">
+        <v>0</v>
+      </c>
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
       <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
+      <c r="L8" s="23">
+        <v>1</v>
+      </c>
+      <c r="M8" s="23">
+        <v>0</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <v>1</v>
+      </c>
       <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
+      <c r="R8" s="23">
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0.5</v>
+      </c>
       <c r="T8" s="24"/>
       <c r="U8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B8:T8)</f>
+        <v>4</v>
       </c>
       <c r="W8" s="68"/>
       <c r="X8" s="69"/>
@@ -2965,32 +3374,58 @@
       <c r="AC8" s="69"/>
       <c r="AD8" s="70"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30">
       <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="23">
+        <v>0.75</v>
+      </c>
       <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="F9" s="23">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="23">
+        <v>0.75</v>
+      </c>
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
       <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
+      <c r="L9" s="23">
+        <v>1</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0.75</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0.25</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="P9" s="23">
+        <v>0.5</v>
+      </c>
       <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
+      <c r="R9" s="23">
+        <v>1</v>
+      </c>
+      <c r="S9" s="23">
+        <v>0.75</v>
+      </c>
       <c r="T9" s="24"/>
       <c r="U9" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B9:T9)</f>
+        <v>8.25</v>
       </c>
       <c r="W9" s="68"/>
       <c r="X9" s="69"/>
@@ -3001,32 +3436,58 @@
       <c r="AC9" s="69"/>
       <c r="AD9" s="70"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="B10" s="22">
+        <v>0</v>
+      </c>
+      <c r="C10" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="23">
+        <v>0.3</v>
+      </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
+      <c r="F10" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="23">
+        <v>0</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.3</v>
+      </c>
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
       <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
+      <c r="L10" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0</v>
+      </c>
       <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
+      <c r="R10" s="23">
+        <v>0.3</v>
+      </c>
+      <c r="S10" s="23">
+        <v>0</v>
+      </c>
       <c r="T10" s="24"/>
       <c r="U10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B10:T10)</f>
+        <v>2.1</v>
       </c>
       <c r="W10" s="68"/>
       <c r="X10" s="69"/>
@@ -3037,32 +3498,58 @@
       <c r="AC10" s="69"/>
       <c r="AD10" s="70"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="B11" s="22">
+        <v>0</v>
+      </c>
+      <c r="C11" s="23">
+        <v>1</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1</v>
+      </c>
       <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
+      <c r="F11" s="23">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23">
+        <v>0</v>
+      </c>
+      <c r="H11" s="23">
+        <v>1</v>
+      </c>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
+      <c r="L11" s="23">
+        <v>1</v>
+      </c>
+      <c r="M11" s="23">
+        <v>1</v>
+      </c>
+      <c r="N11" s="23">
+        <v>1</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
+        <v>1</v>
+      </c>
       <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
+      <c r="R11" s="23">
+        <v>1</v>
+      </c>
+      <c r="S11" s="23">
+        <v>1</v>
+      </c>
       <c r="T11" s="24"/>
       <c r="U11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B11:T11)</f>
+        <v>10</v>
       </c>
       <c r="W11" s="68"/>
       <c r="X11" s="69"/>
@@ -3073,32 +3560,58 @@
       <c r="AC11" s="69"/>
       <c r="AD11" s="70"/>
     </row>
-    <row r="12" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" ht="17.250000">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="23">
+        <v>0</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1</v>
+      </c>
       <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
+      <c r="F12" s="23">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23">
+        <v>0</v>
+      </c>
+      <c r="H12" s="23">
+        <v>0</v>
+      </c>
       <c r="I12" s="23"/>
       <c r="J12" s="23"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
+      <c r="L12" s="23">
+        <v>1</v>
+      </c>
+      <c r="M12" s="23">
+        <v>1</v>
+      </c>
+      <c r="N12" s="23">
+        <v>1</v>
+      </c>
+      <c r="O12" s="23">
+        <v>0</v>
+      </c>
+      <c r="P12" s="23">
+        <v>1</v>
+      </c>
       <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
+      <c r="R12" s="23">
+        <v>0</v>
+      </c>
+      <c r="S12" s="23">
+        <v>1</v>
+      </c>
       <c r="T12" s="24"/>
       <c r="U12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B12:T12)</f>
+        <v>7</v>
       </c>
       <c r="W12" s="71"/>
       <c r="X12" s="72"/>
@@ -3109,35 +3622,61 @@
       <c r="AC12" s="72"/>
       <c r="AD12" s="73"/>
     </row>
-    <row r="13" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" ht="17.250000">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="B13" s="22">
+        <v>0</v>
+      </c>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1</v>
+      </c>
       <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
+      <c r="F13" s="23">
+        <v>1</v>
+      </c>
+      <c r="G13" s="23">
+        <v>1</v>
+      </c>
+      <c r="H13" s="23">
+        <v>1</v>
+      </c>
       <c r="I13" s="23"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
+      <c r="L13" s="23">
+        <v>1</v>
+      </c>
+      <c r="M13" s="23">
+        <v>1</v>
+      </c>
+      <c r="N13" s="23">
+        <v>1</v>
+      </c>
+      <c r="O13" s="23">
+        <v>0</v>
+      </c>
+      <c r="P13" s="23">
+        <v>1</v>
+      </c>
       <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
+      <c r="R13" s="23">
+        <v>1</v>
+      </c>
+      <c r="S13" s="23">
+        <v>1</v>
+      </c>
       <c r="T13" s="24"/>
       <c r="U13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B13:T13)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" ht="17.250000">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -3161,7 +3700,7 @@
       <c r="S14" s="23"/>
       <c r="T14" s="24"/>
       <c r="U14" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:T14)</f>
         <v>0</v>
       </c>
       <c r="W14" s="67" t="s">
@@ -3177,7 +3716,7 @@
       </c>
       <c r="AB14" s="60"/>
     </row>
-    <row r="15" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" ht="17.250000">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -3201,7 +3740,7 @@
       <c r="S15" s="23"/>
       <c r="T15" s="24"/>
       <c r="U15" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:T15)</f>
         <v>0</v>
       </c>
       <c r="W15" s="63" t="s">
@@ -3215,7 +3754,7 @@
       <c r="AA15" s="61"/>
       <c r="AB15" s="62"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -3239,11 +3778,11 @@
       <c r="S16" s="23"/>
       <c r="T16" s="24"/>
       <c r="U16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B16:T16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -3267,11 +3806,11 @@
       <c r="S17" s="23"/>
       <c r="T17" s="24"/>
       <c r="U17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B17:T17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -3295,11 +3834,11 @@
       <c r="S18" s="23"/>
       <c r="T18" s="24"/>
       <c r="U18" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B18:T18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="17.250000">
       <c r="A19" s="40" t="s">
         <v>37</v>
       </c>
@@ -3323,68 +3862,120 @@
       <c r="S19" s="42"/>
       <c r="T19" s="43"/>
       <c r="U19" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B19:T19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="17.250000">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="B20" s="45">
+        <v>0</v>
+      </c>
+      <c r="C20" s="46">
+        <v>0</v>
+      </c>
+      <c r="D20" s="46">
+        <v>0</v>
+      </c>
       <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
+      <c r="F20" s="46">
+        <v>1</v>
+      </c>
+      <c r="G20" s="46">
+        <v>0</v>
+      </c>
+      <c r="H20" s="46">
+        <v>1</v>
+      </c>
       <c r="I20" s="46"/>
       <c r="J20" s="46"/>
       <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
+      <c r="L20" s="46">
+        <v>1</v>
+      </c>
+      <c r="M20" s="46">
+        <v>0</v>
+      </c>
+      <c r="N20" s="46">
+        <v>1</v>
+      </c>
+      <c r="O20" s="46">
+        <v>1</v>
+      </c>
+      <c r="P20" s="46">
+        <v>0</v>
+      </c>
       <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
+      <c r="R20" s="46">
+        <v>1</v>
+      </c>
+      <c r="S20" s="46">
+        <v>1</v>
+      </c>
       <c r="T20" s="47"/>
       <c r="U20" s="39">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B20:T20)</f>
+        <v>7</v>
       </c>
       <c r="W20" s="65" t="s">
         <v>100</v>
       </c>
       <c r="X20" s="66"/>
     </row>
-    <row r="21" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" ht="17.250000">
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="16">
+        <v>0</v>
+      </c>
+      <c r="C21" s="17">
+        <v>1</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
       <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="F21" s="17">
+        <v>1</v>
+      </c>
+      <c r="G21" s="17">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>1</v>
+      </c>
       <c r="I21" s="17"/>
       <c r="J21" s="17"/>
       <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
+      <c r="L21" s="17">
+        <v>1</v>
+      </c>
+      <c r="M21" s="17">
+        <v>0</v>
+      </c>
+      <c r="N21" s="17">
+        <v>1</v>
+      </c>
+      <c r="O21" s="17">
+        <v>1</v>
+      </c>
+      <c r="P21" s="17">
+        <v>0</v>
+      </c>
       <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
+      <c r="R21" s="17">
+        <v>1</v>
+      </c>
+      <c r="S21" s="17">
+        <v>1</v>
+      </c>
       <c r="T21" s="18"/>
       <c r="U21" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B21:T21)</f>
+        <v>9</v>
       </c>
       <c r="W21" s="67" t="s">
         <v>96</v>
@@ -3399,32 +3990,58 @@
       </c>
       <c r="AB21" s="60"/>
     </row>
-    <row r="22" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" ht="17.250000">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0</v>
+      </c>
       <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
+      <c r="F22" s="17">
+        <v>1</v>
+      </c>
+      <c r="G22" s="17">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1</v>
+      </c>
       <c r="I22" s="17"/>
       <c r="J22" s="17"/>
       <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
+      <c r="L22" s="17">
+        <v>1</v>
+      </c>
+      <c r="M22" s="17">
+        <v>0</v>
+      </c>
+      <c r="N22" s="17">
+        <v>0</v>
+      </c>
+      <c r="O22" s="17">
+        <v>1</v>
+      </c>
+      <c r="P22" s="17">
+        <v>0</v>
+      </c>
       <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
+      <c r="R22" s="17">
+        <v>1</v>
+      </c>
+      <c r="S22" s="17">
+        <v>0</v>
+      </c>
       <c r="T22" s="18"/>
       <c r="U22" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B22:T22)</f>
+        <v>5</v>
       </c>
       <c r="W22" s="63" t="s">
         <v>98</v>
@@ -3437,91 +4054,169 @@
       <c r="AA22" s="61"/>
       <c r="AB22" s="62"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:28">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="B23" s="16">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0</v>
+      </c>
       <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="17">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1</v>
+      </c>
       <c r="I23" s="17"/>
       <c r="J23" s="17"/>
       <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="17"/>
+      <c r="L23" s="17">
+        <v>1</v>
+      </c>
+      <c r="M23" s="17">
+        <v>0</v>
+      </c>
+      <c r="N23" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="17">
+        <v>1</v>
+      </c>
+      <c r="P23" s="17">
+        <v>0.5</v>
+      </c>
       <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
+      <c r="R23" s="17">
+        <v>1</v>
+      </c>
+      <c r="S23" s="17">
+        <v>1</v>
+      </c>
       <c r="T23" s="18"/>
       <c r="U23" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B23:T23)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
+      <c r="B24" s="16">
+        <v>0</v>
+      </c>
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
       <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="F24" s="17">
+        <v>1</v>
+      </c>
+      <c r="G24" s="17">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1</v>
+      </c>
       <c r="I24" s="17"/>
       <c r="J24" s="17"/>
       <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="17"/>
+      <c r="L24" s="17">
+        <v>1</v>
+      </c>
+      <c r="M24" s="17">
+        <v>0</v>
+      </c>
+      <c r="N24" s="17">
+        <v>1</v>
+      </c>
+      <c r="O24" s="17">
+        <v>1</v>
+      </c>
+      <c r="P24" s="17">
+        <v>1</v>
+      </c>
       <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
+      <c r="R24" s="17">
+        <v>1</v>
+      </c>
+      <c r="S24" s="17">
+        <v>1</v>
+      </c>
       <c r="T24" s="18"/>
       <c r="U24" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B24:T24)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
+      <c r="B25" s="16">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
       <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
+      <c r="F25" s="17">
+        <v>1</v>
+      </c>
+      <c r="G25" s="17">
+        <v>1</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
       <c r="I25" s="17"/>
       <c r="J25" s="17"/>
       <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="17"/>
+      <c r="L25" s="17">
+        <v>1</v>
+      </c>
+      <c r="M25" s="17">
+        <v>1</v>
+      </c>
+      <c r="N25" s="17">
+        <v>1</v>
+      </c>
+      <c r="O25" s="17">
+        <v>1</v>
+      </c>
+      <c r="P25" s="17">
+        <v>1</v>
+      </c>
       <c r="Q25" s="17"/>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
+      <c r="R25" s="17">
+        <v>1</v>
+      </c>
+      <c r="S25" s="17">
+        <v>1</v>
+      </c>
       <c r="T25" s="18"/>
       <c r="U25" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B25:T25)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
       <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
@@ -3545,11 +4240,11 @@
       <c r="S26" s="17"/>
       <c r="T26" s="18"/>
       <c r="U26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B26:T26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -3573,11 +4268,11 @@
       <c r="S27" s="17"/>
       <c r="T27" s="18"/>
       <c r="U27" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B27:T27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
@@ -3601,11 +4296,11 @@
       <c r="S28" s="17"/>
       <c r="T28" s="18"/>
       <c r="U28" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B28:T28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
@@ -3629,11 +4324,11 @@
       <c r="S29" s="17"/>
       <c r="T29" s="18"/>
       <c r="U29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B29:T29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
@@ -3657,11 +4352,11 @@
       <c r="S30" s="17"/>
       <c r="T30" s="18"/>
       <c r="U30" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B30:T30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="10" t="s">
         <v>49</v>
       </c>
@@ -3685,11 +4380,11 @@
       <c r="S31" s="17"/>
       <c r="T31" s="18"/>
       <c r="U31" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B31:T31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="10" t="s">
         <v>50</v>
       </c>
@@ -3739,11 +4434,11 @@
       </c>
       <c r="T32" s="18"/>
       <c r="U32" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:T32)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28">
       <c r="A33" s="10" t="s">
         <v>51</v>
       </c>
@@ -3793,11 +4488,11 @@
       </c>
       <c r="T33" s="18"/>
       <c r="U33" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:T33)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28">
       <c r="A34" s="10" t="s">
         <v>52</v>
       </c>
@@ -3821,11 +4516,11 @@
       <c r="S34" s="17"/>
       <c r="T34" s="18"/>
       <c r="U34" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B34:T34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28">
       <c r="A35" s="10" t="s">
         <v>53</v>
       </c>
@@ -3849,11 +4544,11 @@
       <c r="S35" s="17"/>
       <c r="T35" s="18"/>
       <c r="U35" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B35:T35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28">
       <c r="A36" s="10" t="s">
         <v>54</v>
       </c>
@@ -3877,11 +4572,11 @@
       <c r="S36" s="17"/>
       <c r="T36" s="18"/>
       <c r="U36" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B36:T36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28">
       <c r="A37" s="10" t="s">
         <v>55</v>
       </c>
@@ -3905,11 +4600,11 @@
       <c r="S37" s="17"/>
       <c r="T37" s="18"/>
       <c r="U37" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B37:T37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28">
       <c r="A38" s="10" t="s">
         <v>56</v>
       </c>
@@ -3933,11 +4628,11 @@
       <c r="S38" s="17"/>
       <c r="T38" s="18"/>
       <c r="U38" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B38:T38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" ht="17.250000">
       <c r="A39" s="40" t="s">
         <v>57</v>
       </c>
@@ -3961,11 +4656,11 @@
       <c r="S39" s="49"/>
       <c r="T39" s="50"/>
       <c r="U39" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B39:T39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" ht="17.250000">
       <c r="A40" s="9" t="s">
         <v>58</v>
       </c>
@@ -3989,7 +4684,7 @@
       <c r="S40" s="52"/>
       <c r="T40" s="53"/>
       <c r="U40" s="39">
-        <f t="shared" si="0"/>
+        <f>SUM(B40:T40)</f>
         <v>0</v>
       </c>
       <c r="W40" s="65" t="s">
@@ -3997,7 +4692,7 @@
       </c>
       <c r="X40" s="66"/>
     </row>
-    <row r="41" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:28" ht="17.250000">
       <c r="A41" s="10" t="s">
         <v>59</v>
       </c>
@@ -4021,7 +4716,7 @@
       <c r="S41" s="26"/>
       <c r="T41" s="27"/>
       <c r="U41" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B41:T41)</f>
         <v>0</v>
       </c>
       <c r="W41" s="67" t="s">
@@ -4037,7 +4732,7 @@
       </c>
       <c r="AB41" s="60"/>
     </row>
-    <row r="42" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:28" ht="17.250000">
       <c r="A42" s="10" t="s">
         <v>60</v>
       </c>
@@ -4061,7 +4756,7 @@
       <c r="S42" s="26"/>
       <c r="T42" s="27"/>
       <c r="U42" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B42:T42)</f>
         <v>0</v>
       </c>
       <c r="W42" s="63" t="s">
@@ -4075,7 +4770,7 @@
       <c r="AA42" s="61"/>
       <c r="AB42" s="62"/>
     </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:28">
       <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
@@ -4099,11 +4794,11 @@
       <c r="S43" s="26"/>
       <c r="T43" s="27"/>
       <c r="U43" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B43:T43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28">
       <c r="A44" s="10" t="s">
         <v>67</v>
       </c>
@@ -4127,11 +4822,11 @@
       <c r="S44" s="26"/>
       <c r="T44" s="27"/>
       <c r="U44" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B44:T44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
@@ -4155,11 +4850,11 @@
       <c r="S45" s="26"/>
       <c r="T45" s="27"/>
       <c r="U45" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B45:T45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28">
       <c r="A46" s="10" t="s">
         <v>69</v>
       </c>
@@ -4183,11 +4878,11 @@
       <c r="S46" s="26"/>
       <c r="T46" s="27"/>
       <c r="U46" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B46:T46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28">
       <c r="A47" s="10" t="s">
         <v>70</v>
       </c>
@@ -4211,11 +4906,11 @@
       <c r="S47" s="26"/>
       <c r="T47" s="27"/>
       <c r="U47" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B47:T47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28">
       <c r="A48" s="10" t="s">
         <v>71</v>
       </c>
@@ -4239,11 +4934,11 @@
       <c r="S48" s="26"/>
       <c r="T48" s="27"/>
       <c r="U48" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B48:T48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="10" t="s">
         <v>72</v>
       </c>
@@ -4267,11 +4962,11 @@
       <c r="S49" s="26"/>
       <c r="T49" s="27"/>
       <c r="U49" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B49:T49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" s="10" t="s">
         <v>73</v>
       </c>
@@ -4295,11 +4990,11 @@
       <c r="S50" s="26"/>
       <c r="T50" s="27"/>
       <c r="U50" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B50:T50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="10" t="s">
         <v>74</v>
       </c>
@@ -4323,179 +5018,335 @@
       <c r="S51" s="26"/>
       <c r="T51" s="27"/>
       <c r="U51" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B51:T51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
+      <c r="B52" s="25">
+        <v>0</v>
+      </c>
+      <c r="C52" s="26">
+        <v>0</v>
+      </c>
+      <c r="D52" s="26">
+        <v>0</v>
+      </c>
       <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
+      <c r="F52" s="26">
+        <v>1</v>
+      </c>
+      <c r="G52" s="26">
+        <v>0</v>
+      </c>
+      <c r="H52" s="26">
+        <v>0</v>
+      </c>
       <c r="I52" s="26"/>
       <c r="J52" s="26"/>
       <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
+      <c r="L52" s="26">
+        <v>1</v>
+      </c>
+      <c r="M52" s="26">
+        <v>0</v>
+      </c>
+      <c r="N52" s="26">
+        <v>0</v>
+      </c>
+      <c r="O52" s="26">
+        <v>0</v>
+      </c>
+      <c r="P52" s="26">
+        <v>0</v>
+      </c>
       <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
+      <c r="R52" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="S52" s="26">
+        <v>1</v>
+      </c>
       <c r="T52" s="27"/>
       <c r="U52" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B52:T52)</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28">
       <c r="A53" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="25"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
+      <c r="B53" s="25">
+        <v>0</v>
+      </c>
+      <c r="C53" s="26">
+        <v>0</v>
+      </c>
+      <c r="D53" s="26">
+        <v>0</v>
+      </c>
       <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
+      <c r="F53" s="26">
+        <v>0</v>
+      </c>
+      <c r="G53" s="26">
+        <v>0</v>
+      </c>
+      <c r="H53" s="26">
+        <v>0</v>
+      </c>
       <c r="I53" s="26"/>
       <c r="J53" s="26"/>
       <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
+      <c r="L53" s="26">
+        <v>1</v>
+      </c>
+      <c r="M53" s="26">
+        <v>0</v>
+      </c>
+      <c r="N53" s="26">
+        <v>0</v>
+      </c>
+      <c r="O53" s="26">
+        <v>0</v>
+      </c>
+      <c r="P53" s="26">
+        <v>0</v>
+      </c>
       <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
+      <c r="R53" s="26">
+        <v>0</v>
+      </c>
+      <c r="S53" s="26">
+        <v>0</v>
+      </c>
       <c r="T53" s="27"/>
       <c r="U53" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B53:T53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="25"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
+      <c r="B54" s="25">
+        <v>0</v>
+      </c>
+      <c r="C54" s="26">
+        <v>1</v>
+      </c>
+      <c r="D54" s="26">
+        <v>0</v>
+      </c>
       <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
+      <c r="F54" s="26">
+        <v>1</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0</v>
+      </c>
+      <c r="H54" s="26">
+        <v>0</v>
+      </c>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
       <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="26"/>
+      <c r="L54" s="26">
+        <v>1</v>
+      </c>
+      <c r="M54" s="26">
+        <v>0</v>
+      </c>
+      <c r="N54" s="26">
+        <v>0</v>
+      </c>
+      <c r="O54" s="26">
+        <v>0</v>
+      </c>
+      <c r="P54" s="26">
+        <v>1</v>
+      </c>
       <c r="Q54" s="26"/>
-      <c r="R54" s="26"/>
-      <c r="S54" s="26"/>
+      <c r="R54" s="26">
+        <v>0</v>
+      </c>
+      <c r="S54" s="26">
+        <v>0</v>
+      </c>
       <c r="T54" s="27"/>
       <c r="U54" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B54:T54)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28">
       <c r="A55" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="25"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
+      <c r="B55" s="25">
+        <v>0</v>
+      </c>
+      <c r="C55" s="26">
+        <v>1</v>
+      </c>
+      <c r="D55" s="26">
+        <v>0</v>
+      </c>
       <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+      <c r="F55" s="26">
+        <v>1</v>
+      </c>
+      <c r="G55" s="26">
+        <v>0</v>
+      </c>
+      <c r="H55" s="26">
+        <v>1</v>
+      </c>
       <c r="I55" s="26"/>
       <c r="J55" s="26"/>
       <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="26"/>
+      <c r="L55" s="26">
+        <v>0</v>
+      </c>
+      <c r="M55" s="26">
+        <v>0</v>
+      </c>
+      <c r="N55" s="26">
+        <v>1</v>
+      </c>
+      <c r="O55" s="26">
+        <v>0</v>
+      </c>
+      <c r="P55" s="26">
+        <v>0</v>
+      </c>
       <c r="Q55" s="26"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="26"/>
+      <c r="R55" s="26">
+        <v>1</v>
+      </c>
+      <c r="S55" s="26">
+        <v>1</v>
+      </c>
       <c r="T55" s="27"/>
       <c r="U55" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B55:T55)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28">
       <c r="A56" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
+      <c r="B56" s="25">
+        <v>0</v>
+      </c>
+      <c r="C56" s="26">
+        <v>0</v>
+      </c>
+      <c r="D56" s="26">
+        <v>0</v>
+      </c>
       <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
+      <c r="F56" s="26">
+        <v>1</v>
+      </c>
+      <c r="G56" s="26">
+        <v>0</v>
+      </c>
+      <c r="H56" s="26">
+        <v>1</v>
+      </c>
       <c r="I56" s="26"/>
       <c r="J56" s="26"/>
       <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
-      <c r="P56" s="26"/>
+      <c r="L56" s="26">
+        <v>1</v>
+      </c>
+      <c r="M56" s="26">
+        <v>1</v>
+      </c>
+      <c r="N56" s="26">
+        <v>0</v>
+      </c>
+      <c r="O56" s="26">
+        <v>0</v>
+      </c>
+      <c r="P56" s="26">
+        <v>0</v>
+      </c>
       <c r="Q56" s="26"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="26"/>
+      <c r="R56" s="26">
+        <v>1</v>
+      </c>
+      <c r="S56" s="26">
+        <v>1</v>
+      </c>
       <c r="T56" s="27"/>
       <c r="U56" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B56:T56)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" ht="17.250000">
       <c r="A57" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="54"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
+      <c r="B57" s="54">
+        <v>0</v>
+      </c>
+      <c r="C57" s="55">
+        <v>1</v>
+      </c>
+      <c r="D57" s="55">
+        <v>1</v>
+      </c>
       <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
+      <c r="F57" s="55">
+        <v>1</v>
+      </c>
+      <c r="G57" s="55">
+        <v>0</v>
+      </c>
+      <c r="H57" s="55">
+        <v>0</v>
+      </c>
       <c r="I57" s="55"/>
       <c r="J57" s="55"/>
       <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
+      <c r="L57" s="55">
+        <v>1</v>
+      </c>
+      <c r="M57" s="55">
+        <v>1</v>
+      </c>
+      <c r="N57" s="55">
+        <v>1</v>
+      </c>
+      <c r="O57" s="55">
+        <v>0</v>
+      </c>
+      <c r="P57" s="55">
+        <v>1</v>
+      </c>
       <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
+      <c r="R57" s="55">
+        <v>1</v>
+      </c>
+      <c r="S57" s="55">
+        <v>1</v>
+      </c>
       <c r="T57" s="56"/>
       <c r="U57" s="44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B57:T57)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" ht="17.250000">
       <c r="A58" s="12" t="s">
         <v>76</v>
       </c>
@@ -4519,7 +5370,7 @@
       <c r="S58" s="29"/>
       <c r="T58" s="30"/>
       <c r="U58" s="13">
-        <f t="shared" si="0"/>
+        <f>SUM(B58:T58)</f>
         <v>0</v>
       </c>
       <c r="W58" s="65" t="s">
@@ -4527,7 +5378,7 @@
       </c>
       <c r="X58" s="66"/>
     </row>
-    <row r="59" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:28" ht="17.250000">
       <c r="A59" s="10" t="s">
         <v>77</v>
       </c>
@@ -4551,7 +5402,7 @@
       <c r="S59" s="32"/>
       <c r="T59" s="33"/>
       <c r="U59" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B59:T59)</f>
         <v>0</v>
       </c>
       <c r="W59" s="67" t="s">
@@ -4567,7 +5418,7 @@
       </c>
       <c r="AB59" s="60"/>
     </row>
-    <row r="60" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:28" ht="17.250000">
       <c r="A60" s="10" t="s">
         <v>78</v>
       </c>
@@ -4617,7 +5468,7 @@
       </c>
       <c r="T60" s="33"/>
       <c r="U60" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B60:T60)</f>
         <v>9</v>
       </c>
       <c r="W60" s="63" t="s">
@@ -4631,7 +5482,7 @@
       <c r="AA60" s="61"/>
       <c r="AB60" s="62"/>
     </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:28">
       <c r="A61" s="10" t="s">
         <v>79</v>
       </c>
@@ -4655,11 +5506,11 @@
       <c r="S61" s="32"/>
       <c r="T61" s="33"/>
       <c r="U61" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B61:T61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="10" t="s">
         <v>80</v>
       </c>
@@ -4709,11 +5560,11 @@
       </c>
       <c r="T62" s="33"/>
       <c r="U62" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B62:T62)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28">
       <c r="A63" s="10" t="s">
         <v>81</v>
       </c>
@@ -4737,11 +5588,11 @@
       <c r="S63" s="32"/>
       <c r="T63" s="33"/>
       <c r="U63" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B63:T63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="10" t="s">
         <v>82</v>
       </c>
@@ -4765,11 +5616,11 @@
       <c r="S64" s="32"/>
       <c r="T64" s="33"/>
       <c r="U64" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B64:T64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="10" t="s">
         <v>83</v>
       </c>
@@ -4793,11 +5644,11 @@
       <c r="S65" s="32"/>
       <c r="T65" s="33"/>
       <c r="U65" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B65:T65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" s="10" t="s">
         <v>84</v>
       </c>
@@ -4821,11 +5672,11 @@
       <c r="S66" s="32"/>
       <c r="T66" s="33"/>
       <c r="U66" s="14">
-        <f t="shared" ref="U66:U75" si="1">SUM(B66:T66)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B66:T66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24">
       <c r="A67" s="10" t="s">
         <v>85</v>
       </c>
@@ -4849,11 +5700,11 @@
       <c r="S67" s="32"/>
       <c r="T67" s="33"/>
       <c r="U67" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B67:T67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="10" t="s">
         <v>86</v>
       </c>
@@ -4877,11 +5728,11 @@
       <c r="S68" s="32"/>
       <c r="T68" s="33"/>
       <c r="U68" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B68:T68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="10" t="s">
         <v>87</v>
       </c>
@@ -4905,11 +5756,11 @@
       <c r="S69" s="32"/>
       <c r="T69" s="33"/>
       <c r="U69" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B69:T69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" s="10" t="s">
         <v>88</v>
       </c>
@@ -4933,11 +5784,11 @@
       <c r="S70" s="32"/>
       <c r="T70" s="33"/>
       <c r="U70" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B70:T70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" s="10" t="s">
         <v>89</v>
       </c>
@@ -4961,11 +5812,11 @@
       <c r="S71" s="32"/>
       <c r="T71" s="33"/>
       <c r="U71" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B71:T71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24">
       <c r="A72" s="10" t="s">
         <v>90</v>
       </c>
@@ -4989,11 +5840,11 @@
       <c r="S72" s="32"/>
       <c r="T72" s="33"/>
       <c r="U72" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B72:T72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24">
       <c r="A73" s="10" t="s">
         <v>91</v>
       </c>
@@ -5017,11 +5868,11 @@
       <c r="S73" s="32"/>
       <c r="T73" s="33"/>
       <c r="U73" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B73:T73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" s="10" t="s">
         <v>92</v>
       </c>
@@ -5045,11 +5896,11 @@
       <c r="S74" s="32"/>
       <c r="T74" s="33"/>
       <c r="U74" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B74:T74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="17.250000">
       <c r="A75" s="11" t="s">
         <v>93</v>
       </c>
@@ -5073,11 +5924,11 @@
       <c r="S75" s="35"/>
       <c r="T75" s="36"/>
       <c r="U75" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(B75:T75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="17.250000">
       <c r="A76" s="6" t="s">
         <v>6</v>
       </c>
@@ -5086,139 +5937,139 @@
         <v>0</v>
       </c>
       <c r="C76" s="4">
-        <f t="shared" ref="C76:T76" si="2">SUM(C2:C75)</f>
-        <v>2</v>
+        <f>SUM(C2:C75)</f>
+        <v>12.55</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(D2:D75)</f>
+        <v>12.05</v>
       </c>
       <c r="E76" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(E2:E75)</f>
         <v>0</v>
       </c>
       <c r="F76" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(F2:F75)</f>
+        <v>20.3</v>
       </c>
       <c r="G76" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(G2:G75)</f>
+        <v>7.25</v>
       </c>
       <c r="H76" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(H2:H75)</f>
+        <v>15.05</v>
       </c>
       <c r="I76" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(I2:I75)</f>
         <v>0</v>
       </c>
       <c r="J76" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(J2:J75)</f>
         <v>0</v>
       </c>
       <c r="K76" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(K2:K75)</f>
         <v>0</v>
       </c>
       <c r="L76" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(L2:L75)</f>
+        <v>20.3</v>
       </c>
       <c r="M76" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>SUM(M2:M75)</f>
+        <v>10.05</v>
       </c>
       <c r="N76" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(N2:N75)</f>
+        <v>10.75</v>
       </c>
       <c r="O76" s="4">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f>SUM(O2:O75)</f>
+        <v>9.5</v>
       </c>
       <c r="P76" s="4">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f>SUM(P2:P75)</f>
+        <v>10</v>
       </c>
       <c r="Q76" s="4">
-        <f t="shared" si="2"/>
+        <f>SUM(Q2:Q75)</f>
         <v>0</v>
       </c>
       <c r="R76" s="4">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f>SUM(R2:R75)</f>
+        <v>16.8</v>
       </c>
       <c r="S76" s="4">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f>SUM(S2:S75)</f>
+        <v>15.25</v>
       </c>
       <c r="T76" s="5">
-        <f t="shared" si="2"/>
+        <f>SUM(T2:T75)</f>
         <v>0</v>
       </c>
       <c r="U76" s="6">
         <f>SUM(B76:T76)</f>
-        <v>36</v>
+        <v>159.85</v>
       </c>
       <c r="W76" s="57"/>
       <c r="X76" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W4:AD12"/>
-    <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W14:X14"/>
     <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Z15"/>
     <mergeCell ref="W20:X20"/>
-    <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="Y21:Z21"/>
     <mergeCell ref="AA21:AB22"/>
     <mergeCell ref="W22:X22"/>
     <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
     <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W58:X58"/>
     <mergeCell ref="W41:X41"/>
     <mergeCell ref="Y41:Z41"/>
     <mergeCell ref="AA41:AB42"/>
     <mergeCell ref="W42:X42"/>
     <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W58:X58"/>
     <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W14:X14" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{97292820-5DAF-44F7-A253-CDE3D0FCFEAA}"/>
-    <hyperlink ref="Y14:Z14" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{EC3E0792-B949-4EFA-84EA-49EE59B42DCB}"/>
-    <hyperlink ref="W15:X15" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{DA8052CC-162C-4890-8EF7-8E75FC7D0773}"/>
-    <hyperlink ref="Y15:Z15" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{8B514A99-A346-450C-85FD-DD3A899EE511}"/>
-    <hyperlink ref="W20:X20" location="Sheet1!A2" display="처음으로" xr:uid="{D604647E-4490-40BA-998F-8F9554FEB480}"/>
-    <hyperlink ref="AA14:AB15" location="Sheet1!A76:U76" display="채점결과" xr:uid="{EC6DB0B1-3D4C-4D56-9C62-AAEEDF914F8E}"/>
-    <hyperlink ref="W21:X21" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{32F76B3D-98B0-4F67-AD84-51F7D6865761}"/>
-    <hyperlink ref="Y21:Z21" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{C0350573-3AA9-4E68-96E5-3E0974F7A324}"/>
-    <hyperlink ref="W22:X22" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{5475B6E7-8170-4FBA-849B-31BE6D0CD13B}"/>
-    <hyperlink ref="Y22:Z22" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{6A557AE7-6412-4D5E-9EDD-1D0F422A5A9F}"/>
-    <hyperlink ref="AA21:AB22" location="Sheet1!A76:U76" display="채점결과" xr:uid="{EFF599D2-F8C5-4B05-BC12-9892B54A3E53}"/>
-    <hyperlink ref="W41:X41" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{07BF7E4E-4C5A-471C-9699-A3ED95CC6ABC}"/>
-    <hyperlink ref="Y41:Z41" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{82F3A0F0-695D-47D6-A56E-9EB611793AE7}"/>
-    <hyperlink ref="W42:X42" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{D6A60852-4273-4DF2-92FD-0DBDEAA95319}"/>
-    <hyperlink ref="Y42:Z42" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{4719CA8D-B751-48F9-A1C2-4C1C170A9347}"/>
-    <hyperlink ref="AA41:AB42" location="Sheet1!A76:U76" display="채점결과" xr:uid="{EBD33D43-A5CF-4F66-9EB9-4A7AC018DC9E}"/>
-    <hyperlink ref="W59:X59" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{18825958-DA74-44CB-9CC2-9305993AE416}"/>
-    <hyperlink ref="Y59:Z59" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{A1C19C6A-222B-4E48-9D63-335E44CE1543}"/>
-    <hyperlink ref="W60:X60" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{993EB537-94B4-47AD-8A6E-562B6261A0F7}"/>
-    <hyperlink ref="Y60:Z60" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{665A349A-E561-4B1B-B324-C8C404DE8576}"/>
-    <hyperlink ref="AA59:AB60" location="Sheet1!A76:U76" display="채점결과" xr:uid="{A8AC23C4-3740-454B-B166-F3E19E4A764D}"/>
-    <hyperlink ref="W40:X40" location="Sheet1!A2" display="처음으로" xr:uid="{60280C15-A955-45CB-817E-4E08F9EA59FC}"/>
-    <hyperlink ref="W58:X58" location="Sheet1!A2" display="처음으로" xr:uid="{FE7C0538-56C7-4795-A506-96B62426C9F9}"/>
+    <hyperlink location="Sheet1!B2:S19" display="1, 2장 이동" ref="W14:X14"/>
+    <hyperlink location="Sheet1!B20:S39" display="3, 4장 이동" ref="Y14:Z14"/>
+    <hyperlink location="Sheet1!B40:S57" display="5, 6장 이동" ref="W15:X15"/>
+    <hyperlink location="Sheet1!B58:S75" display="7, 8장 이동" ref="Y15:Z15"/>
+    <hyperlink location="Sheet1!A2" display="처음으로" ref="W20:X20"/>
+    <hyperlink location="Sheet1!A76:U76" display="채점결과" ref="AA14:AB15"/>
+    <hyperlink location="Sheet1!B2:S19" display="1, 2장 이동" ref="W21:X21"/>
+    <hyperlink location="Sheet1!B20:S39" display="3, 4장 이동" ref="Y21:Z21"/>
+    <hyperlink location="Sheet1!B40:S57" display="5, 6장 이동" ref="W22:X22"/>
+    <hyperlink location="Sheet1!B58:S75" display="7, 8장 이동" ref="Y22:Z22"/>
+    <hyperlink location="Sheet1!A76:U76" display="채점결과" ref="AA21:AB22"/>
+    <hyperlink location="Sheet1!B2:S19" display="1, 2장 이동" ref="W41:X41"/>
+    <hyperlink location="Sheet1!B20:S39" display="3, 4장 이동" ref="Y41:Z41"/>
+    <hyperlink location="Sheet1!B40:S57" display="5, 6장 이동" ref="W42:X42"/>
+    <hyperlink location="Sheet1!B58:S75" display="7, 8장 이동" ref="Y42:Z42"/>
+    <hyperlink location="Sheet1!A76:U76" display="채점결과" ref="AA41:AB42"/>
+    <hyperlink location="Sheet1!B2:S19" display="1, 2장 이동" ref="W59:X59"/>
+    <hyperlink location="Sheet1!B20:S39" display="3, 4장 이동" ref="Y59:Z59"/>
+    <hyperlink location="Sheet1!B40:S57" display="5, 6장 이동" ref="W60:X60"/>
+    <hyperlink location="Sheet1!B58:S75" display="7, 8장 이동" ref="Y60:Z60"/>
+    <hyperlink location="Sheet1!A76:U76" display="채점결과" ref="AA59:AB60"/>
+    <hyperlink location="Sheet1!A2" display="처음으로" ref="W40:X40"/>
+    <hyperlink location="Sheet1!A2" display="처음으로" ref="W58:X58"/>
   </hyperlinks>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\새 폴더 (2)\DeepLearningStudy\PPT data\6 week\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -335,8 +340,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1515,6 +1520,36 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="58" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1541,36 +1576,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="57" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="58" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="50" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="52" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="56" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="55" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -2105,15 +2110,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1"/>
@@ -2127,7 +2132,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="37"/>
       <c r="B1" s="7" t="s">
         <v>18</v>
@@ -2188,7 +2193,7 @@
       </c>
       <c r="U1" s="38"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -2216,7 +2221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16.5" customHeight="1">
+    <row r="3" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -2243,18 +2248,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W3" s="58" t="s">
+      <c r="W3" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="59"/>
-      <c r="AD3" s="60"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="70"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>3</v>
       </c>
@@ -2281,18 +2286,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="61" t="s">
+      <c r="W4" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="X4" s="62"/>
-      <c r="Y4" s="62"/>
-      <c r="Z4" s="62"/>
-      <c r="AA4" s="62"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="63"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="73"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
@@ -2319,16 +2324,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W5" s="61"/>
-      <c r="X5" s="62"/>
-      <c r="Y5" s="62"/>
-      <c r="Z5" s="62"/>
-      <c r="AA5" s="62"/>
-      <c r="AB5" s="62"/>
-      <c r="AC5" s="62"/>
-      <c r="AD5" s="63"/>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="W5" s="71"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="73"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
@@ -2381,16 +2386,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W6" s="61"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="62"/>
-      <c r="AA6" s="62"/>
-      <c r="AB6" s="62"/>
-      <c r="AC6" s="62"/>
-      <c r="AD6" s="63"/>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="W6" s="71"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="73"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>1</v>
       </c>
@@ -2443,16 +2448,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="W7" s="61"/>
-      <c r="X7" s="62"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="62"/>
-      <c r="AA7" s="62"/>
-      <c r="AB7" s="62"/>
-      <c r="AC7" s="62"/>
-      <c r="AD7" s="63"/>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="W7" s="71"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="73"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>26</v>
       </c>
@@ -2505,16 +2510,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W8" s="61"/>
-      <c r="X8" s="62"/>
-      <c r="Y8" s="62"/>
-      <c r="Z8" s="62"/>
-      <c r="AA8" s="62"/>
-      <c r="AB8" s="62"/>
-      <c r="AC8" s="62"/>
-      <c r="AD8" s="63"/>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="W8" s="71"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="72"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="72"/>
+      <c r="AC8" s="72"/>
+      <c r="AD8" s="73"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>27</v>
       </c>
@@ -2567,16 +2572,16 @@
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="W9" s="61"/>
-      <c r="X9" s="62"/>
-      <c r="Y9" s="62"/>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="63"/>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="W9" s="71"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="73"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>28</v>
       </c>
@@ -2629,16 +2634,16 @@
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="W10" s="61"/>
-      <c r="X10" s="62"/>
-      <c r="Y10" s="62"/>
-      <c r="Z10" s="62"/>
-      <c r="AA10" s="62"/>
-      <c r="AB10" s="62"/>
-      <c r="AC10" s="62"/>
-      <c r="AD10" s="63"/>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="W10" s="71"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="72"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="72"/>
+      <c r="AB10" s="72"/>
+      <c r="AC10" s="72"/>
+      <c r="AD10" s="73"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>29</v>
       </c>
@@ -2691,16 +2696,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W11" s="61"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="63"/>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="W11" s="71"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="72"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="72"/>
+      <c r="AB11" s="72"/>
+      <c r="AC11" s="72"/>
+      <c r="AD11" s="73"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>30</v>
       </c>
@@ -2753,16 +2758,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W12" s="64"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="65"/>
-      <c r="AC12" s="65"/>
-      <c r="AD12" s="66"/>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="W12" s="74"/>
+      <c r="X12" s="75"/>
+      <c r="Y12" s="75"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="75"/>
+      <c r="AB12" s="75"/>
+      <c r="AC12" s="75"/>
+      <c r="AD12" s="76"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
@@ -2816,7 +2821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>32</v>
       </c>
@@ -2843,20 +2848,20 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W14" s="67" t="s">
+      <c r="W14" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="68" t="s">
+      <c r="X14" s="60"/>
+      <c r="Y14" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="69" t="s">
+      <c r="Z14" s="61"/>
+      <c r="AA14" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="AB14" s="70"/>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AB14" s="63"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>33</v>
       </c>
@@ -2883,18 +2888,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W15" s="73" t="s">
+      <c r="W15" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="74" t="s">
+      <c r="X15" s="66"/>
+      <c r="Y15" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="72"/>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="Z15" s="67"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="65"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>34</v>
       </c>
@@ -2922,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>35</v>
       </c>
@@ -2950,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>36</v>
       </c>
@@ -2978,7 +2983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="40" t="s">
         <v>37</v>
       </c>
@@ -3006,7 +3011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
@@ -3059,12 +3064,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W20" s="75" t="s">
+      <c r="W20" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="X20" s="76"/>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="X20" s="59"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
@@ -3117,20 +3122,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W21" s="67" t="s">
+      <c r="W21" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="X21" s="67"/>
-      <c r="Y21" s="68" t="s">
+      <c r="X21" s="60"/>
+      <c r="Y21" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="Z21" s="68"/>
-      <c r="AA21" s="69" t="s">
+      <c r="Z21" s="61"/>
+      <c r="AA21" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="AB21" s="70"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AB21" s="63"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>40</v>
       </c>
@@ -3183,18 +3188,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W22" s="73" t="s">
+      <c r="W22" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="74" t="s">
+      <c r="X22" s="66"/>
+      <c r="Y22" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="72"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="Z22" s="67"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="65"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -3248,7 +3253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:28">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>42</v>
       </c>
@@ -3302,7 +3307,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>43</v>
       </c>
@@ -3356,7 +3361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
@@ -3384,7 +3389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>45</v>
       </c>
@@ -3412,7 +3417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>46</v>
       </c>
@@ -3440,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>47</v>
       </c>
@@ -3468,7 +3473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>48</v>
       </c>
@@ -3496,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>49</v>
       </c>
@@ -3524,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>50</v>
       </c>
@@ -3578,7 +3583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>51</v>
       </c>
@@ -3632,7 +3637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>52</v>
       </c>
@@ -3660,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>53</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>54</v>
       </c>
@@ -3716,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>55</v>
       </c>
@@ -3744,7 +3749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>56</v>
       </c>
@@ -3772,7 +3777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="40" t="s">
         <v>57</v>
       </c>
@@ -3800,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>58</v>
       </c>
@@ -3827,12 +3832,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W40" s="75" t="s">
+      <c r="W40" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="X40" s="76"/>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="X40" s="59"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>59</v>
       </c>
@@ -3859,20 +3864,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W41" s="67" t="s">
+      <c r="W41" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="X41" s="67"/>
-      <c r="Y41" s="68" t="s">
+      <c r="X41" s="60"/>
+      <c r="Y41" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="Z41" s="68"/>
-      <c r="AA41" s="69" t="s">
+      <c r="Z41" s="61"/>
+      <c r="AA41" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="AB41" s="70"/>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AB41" s="63"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>60</v>
       </c>
@@ -3899,18 +3904,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W42" s="73" t="s">
+      <c r="W42" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="74" t="s">
+      <c r="X42" s="66"/>
+      <c r="Y42" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="Z42" s="74"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="72"/>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="Z42" s="67"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="65"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>61</v>
       </c>
@@ -3938,63 +3943,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
+      <c r="B44" s="25">
+        <v>0</v>
+      </c>
+      <c r="C44" s="26">
+        <v>1</v>
+      </c>
+      <c r="D44" s="26">
+        <v>1</v>
+      </c>
       <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
+      <c r="F44" s="26">
+        <v>1</v>
+      </c>
+      <c r="G44" s="26">
+        <v>0</v>
+      </c>
+      <c r="H44" s="26">
+        <v>0</v>
+      </c>
       <c r="I44" s="26"/>
       <c r="J44" s="26"/>
       <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
+      <c r="L44" s="26">
+        <v>0</v>
+      </c>
+      <c r="M44" s="26">
+        <v>1</v>
+      </c>
+      <c r="N44" s="26">
+        <v>1</v>
+      </c>
+      <c r="O44" s="26">
+        <v>1</v>
+      </c>
+      <c r="P44" s="26">
+        <v>1</v>
+      </c>
       <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
+      <c r="R44" s="26">
+        <v>1</v>
+      </c>
+      <c r="S44" s="26">
+        <v>1</v>
+      </c>
       <c r="T44" s="27"/>
       <c r="U44" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
+      <c r="B45" s="25">
+        <v>0</v>
+      </c>
+      <c r="C45" s="26">
+        <v>1</v>
+      </c>
+      <c r="D45" s="26">
+        <v>1</v>
+      </c>
       <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
+      <c r="F45" s="26">
+        <v>1</v>
+      </c>
+      <c r="G45" s="26">
+        <v>1</v>
+      </c>
+      <c r="H45" s="26">
+        <v>1</v>
+      </c>
       <c r="I45" s="26"/>
       <c r="J45" s="26"/>
       <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
+      <c r="L45" s="26">
+        <v>1</v>
+      </c>
+      <c r="M45" s="26">
+        <v>0</v>
+      </c>
+      <c r="N45" s="26">
+        <v>0</v>
+      </c>
+      <c r="O45" s="26">
+        <v>1</v>
+      </c>
+      <c r="P45" s="26">
+        <v>1</v>
+      </c>
       <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
+      <c r="R45" s="26">
+        <v>1</v>
+      </c>
+      <c r="S45" s="26">
+        <v>1</v>
+      </c>
       <c r="T45" s="27"/>
       <c r="U45" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>69</v>
       </c>
@@ -4044,7 +4101,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>70</v>
       </c>
@@ -4094,7 +4151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>71</v>
       </c>
@@ -4122,7 +4179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>72</v>
       </c>
@@ -4150,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>73</v>
       </c>
@@ -4178,7 +4235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>74</v>
       </c>
@@ -4206,7 +4263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>75</v>
       </c>
@@ -4260,7 +4317,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>66</v>
       </c>
@@ -4314,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>65</v>
       </c>
@@ -4368,7 +4425,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>64</v>
       </c>
@@ -4422,7 +4479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>63</v>
       </c>
@@ -4476,7 +4533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="40" t="s">
         <v>62</v>
       </c>
@@ -4530,7 +4587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>76</v>
       </c>
@@ -4557,12 +4614,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W58" s="75" t="s">
+      <c r="W58" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="X58" s="76"/>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="X58" s="59"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>77</v>
       </c>
@@ -4589,20 +4646,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W59" s="67" t="s">
+      <c r="W59" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="X59" s="67"/>
-      <c r="Y59" s="68" t="s">
+      <c r="X59" s="60"/>
+      <c r="Y59" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="Z59" s="68"/>
-      <c r="AA59" s="69" t="s">
+      <c r="Z59" s="61"/>
+      <c r="AA59" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="AB59" s="70"/>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AB59" s="63"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>78</v>
       </c>
@@ -4655,18 +4712,18 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W60" s="73" t="s">
+      <c r="W60" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="X60" s="73"/>
-      <c r="Y60" s="74" t="s">
+      <c r="X60" s="66"/>
+      <c r="Y60" s="67" t="s">
         <v>99</v>
       </c>
-      <c r="Z60" s="74"/>
-      <c r="AA60" s="71"/>
-      <c r="AB60" s="72"/>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="Z60" s="67"/>
+      <c r="AA60" s="64"/>
+      <c r="AB60" s="65"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>79</v>
       </c>
@@ -4694,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>80</v>
       </c>
@@ -4748,7 +4805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>81</v>
       </c>
@@ -4776,7 +4833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>82</v>
       </c>
@@ -4804,7 +4861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>83</v>
       </c>
@@ -4832,7 +4889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>84</v>
       </c>
@@ -4860,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>85</v>
       </c>
@@ -4888,7 +4945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>86</v>
       </c>
@@ -4916,63 +4973,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B69" s="31"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
+      <c r="B69" s="31">
+        <v>0</v>
+      </c>
+      <c r="C69" s="32">
+        <v>0</v>
+      </c>
+      <c r="D69" s="32">
+        <v>1</v>
+      </c>
       <c r="E69" s="32"/>
-      <c r="F69" s="32"/>
-      <c r="G69" s="32"/>
-      <c r="H69" s="32"/>
+      <c r="F69" s="32">
+        <v>0</v>
+      </c>
+      <c r="G69" s="32">
+        <v>1</v>
+      </c>
+      <c r="H69" s="32">
+        <v>0</v>
+      </c>
       <c r="I69" s="32"/>
       <c r="J69" s="32"/>
       <c r="K69" s="32"/>
-      <c r="L69" s="32"/>
-      <c r="M69" s="32"/>
-      <c r="N69" s="32"/>
-      <c r="O69" s="32"/>
-      <c r="P69" s="32"/>
+      <c r="L69" s="32">
+        <v>1</v>
+      </c>
+      <c r="M69" s="32">
+        <v>1</v>
+      </c>
+      <c r="N69" s="32">
+        <v>1</v>
+      </c>
+      <c r="O69" s="32">
+        <v>0</v>
+      </c>
+      <c r="P69" s="32">
+        <v>0</v>
+      </c>
       <c r="Q69" s="32"/>
-      <c r="R69" s="32"/>
-      <c r="S69" s="32"/>
+      <c r="R69" s="32">
+        <v>1</v>
+      </c>
+      <c r="S69" s="32">
+        <v>1</v>
+      </c>
       <c r="T69" s="33"/>
       <c r="U69" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B70" s="31"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
+      <c r="B70" s="31">
+        <v>0</v>
+      </c>
+      <c r="C70" s="32">
+        <v>0</v>
+      </c>
+      <c r="D70" s="32">
+        <v>1</v>
+      </c>
       <c r="E70" s="32"/>
-      <c r="F70" s="32"/>
-      <c r="G70" s="32"/>
-      <c r="H70" s="32"/>
+      <c r="F70" s="32">
+        <v>1</v>
+      </c>
+      <c r="G70" s="32">
+        <v>0</v>
+      </c>
+      <c r="H70" s="32">
+        <v>0</v>
+      </c>
       <c r="I70" s="32"/>
       <c r="J70" s="32"/>
       <c r="K70" s="32"/>
-      <c r="L70" s="32"/>
-      <c r="M70" s="32"/>
-      <c r="N70" s="32"/>
-      <c r="O70" s="32"/>
-      <c r="P70" s="32"/>
+      <c r="L70" s="32">
+        <v>1</v>
+      </c>
+      <c r="M70" s="32">
+        <v>0</v>
+      </c>
+      <c r="N70" s="32">
+        <v>0</v>
+      </c>
+      <c r="O70" s="32">
+        <v>0</v>
+      </c>
+      <c r="P70" s="32">
+        <v>0</v>
+      </c>
       <c r="Q70" s="32"/>
-      <c r="R70" s="32"/>
-      <c r="S70" s="32"/>
+      <c r="R70" s="32">
+        <v>1</v>
+      </c>
+      <c r="S70" s="32">
+        <v>0</v>
+      </c>
       <c r="T70" s="33"/>
       <c r="U70" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>89</v>
       </c>
@@ -5000,7 +5109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>90</v>
       </c>
@@ -5028,7 +5137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>91</v>
       </c>
@@ -5056,7 +5165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>92</v>
       </c>
@@ -5084,7 +5193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>93</v>
       </c>
@@ -5112,7 +5221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>6</v>
       </c>
@@ -5122,11 +5231,11 @@
       </c>
       <c r="C76" s="4">
         <f t="shared" si="3"/>
-        <v>15.05</v>
+        <v>17.05</v>
       </c>
       <c r="D76" s="4">
         <f t="shared" si="3"/>
-        <v>13.55</v>
+        <v>17.55</v>
       </c>
       <c r="E76" s="4">
         <f t="shared" si="3"/>
@@ -5134,15 +5243,15 @@
       </c>
       <c r="F76" s="4">
         <f t="shared" si="3"/>
-        <v>24.3</v>
+        <v>27.3</v>
       </c>
       <c r="G76" s="4">
         <f t="shared" si="3"/>
-        <v>9.25</v>
+        <v>11.25</v>
       </c>
       <c r="H76" s="4">
         <f t="shared" si="3"/>
-        <v>17.55</v>
+        <v>18.55</v>
       </c>
       <c r="I76" s="4">
         <f t="shared" si="3"/>
@@ -5158,23 +5267,23 @@
       </c>
       <c r="L76" s="4">
         <f t="shared" si="3"/>
-        <v>20.8</v>
+        <v>23.8</v>
       </c>
       <c r="M76" s="4">
         <f t="shared" si="3"/>
-        <v>13.05</v>
+        <v>15.05</v>
       </c>
       <c r="N76" s="4">
         <f t="shared" si="3"/>
-        <v>12.25</v>
+        <v>14.25</v>
       </c>
       <c r="O76" s="4">
         <f t="shared" si="3"/>
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="P76" s="4">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q76" s="4">
         <f t="shared" si="3"/>
@@ -5182,11 +5291,11 @@
       </c>
       <c r="R76" s="4">
         <f t="shared" si="3"/>
-        <v>18.8</v>
+        <v>22.8</v>
       </c>
       <c r="S76" s="4">
         <f t="shared" si="3"/>
-        <v>18.25</v>
+        <v>21.25</v>
       </c>
       <c r="T76" s="5">
         <f t="shared" si="3"/>
@@ -5194,31 +5303,13 @@
       </c>
       <c r="U76" s="6">
         <f t="shared" si="2"/>
-        <v>186.35000000000002</v>
+        <v>216.35000000000002</v>
       </c>
       <c r="W76" s="57"/>
       <c r="X76" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W4:AD12"/>
     <mergeCell ref="W14:X14"/>
@@ -5226,6 +5317,24 @@
     <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jun02\Desktop\Computer_Engineering\Study\DeepLearning\DeepLearningStudy\PPT data\6 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0440CE5B-7A91-4CE6-B9DA-7E21B75B488E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13872" yWindow="2076" windowWidth="17280" windowHeight="8964" tabRatio="559" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13875" yWindow="2070" windowWidth="17280" windowHeight="8970" tabRatio="559"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -345,7 +344,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1658,34 +1657,43 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="59" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="66" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="68" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="60" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="65" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="61" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="62" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="63" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="64" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="60" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1715,59 +1723,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="59" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="66" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="68" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="60" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="65" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="61" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="62" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="63" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="64" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="60" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
-    <cellStyle name="20% - 강조색1" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - 강조색1 2" xfId="10" xr:uid="{CBB7967D-AA86-4F0E-B8D1-5E37B69E7EAD}"/>
-    <cellStyle name="메모" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="메모 2" xfId="9" xr:uid="{77DE8BC8-4FE3-4018-B332-F59C87A651A3}"/>
-    <cellStyle name="설명텍스트" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="입력" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="입력 2" xfId="11" xr:uid="{0EC99DBD-CD8E-41EE-80DF-B13341CEA584}"/>
+    <cellStyle name="20% - 강조색1" xfId="2"/>
+    <cellStyle name="20% - 강조색1 2" xfId="10"/>
+    <cellStyle name="메모" xfId="1"/>
+    <cellStyle name="메모 2" xfId="9"/>
+    <cellStyle name="설명텍스트" xfId="5"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="7"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="3"/>
+    <cellStyle name="입력" xfId="4"/>
+    <cellStyle name="입력 2" xfId="11"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="8" xr:uid="{9D105106-E127-4FBC-8944-FFBFD19AFBBC}"/>
-    <cellStyle name="하이퍼링크" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="표준 2" xfId="8"/>
+    <cellStyle name="하이퍼링크" xfId="6"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1962,7 +1961,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1971,7 +1970,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2283,16 +2282,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M74" sqref="M74"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1"/>
@@ -2306,7 +2305,7 @@
     <col min="22" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="34"/>
       <c r="B1" s="7" t="s">
         <v>14</v>
@@ -2367,170 +2366,170 @@
       </c>
       <c r="U1" s="35"/>
     </row>
-    <row r="2" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B2" s="81">
-        <v>0</v>
-      </c>
-      <c r="C2" s="82">
-        <v>1</v>
-      </c>
-      <c r="D2" s="82">
-        <v>1</v>
-      </c>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82">
-        <v>1</v>
-      </c>
-      <c r="G2" s="82">
-        <v>1</v>
-      </c>
-      <c r="H2" s="82">
-        <v>1</v>
-      </c>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82">
-        <v>0</v>
-      </c>
-      <c r="M2" s="82">
-        <v>0</v>
-      </c>
-      <c r="N2" s="82">
-        <v>0</v>
-      </c>
-      <c r="O2" s="82">
-        <v>1</v>
-      </c>
-      <c r="P2" s="82">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82">
-        <v>1</v>
-      </c>
-      <c r="S2" s="82">
+      <c r="B2" s="62">
+        <v>1</v>
+      </c>
+      <c r="C2" s="63">
+        <v>1</v>
+      </c>
+      <c r="D2" s="63">
+        <v>1</v>
+      </c>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63">
+        <v>1</v>
+      </c>
+      <c r="G2" s="63">
+        <v>1</v>
+      </c>
+      <c r="H2" s="63">
+        <v>1</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63">
+        <v>0</v>
+      </c>
+      <c r="M2" s="63">
+        <v>0</v>
+      </c>
+      <c r="N2" s="63">
+        <v>0</v>
+      </c>
+      <c r="O2" s="63">
+        <v>1</v>
+      </c>
+      <c r="P2" s="63">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63">
+        <v>1</v>
+      </c>
+      <c r="S2" s="63">
         <v>0</v>
       </c>
       <c r="T2" s="19"/>
       <c r="U2" s="36">
         <f t="shared" ref="U2:U33" si="0">SUM(B2:T2)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="83">
-        <v>0</v>
-      </c>
-      <c r="C3" s="84">
-        <v>1</v>
-      </c>
-      <c r="D3" s="84">
-        <v>1</v>
-      </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84">
-        <v>1</v>
-      </c>
-      <c r="G3" s="84">
-        <v>1</v>
-      </c>
-      <c r="H3" s="84">
-        <v>1</v>
-      </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84">
-        <v>1</v>
-      </c>
-      <c r="M3" s="84">
-        <v>1</v>
-      </c>
-      <c r="N3" s="84">
-        <v>1</v>
-      </c>
-      <c r="O3" s="84">
-        <v>0</v>
-      </c>
-      <c r="P3" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84">
-        <v>1</v>
-      </c>
-      <c r="S3" s="84">
+      <c r="B3" s="64">
+        <v>1</v>
+      </c>
+      <c r="C3" s="65">
+        <v>1</v>
+      </c>
+      <c r="D3" s="65">
+        <v>1</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65">
+        <v>1</v>
+      </c>
+      <c r="G3" s="65">
+        <v>1</v>
+      </c>
+      <c r="H3" s="65">
+        <v>1</v>
+      </c>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65">
+        <v>1</v>
+      </c>
+      <c r="M3" s="65">
+        <v>1</v>
+      </c>
+      <c r="N3" s="65">
+        <v>1</v>
+      </c>
+      <c r="O3" s="65">
+        <v>0</v>
+      </c>
+      <c r="P3" s="65">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65">
+        <v>1</v>
+      </c>
+      <c r="S3" s="65">
         <v>1</v>
       </c>
       <c r="T3" s="22"/>
       <c r="U3" s="14">
         <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="W3" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="W3" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="65"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="68"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="83">
-        <v>0</v>
-      </c>
-      <c r="C4" s="84">
-        <v>0</v>
-      </c>
-      <c r="D4" s="84">
-        <v>0</v>
-      </c>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84">
-        <v>0</v>
-      </c>
-      <c r="G4" s="84">
-        <v>1</v>
-      </c>
-      <c r="H4" s="84">
-        <v>0</v>
-      </c>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84">
-        <v>1</v>
-      </c>
-      <c r="M4" s="84">
-        <v>1</v>
-      </c>
-      <c r="N4" s="84">
-        <v>0</v>
-      </c>
-      <c r="O4" s="84">
-        <v>1</v>
-      </c>
-      <c r="P4" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="84"/>
-      <c r="R4" s="84">
-        <v>0</v>
-      </c>
-      <c r="S4" s="84">
+      <c r="B4" s="64">
+        <v>0</v>
+      </c>
+      <c r="C4" s="65">
+        <v>0</v>
+      </c>
+      <c r="D4" s="65">
+        <v>0</v>
+      </c>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65">
+        <v>0</v>
+      </c>
+      <c r="G4" s="65">
+        <v>1</v>
+      </c>
+      <c r="H4" s="65">
+        <v>0</v>
+      </c>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65">
+        <v>1</v>
+      </c>
+      <c r="M4" s="65">
+        <v>1</v>
+      </c>
+      <c r="N4" s="65">
+        <v>0</v>
+      </c>
+      <c r="O4" s="65">
+        <v>1</v>
+      </c>
+      <c r="P4" s="65">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65">
+        <v>0</v>
+      </c>
+      <c r="S4" s="65">
         <v>0</v>
       </c>
       <c r="T4" s="22"/>
@@ -2538,85 +2537,85 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="68"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="W4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="71"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="83">
-        <v>0</v>
-      </c>
-      <c r="C5" s="84">
+      <c r="B5" s="64">
+        <v>1</v>
+      </c>
+      <c r="C5" s="65">
         <v>0.5</v>
       </c>
-      <c r="D5" s="84">
-        <v>1</v>
-      </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84">
-        <v>1</v>
-      </c>
-      <c r="G5" s="84">
-        <v>1</v>
-      </c>
-      <c r="H5" s="84">
-        <v>1</v>
-      </c>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84">
-        <v>1</v>
-      </c>
-      <c r="M5" s="84">
-        <v>1</v>
-      </c>
-      <c r="N5" s="84">
-        <v>1</v>
-      </c>
-      <c r="O5" s="84">
-        <v>1</v>
-      </c>
-      <c r="P5" s="84">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84">
-        <v>1</v>
-      </c>
-      <c r="S5" s="84">
+      <c r="D5" s="65">
+        <v>1</v>
+      </c>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65">
+        <v>1</v>
+      </c>
+      <c r="G5" s="65">
+        <v>1</v>
+      </c>
+      <c r="H5" s="65">
+        <v>1</v>
+      </c>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65">
+        <v>1</v>
+      </c>
+      <c r="M5" s="65">
+        <v>1</v>
+      </c>
+      <c r="N5" s="65">
+        <v>1</v>
+      </c>
+      <c r="O5" s="65">
+        <v>1</v>
+      </c>
+      <c r="P5" s="65">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65">
+        <v>1</v>
+      </c>
+      <c r="S5" s="65">
         <v>0</v>
       </c>
       <c r="T5" s="22"/>
       <c r="U5" s="14">
         <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-      <c r="W5" s="66"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="68"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+        <v>11.5</v>
+      </c>
+      <c r="W5" s="69"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="70"/>
+      <c r="AA5" s="70"/>
+      <c r="AB5" s="70"/>
+      <c r="AC5" s="70"/>
+      <c r="AD5" s="71"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
@@ -2662,23 +2661,23 @@
       <c r="T6" s="22"/>
       <c r="U6" s="14">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="W6" s="66"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="68"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="W6" s="69"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="71"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
       <c r="B7" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="21">
         <v>1</v>
@@ -2724,18 +2723,18 @@
       <c r="T7" s="22"/>
       <c r="U7" s="14">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="W7" s="66"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+        <v>9</v>
+      </c>
+      <c r="W7" s="69"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="71"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
@@ -2788,16 +2787,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W8" s="66"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="68"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
+      <c r="AD8" s="71"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
@@ -2850,16 +2849,16 @@
         <f t="shared" si="0"/>
         <v>8.25</v>
       </c>
-      <c r="W9" s="66"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="68"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="W9" s="69"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="71"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
@@ -2912,16 +2911,16 @@
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="W10" s="66"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="68"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="W10" s="69"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="70"/>
+      <c r="AD10" s="71"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -2974,16 +2973,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W11" s="66"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="68"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="W11" s="69"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="70"/>
+      <c r="AD11" s="71"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -3036,16 +3035,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W12" s="69"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="71"/>
-    </row>
-    <row r="13" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="W12" s="72"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="73"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="73"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="74"/>
+    </row>
+    <row r="13" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -3099,52 +3098,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="20">
         <v>1</v>
       </c>
-      <c r="C14" s="77">
-        <v>1</v>
-      </c>
-      <c r="D14" s="77">
-        <v>1</v>
-      </c>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77">
-        <v>1</v>
-      </c>
-      <c r="G14" s="77">
-        <v>1</v>
-      </c>
-      <c r="H14" s="77">
-        <v>1</v>
-      </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77">
+      <c r="C14" s="58">
+        <v>1</v>
+      </c>
+      <c r="D14" s="58">
+        <v>1</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58">
+        <v>1</v>
+      </c>
+      <c r="G14" s="58">
+        <v>1</v>
+      </c>
+      <c r="H14" s="58">
+        <v>1</v>
+      </c>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58">
         <v>0.5</v>
       </c>
-      <c r="M14" s="77">
-        <v>1</v>
-      </c>
-      <c r="N14" s="77">
-        <v>1</v>
-      </c>
-      <c r="O14" s="77">
-        <v>1</v>
-      </c>
-      <c r="P14" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="77">
-        <v>1</v>
-      </c>
-      <c r="S14" s="77">
+      <c r="M14" s="58">
+        <v>1</v>
+      </c>
+      <c r="N14" s="58">
+        <v>1</v>
+      </c>
+      <c r="O14" s="58">
+        <v>1</v>
+      </c>
+      <c r="P14" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58">
+        <v>1</v>
+      </c>
+      <c r="S14" s="58">
         <v>1</v>
       </c>
       <c r="T14" s="22"/>
@@ -3152,65 +3151,65 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="W14" s="55" t="s">
+      <c r="W14" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="55"/>
-      <c r="Y14" s="56" t="s">
+      <c r="X14" s="75"/>
+      <c r="Y14" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="57" t="s">
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="AB14" s="58"/>
-    </row>
-    <row r="15" spans="1:30" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="AB14" s="78"/>
+    </row>
+    <row r="15" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="20">
         <v>0</v>
       </c>
-      <c r="C15" s="77">
-        <v>1</v>
-      </c>
-      <c r="D15" s="77">
-        <v>1</v>
-      </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77">
-        <v>1</v>
-      </c>
-      <c r="G15" s="77">
-        <v>0</v>
-      </c>
-      <c r="H15" s="77">
-        <v>1</v>
-      </c>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77">
-        <v>1</v>
-      </c>
-      <c r="M15" s="77">
-        <v>0</v>
-      </c>
-      <c r="N15" s="77">
-        <v>1</v>
-      </c>
-      <c r="O15" s="77">
-        <v>0</v>
-      </c>
-      <c r="P15" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="77"/>
-      <c r="R15" s="77">
-        <v>1</v>
-      </c>
-      <c r="S15" s="77">
+      <c r="C15" s="58">
+        <v>1</v>
+      </c>
+      <c r="D15" s="58">
+        <v>1</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58">
+        <v>1</v>
+      </c>
+      <c r="G15" s="58">
+        <v>0</v>
+      </c>
+      <c r="H15" s="58">
+        <v>1</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58">
+        <v>1</v>
+      </c>
+      <c r="M15" s="58">
+        <v>0</v>
+      </c>
+      <c r="N15" s="58">
+        <v>1</v>
+      </c>
+      <c r="O15" s="58">
+        <v>0</v>
+      </c>
+      <c r="P15" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="58"/>
+      <c r="R15" s="58">
+        <v>1</v>
+      </c>
+      <c r="S15" s="58">
         <v>1</v>
       </c>
       <c r="T15" s="22"/>
@@ -3218,63 +3217,63 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W15" s="61" t="s">
+      <c r="W15" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="62" t="s">
+      <c r="X15" s="81"/>
+      <c r="Y15" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="Z15" s="62"/>
-      <c r="AA15" s="59"/>
-      <c r="AB15" s="60"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="79"/>
+      <c r="AB15" s="80"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="20">
         <v>1</v>
       </c>
-      <c r="C16" s="77">
-        <v>1</v>
-      </c>
-      <c r="D16" s="77">
-        <v>1</v>
-      </c>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77">
-        <v>1</v>
-      </c>
-      <c r="G16" s="77">
-        <v>0</v>
-      </c>
-      <c r="H16" s="77">
-        <v>1</v>
-      </c>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77">
-        <v>1</v>
-      </c>
-      <c r="M16" s="77">
-        <v>1</v>
-      </c>
-      <c r="N16" s="77">
-        <v>1</v>
-      </c>
-      <c r="O16" s="77">
-        <v>1</v>
-      </c>
-      <c r="P16" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="77"/>
-      <c r="R16" s="77">
-        <v>1</v>
-      </c>
-      <c r="S16" s="77">
+      <c r="C16" s="58">
+        <v>1</v>
+      </c>
+      <c r="D16" s="58">
+        <v>1</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58">
+        <v>1</v>
+      </c>
+      <c r="G16" s="58">
+        <v>0</v>
+      </c>
+      <c r="H16" s="58">
+        <v>1</v>
+      </c>
+      <c r="I16" s="58"/>
+      <c r="J16" s="58"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="58">
+        <v>1</v>
+      </c>
+      <c r="M16" s="58">
+        <v>1</v>
+      </c>
+      <c r="N16" s="58">
+        <v>1</v>
+      </c>
+      <c r="O16" s="58">
+        <v>1</v>
+      </c>
+      <c r="P16" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="58">
+        <v>1</v>
+      </c>
+      <c r="S16" s="58">
         <v>1</v>
       </c>
       <c r="T16" s="22"/>
@@ -3283,52 +3282,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
       <c r="B17" s="20">
         <v>1</v>
       </c>
-      <c r="C17" s="77">
-        <v>1</v>
-      </c>
-      <c r="D17" s="77">
-        <v>1</v>
-      </c>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77">
-        <v>1</v>
-      </c>
-      <c r="G17" s="77">
-        <v>1</v>
-      </c>
-      <c r="H17" s="77">
-        <v>1</v>
-      </c>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77">
-        <v>1</v>
-      </c>
-      <c r="M17" s="77">
-        <v>1</v>
-      </c>
-      <c r="N17" s="77">
-        <v>1</v>
-      </c>
-      <c r="O17" s="77">
-        <v>1</v>
-      </c>
-      <c r="P17" s="77">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77">
-        <v>1</v>
-      </c>
-      <c r="S17" s="77">
+      <c r="C17" s="58">
+        <v>1</v>
+      </c>
+      <c r="D17" s="58">
+        <v>1</v>
+      </c>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58">
+        <v>1</v>
+      </c>
+      <c r="G17" s="58">
+        <v>1</v>
+      </c>
+      <c r="H17" s="58">
+        <v>1</v>
+      </c>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58">
+        <v>1</v>
+      </c>
+      <c r="M17" s="58">
+        <v>1</v>
+      </c>
+      <c r="N17" s="58">
+        <v>1</v>
+      </c>
+      <c r="O17" s="58">
+        <v>1</v>
+      </c>
+      <c r="P17" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58">
+        <v>1</v>
+      </c>
+      <c r="S17" s="58">
         <v>1</v>
       </c>
       <c r="T17" s="22"/>
@@ -3337,52 +3336,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="20">
         <v>1</v>
       </c>
-      <c r="C18" s="77">
+      <c r="C18" s="58">
         <v>0.5</v>
       </c>
-      <c r="D18" s="77">
-        <v>1</v>
-      </c>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77">
-        <v>1</v>
-      </c>
-      <c r="G18" s="77">
-        <v>1</v>
-      </c>
-      <c r="H18" s="77">
-        <v>1</v>
-      </c>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77">
+      <c r="D18" s="58">
+        <v>1</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58">
+        <v>1</v>
+      </c>
+      <c r="G18" s="58">
+        <v>1</v>
+      </c>
+      <c r="H18" s="58">
+        <v>1</v>
+      </c>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="58">
         <v>0.5</v>
       </c>
-      <c r="M18" s="77">
+      <c r="M18" s="58">
         <v>0.5</v>
       </c>
-      <c r="N18" s="77">
-        <v>1</v>
-      </c>
-      <c r="O18" s="77">
-        <v>1</v>
-      </c>
-      <c r="P18" s="77">
+      <c r="N18" s="58">
+        <v>1</v>
+      </c>
+      <c r="O18" s="58">
+        <v>1</v>
+      </c>
+      <c r="P18" s="58">
         <v>0.5</v>
       </c>
-      <c r="Q18" s="77"/>
-      <c r="R18" s="77">
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58">
         <v>0.5</v>
       </c>
-      <c r="S18" s="77">
+      <c r="S18" s="58">
         <v>0.5</v>
       </c>
       <c r="T18" s="22"/>
@@ -3391,52 +3390,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="37" t="s">
         <v>26</v>
       </c>
       <c r="B19" s="38">
         <v>1</v>
       </c>
-      <c r="C19" s="78">
-        <v>1</v>
-      </c>
-      <c r="D19" s="78">
-        <v>1</v>
-      </c>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78">
-        <v>1</v>
-      </c>
-      <c r="G19" s="78">
-        <v>1</v>
-      </c>
-      <c r="H19" s="78">
-        <v>0</v>
-      </c>
-      <c r="I19" s="78"/>
-      <c r="J19" s="78"/>
-      <c r="K19" s="78"/>
-      <c r="L19" s="78">
-        <v>1</v>
-      </c>
-      <c r="M19" s="78">
-        <v>0</v>
-      </c>
-      <c r="N19" s="78">
-        <v>1</v>
-      </c>
-      <c r="O19" s="78">
-        <v>0</v>
-      </c>
-      <c r="P19" s="78">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="78"/>
-      <c r="R19" s="78">
-        <v>1</v>
-      </c>
-      <c r="S19" s="78">
+      <c r="C19" s="59">
+        <v>1</v>
+      </c>
+      <c r="D19" s="59">
+        <v>1</v>
+      </c>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59">
+        <v>1</v>
+      </c>
+      <c r="G19" s="59">
+        <v>1</v>
+      </c>
+      <c r="H19" s="59">
+        <v>0</v>
+      </c>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59">
+        <v>1</v>
+      </c>
+      <c r="M19" s="59">
+        <v>0</v>
+      </c>
+      <c r="N19" s="59">
+        <v>1</v>
+      </c>
+      <c r="O19" s="59">
+        <v>0</v>
+      </c>
+      <c r="P19" s="59">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59">
+        <v>1</v>
+      </c>
+      <c r="S19" s="59">
         <v>0</v>
       </c>
       <c r="T19" s="39"/>
@@ -3445,7 +3444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -3498,12 +3497,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W20" s="53" t="s">
+      <c r="W20" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="X20" s="54"/>
-    </row>
-    <row r="21" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X20" s="84"/>
+    </row>
+    <row r="21" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
@@ -3556,20 +3555,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W21" s="55" t="s">
+      <c r="W21" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="55"/>
-      <c r="Y21" s="56" t="s">
+      <c r="X21" s="75"/>
+      <c r="Y21" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="56"/>
-      <c r="AA21" s="57" t="s">
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="AB21" s="58"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB21" s="78"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>77</v>
       </c>
@@ -3622,18 +3621,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W22" s="61" t="s">
+      <c r="W22" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="62" t="s">
+      <c r="X22" s="81"/>
+      <c r="Y22" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="60"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="80"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
@@ -3687,7 +3686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>76</v>
       </c>
@@ -3741,7 +3740,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>67</v>
       </c>
@@ -3795,7 +3794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>63</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>79</v>
       </c>
@@ -3879,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -3907,7 +3906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>35</v>
       </c>
@@ -3963,7 +3962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
@@ -4017,7 +4016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>34</v>
       </c>
@@ -4071,52 +4070,52 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
       <c r="B34" s="16">
         <v>0</v>
       </c>
-      <c r="C34" s="79">
-        <v>0</v>
-      </c>
-      <c r="D34" s="79">
-        <v>0</v>
-      </c>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79">
-        <v>1</v>
-      </c>
-      <c r="G34" s="79">
-        <v>1</v>
-      </c>
-      <c r="H34" s="79">
-        <v>1</v>
-      </c>
-      <c r="I34" s="79"/>
-      <c r="J34" s="79"/>
-      <c r="K34" s="79"/>
-      <c r="L34" s="79">
-        <v>0</v>
-      </c>
-      <c r="M34" s="79">
-        <v>0</v>
-      </c>
-      <c r="N34" s="79">
-        <v>0</v>
-      </c>
-      <c r="O34" s="79">
-        <v>1</v>
-      </c>
-      <c r="P34" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="79"/>
-      <c r="R34" s="79">
-        <v>1</v>
-      </c>
-      <c r="S34" s="79">
+      <c r="C34" s="60">
+        <v>0</v>
+      </c>
+      <c r="D34" s="60">
+        <v>0</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60">
+        <v>1</v>
+      </c>
+      <c r="G34" s="60">
+        <v>1</v>
+      </c>
+      <c r="H34" s="60">
+        <v>1</v>
+      </c>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60">
+        <v>0</v>
+      </c>
+      <c r="M34" s="60">
+        <v>0</v>
+      </c>
+      <c r="N34" s="60">
+        <v>0</v>
+      </c>
+      <c r="O34" s="60">
+        <v>1</v>
+      </c>
+      <c r="P34" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60">
+        <v>1</v>
+      </c>
+      <c r="S34" s="60">
         <v>1</v>
       </c>
       <c r="T34" s="18"/>
@@ -4125,52 +4124,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="16">
         <v>1</v>
       </c>
-      <c r="C35" s="79">
-        <v>1</v>
-      </c>
-      <c r="D35" s="79">
-        <v>1</v>
-      </c>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79">
-        <v>1</v>
-      </c>
-      <c r="G35" s="79">
-        <v>1</v>
-      </c>
-      <c r="H35" s="79">
-        <v>1</v>
-      </c>
-      <c r="I35" s="79"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79">
-        <v>0</v>
-      </c>
-      <c r="M35" s="79">
-        <v>1</v>
-      </c>
-      <c r="N35" s="79">
-        <v>0</v>
-      </c>
-      <c r="O35" s="79">
-        <v>0</v>
-      </c>
-      <c r="P35" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="79"/>
-      <c r="R35" s="79">
-        <v>1</v>
-      </c>
-      <c r="S35" s="79">
+      <c r="C35" s="60">
+        <v>1</v>
+      </c>
+      <c r="D35" s="60">
+        <v>1</v>
+      </c>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60">
+        <v>1</v>
+      </c>
+      <c r="G35" s="60">
+        <v>1</v>
+      </c>
+      <c r="H35" s="60">
+        <v>1</v>
+      </c>
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="60">
+        <v>0</v>
+      </c>
+      <c r="M35" s="60">
+        <v>1</v>
+      </c>
+      <c r="N35" s="60">
+        <v>0</v>
+      </c>
+      <c r="O35" s="60">
+        <v>0</v>
+      </c>
+      <c r="P35" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="60">
+        <v>1</v>
+      </c>
+      <c r="S35" s="60">
         <v>1</v>
       </c>
       <c r="T35" s="18"/>
@@ -4179,52 +4178,52 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
       <c r="B36" s="16">
         <v>0</v>
       </c>
-      <c r="C36" s="79">
-        <v>0</v>
-      </c>
-      <c r="D36" s="79">
-        <v>0</v>
-      </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79">
-        <v>1</v>
-      </c>
-      <c r="G36" s="79">
-        <v>1</v>
-      </c>
-      <c r="H36" s="79">
-        <v>1</v>
-      </c>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79">
-        <v>0</v>
-      </c>
-      <c r="M36" s="79">
-        <v>0</v>
-      </c>
-      <c r="N36" s="79">
-        <v>0</v>
-      </c>
-      <c r="O36" s="79">
-        <v>0</v>
-      </c>
-      <c r="P36" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="79"/>
-      <c r="R36" s="79">
-        <v>0</v>
-      </c>
-      <c r="S36" s="79">
+      <c r="C36" s="60">
+        <v>0</v>
+      </c>
+      <c r="D36" s="60">
+        <v>0</v>
+      </c>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60">
+        <v>1</v>
+      </c>
+      <c r="G36" s="60">
+        <v>1</v>
+      </c>
+      <c r="H36" s="60">
+        <v>1</v>
+      </c>
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="60">
+        <v>0</v>
+      </c>
+      <c r="M36" s="60">
+        <v>0</v>
+      </c>
+      <c r="N36" s="60">
+        <v>0</v>
+      </c>
+      <c r="O36" s="60">
+        <v>0</v>
+      </c>
+      <c r="P36" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="60">
+        <v>0</v>
+      </c>
+      <c r="S36" s="60">
         <v>1</v>
       </c>
       <c r="T36" s="18"/>
@@ -4233,52 +4232,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B37" s="16">
         <v>1</v>
       </c>
-      <c r="C37" s="79">
-        <v>1</v>
-      </c>
-      <c r="D37" s="79">
-        <v>1</v>
-      </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79">
-        <v>1</v>
-      </c>
-      <c r="G37" s="79">
-        <v>0</v>
-      </c>
-      <c r="H37" s="79">
-        <v>1</v>
-      </c>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79">
-        <v>0</v>
-      </c>
-      <c r="M37" s="79">
-        <v>1</v>
-      </c>
-      <c r="N37" s="79">
-        <v>1</v>
-      </c>
-      <c r="O37" s="79">
-        <v>1</v>
-      </c>
-      <c r="P37" s="79">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79">
-        <v>1</v>
-      </c>
-      <c r="S37" s="79">
+      <c r="C37" s="60">
+        <v>1</v>
+      </c>
+      <c r="D37" s="60">
+        <v>1</v>
+      </c>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60">
+        <v>1</v>
+      </c>
+      <c r="G37" s="60">
+        <v>0</v>
+      </c>
+      <c r="H37" s="60">
+        <v>1</v>
+      </c>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60">
+        <v>0</v>
+      </c>
+      <c r="M37" s="60">
+        <v>1</v>
+      </c>
+      <c r="N37" s="60">
+        <v>1</v>
+      </c>
+      <c r="O37" s="60">
+        <v>1</v>
+      </c>
+      <c r="P37" s="60">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="60"/>
+      <c r="R37" s="60">
+        <v>1</v>
+      </c>
+      <c r="S37" s="60">
         <v>1</v>
       </c>
       <c r="T37" s="18"/>
@@ -4287,52 +4286,52 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
       <c r="B38" s="16">
         <v>0.5</v>
       </c>
-      <c r="C38" s="79">
+      <c r="C38" s="60">
         <v>0.5</v>
       </c>
-      <c r="D38" s="79">
+      <c r="D38" s="60">
         <v>0.5</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79">
-        <v>0</v>
-      </c>
-      <c r="G38" s="79">
-        <v>1</v>
-      </c>
-      <c r="H38" s="79">
+      <c r="E38" s="60"/>
+      <c r="F38" s="60">
+        <v>0</v>
+      </c>
+      <c r="G38" s="60">
+        <v>1</v>
+      </c>
+      <c r="H38" s="60">
         <v>0.5</v>
       </c>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79">
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60">
         <v>0.5</v>
       </c>
-      <c r="M38" s="79">
-        <v>1</v>
-      </c>
-      <c r="N38" s="79">
+      <c r="M38" s="60">
+        <v>1</v>
+      </c>
+      <c r="N38" s="60">
         <v>0.5</v>
       </c>
-      <c r="O38" s="79">
+      <c r="O38" s="60">
         <v>0.5</v>
       </c>
-      <c r="P38" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="79"/>
-      <c r="R38" s="79">
+      <c r="P38" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="60"/>
+      <c r="R38" s="60">
         <v>0.5</v>
       </c>
-      <c r="S38" s="79">
+      <c r="S38" s="60">
         <v>0.5</v>
       </c>
       <c r="T38" s="18"/>
@@ -4341,52 +4340,52 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="37" t="s">
         <v>36</v>
       </c>
       <c r="B39" s="44">
         <v>0</v>
       </c>
-      <c r="C39" s="80">
-        <v>0</v>
-      </c>
-      <c r="D39" s="80">
-        <v>1</v>
-      </c>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80">
-        <v>1</v>
-      </c>
-      <c r="G39" s="80">
-        <v>1</v>
-      </c>
-      <c r="H39" s="80">
-        <v>1</v>
-      </c>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80">
-        <v>0</v>
-      </c>
-      <c r="M39" s="80">
-        <v>0</v>
-      </c>
-      <c r="N39" s="80">
-        <v>1</v>
-      </c>
-      <c r="O39" s="80">
-        <v>1</v>
-      </c>
-      <c r="P39" s="80">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="80"/>
-      <c r="R39" s="80">
-        <v>1</v>
-      </c>
-      <c r="S39" s="80">
+      <c r="C39" s="61">
+        <v>0</v>
+      </c>
+      <c r="D39" s="61">
+        <v>1</v>
+      </c>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61">
+        <v>1</v>
+      </c>
+      <c r="G39" s="61">
+        <v>1</v>
+      </c>
+      <c r="H39" s="61">
+        <v>1</v>
+      </c>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61">
+        <v>0</v>
+      </c>
+      <c r="M39" s="61">
+        <v>0</v>
+      </c>
+      <c r="N39" s="61">
+        <v>1</v>
+      </c>
+      <c r="O39" s="61">
+        <v>1</v>
+      </c>
+      <c r="P39" s="61">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61">
+        <v>1</v>
+      </c>
+      <c r="S39" s="61">
         <v>1</v>
       </c>
       <c r="T39" s="45"/>
@@ -4395,7 +4394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
@@ -4422,12 +4421,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W40" s="53" t="s">
+      <c r="W40" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="X40" s="54"/>
-    </row>
-    <row r="41" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="X40" s="84"/>
+    </row>
+    <row r="41" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>88</v>
       </c>
@@ -4454,20 +4453,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W41" s="55" t="s">
+      <c r="W41" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="56" t="s">
+      <c r="X41" s="75"/>
+      <c r="Y41" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Z41" s="56"/>
-      <c r="AA41" s="57" t="s">
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="AB41" s="58"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB41" s="78"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>82</v>
       </c>
@@ -4520,18 +4519,18 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W42" s="61" t="s">
+      <c r="W42" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="X42" s="61"/>
-      <c r="Y42" s="62" t="s">
+      <c r="X42" s="81"/>
+      <c r="Y42" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="60"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="79"/>
+      <c r="AB42" s="80"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>83</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>84</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>85</v>
       </c>
@@ -4693,7 +4692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>87</v>
       </c>
@@ -4743,7 +4742,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>86</v>
       </c>
@@ -4793,7 +4792,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>80</v>
       </c>
@@ -4845,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>47</v>
       </c>
@@ -4897,7 +4896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
@@ -4925,7 +4924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>45</v>
       </c>
@@ -5007,7 +5006,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
@@ -5061,7 +5060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>51</v>
       </c>
@@ -5115,7 +5114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
@@ -5169,7 +5168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>41</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="s">
         <v>37</v>
       </c>
@@ -5277,7 +5276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>89</v>
       </c>
@@ -5304,12 +5303,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W58" s="53" t="s">
+      <c r="W58" s="83" t="s">
         <v>100</v>
       </c>
-      <c r="X58" s="54"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X58" s="84"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>90</v>
       </c>
@@ -5336,20 +5335,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W59" s="55" t="s">
+      <c r="W59" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="X59" s="55"/>
-      <c r="Y59" s="56" t="s">
+      <c r="X59" s="75"/>
+      <c r="Y59" s="76" t="s">
         <v>61</v>
       </c>
-      <c r="Z59" s="56"/>
-      <c r="AA59" s="57" t="s">
+      <c r="Z59" s="76"/>
+      <c r="AA59" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="AB59" s="58"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="AB59" s="78"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>91</v>
       </c>
@@ -5402,18 +5401,18 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W60" s="61" t="s">
+      <c r="W60" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="X60" s="61"/>
-      <c r="Y60" s="62" t="s">
+      <c r="X60" s="81"/>
+      <c r="Y60" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="Z60" s="62"/>
-      <c r="AA60" s="59"/>
-      <c r="AB60" s="60"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="Z60" s="82"/>
+      <c r="AA60" s="79"/>
+      <c r="AB60" s="80"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>93</v>
       </c>
@@ -5441,7 +5440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>96</v>
       </c>
@@ -5495,7 +5494,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>94</v>
       </c>
@@ -5523,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>95</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>99</v>
       </c>
@@ -5605,7 +5604,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>101</v>
       </c>
@@ -5659,7 +5658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>43</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>46</v>
       </c>
@@ -5715,7 +5714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>57</v>
       </c>
@@ -5823,52 +5822,52 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B71" s="29">
         <v>0</v>
       </c>
-      <c r="C71" s="74">
+      <c r="C71" s="55">
         <v>0.5</v>
       </c>
-      <c r="D71" s="74">
-        <v>1</v>
-      </c>
-      <c r="E71" s="74"/>
-      <c r="F71" s="74">
-        <v>1</v>
-      </c>
-      <c r="G71" s="74">
-        <v>1</v>
-      </c>
-      <c r="H71" s="74">
-        <v>1</v>
-      </c>
-      <c r="I71" s="74"/>
-      <c r="J71" s="74"/>
-      <c r="K71" s="74"/>
-      <c r="L71" s="74">
-        <v>0</v>
-      </c>
-      <c r="M71" s="74">
-        <v>0</v>
-      </c>
-      <c r="N71" s="74">
-        <v>0</v>
-      </c>
-      <c r="O71" s="74">
-        <v>0</v>
-      </c>
-      <c r="P71" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q71" s="74"/>
-      <c r="R71" s="74">
-        <v>1</v>
-      </c>
-      <c r="S71" s="74">
+      <c r="D71" s="55">
+        <v>1</v>
+      </c>
+      <c r="E71" s="55"/>
+      <c r="F71" s="55">
+        <v>1</v>
+      </c>
+      <c r="G71" s="55">
+        <v>1</v>
+      </c>
+      <c r="H71" s="55">
+        <v>1</v>
+      </c>
+      <c r="I71" s="55"/>
+      <c r="J71" s="55"/>
+      <c r="K71" s="55"/>
+      <c r="L71" s="55">
+        <v>0</v>
+      </c>
+      <c r="M71" s="55">
+        <v>0</v>
+      </c>
+      <c r="N71" s="55">
+        <v>0</v>
+      </c>
+      <c r="O71" s="55">
+        <v>0</v>
+      </c>
+      <c r="P71" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="55"/>
+      <c r="R71" s="55">
+        <v>1</v>
+      </c>
+      <c r="S71" s="55">
         <v>0.5</v>
       </c>
       <c r="T71" s="31"/>
@@ -5877,52 +5876,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>58</v>
       </c>
       <c r="B72" s="29">
         <v>0.5</v>
       </c>
-      <c r="C72" s="74">
-        <v>1</v>
-      </c>
-      <c r="D72" s="74">
+      <c r="C72" s="55">
+        <v>1</v>
+      </c>
+      <c r="D72" s="55">
         <v>0.5</v>
       </c>
-      <c r="E72" s="74"/>
-      <c r="F72" s="74">
-        <v>1</v>
-      </c>
-      <c r="G72" s="74">
-        <v>1</v>
-      </c>
-      <c r="H72" s="74">
-        <v>1</v>
-      </c>
-      <c r="I72" s="74"/>
-      <c r="J72" s="74"/>
-      <c r="K72" s="74"/>
-      <c r="L72" s="74">
-        <v>1</v>
-      </c>
-      <c r="M72" s="74">
+      <c r="E72" s="55"/>
+      <c r="F72" s="55">
+        <v>1</v>
+      </c>
+      <c r="G72" s="55">
+        <v>1</v>
+      </c>
+      <c r="H72" s="55">
+        <v>1</v>
+      </c>
+      <c r="I72" s="55"/>
+      <c r="J72" s="55"/>
+      <c r="K72" s="55"/>
+      <c r="L72" s="55">
+        <v>1</v>
+      </c>
+      <c r="M72" s="55">
         <v>0.5</v>
       </c>
-      <c r="N72" s="74">
+      <c r="N72" s="55">
         <v>0.5</v>
       </c>
-      <c r="O72" s="74">
-        <v>1</v>
-      </c>
-      <c r="P72" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="74"/>
-      <c r="R72" s="74">
+      <c r="O72" s="55">
+        <v>1</v>
+      </c>
+      <c r="P72" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="55"/>
+      <c r="R72" s="55">
         <v>0.5</v>
       </c>
-      <c r="S72" s="74">
+      <c r="S72" s="55">
         <v>1</v>
       </c>
       <c r="T72" s="31"/>
@@ -5931,52 +5930,52 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>53</v>
       </c>
       <c r="B73" s="29">
         <v>1</v>
       </c>
-      <c r="C73" s="74">
-        <v>0</v>
-      </c>
-      <c r="D73" s="74">
-        <v>0</v>
-      </c>
-      <c r="E73" s="74"/>
-      <c r="F73" s="74">
-        <v>1</v>
-      </c>
-      <c r="G73" s="74">
-        <v>1</v>
-      </c>
-      <c r="H73" s="74">
-        <v>1</v>
-      </c>
-      <c r="I73" s="74"/>
-      <c r="J73" s="74"/>
-      <c r="K73" s="74"/>
-      <c r="L73" s="74">
-        <v>0</v>
-      </c>
-      <c r="M73" s="74">
-        <v>1</v>
-      </c>
-      <c r="N73" s="74">
-        <v>0</v>
-      </c>
-      <c r="O73" s="74">
-        <v>0</v>
-      </c>
-      <c r="P73" s="74">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="74"/>
-      <c r="R73" s="74">
-        <v>0</v>
-      </c>
-      <c r="S73" s="74">
+      <c r="C73" s="55">
+        <v>0</v>
+      </c>
+      <c r="D73" s="55">
+        <v>0</v>
+      </c>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55">
+        <v>1</v>
+      </c>
+      <c r="G73" s="55">
+        <v>1</v>
+      </c>
+      <c r="H73" s="55">
+        <v>1</v>
+      </c>
+      <c r="I73" s="55"/>
+      <c r="J73" s="55"/>
+      <c r="K73" s="55"/>
+      <c r="L73" s="55">
+        <v>0</v>
+      </c>
+      <c r="M73" s="55">
+        <v>1</v>
+      </c>
+      <c r="N73" s="55">
+        <v>0</v>
+      </c>
+      <c r="O73" s="55">
+        <v>0</v>
+      </c>
+      <c r="P73" s="55">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="55"/>
+      <c r="R73" s="55">
+        <v>0</v>
+      </c>
+      <c r="S73" s="55">
         <v>0</v>
       </c>
       <c r="T73" s="31"/>
@@ -5985,52 +5984,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B74" s="29">
         <v>1</v>
       </c>
-      <c r="C74" s="74">
-        <v>0</v>
-      </c>
-      <c r="D74" s="74">
-        <v>1</v>
-      </c>
-      <c r="E74" s="74"/>
-      <c r="F74" s="74">
-        <v>1</v>
-      </c>
-      <c r="G74" s="74">
-        <v>1</v>
-      </c>
-      <c r="H74" s="74">
-        <v>1</v>
-      </c>
-      <c r="I74" s="74"/>
-      <c r="J74" s="74"/>
-      <c r="K74" s="74"/>
-      <c r="L74" s="74">
-        <v>1</v>
-      </c>
-      <c r="M74" s="74">
-        <v>1</v>
-      </c>
-      <c r="N74" s="74">
-        <v>0</v>
-      </c>
-      <c r="O74" s="74">
-        <v>1</v>
-      </c>
-      <c r="P74" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="74"/>
-      <c r="R74" s="74">
-        <v>1</v>
-      </c>
-      <c r="S74" s="74">
+      <c r="C74" s="55">
+        <v>0</v>
+      </c>
+      <c r="D74" s="55">
+        <v>1</v>
+      </c>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55">
+        <v>1</v>
+      </c>
+      <c r="G74" s="55">
+        <v>1</v>
+      </c>
+      <c r="H74" s="55">
+        <v>1</v>
+      </c>
+      <c r="I74" s="55"/>
+      <c r="J74" s="55"/>
+      <c r="K74" s="55"/>
+      <c r="L74" s="55">
+        <v>1</v>
+      </c>
+      <c r="M74" s="55">
+        <v>1</v>
+      </c>
+      <c r="N74" s="55">
+        <v>0</v>
+      </c>
+      <c r="O74" s="55">
+        <v>1</v>
+      </c>
+      <c r="P74" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="55"/>
+      <c r="R74" s="55">
+        <v>1</v>
+      </c>
+      <c r="S74" s="55">
         <v>0</v>
       </c>
       <c r="T74" s="31"/>
@@ -6039,106 +6038,106 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B75" s="72">
-        <v>0</v>
-      </c>
-      <c r="C75" s="76">
-        <v>0</v>
-      </c>
-      <c r="D75" s="76">
-        <v>0</v>
-      </c>
-      <c r="E75" s="76"/>
-      <c r="F75" s="76">
-        <v>1</v>
-      </c>
-      <c r="G75" s="76">
-        <v>1</v>
-      </c>
-      <c r="H75" s="76">
-        <v>1</v>
-      </c>
-      <c r="I75" s="76"/>
-      <c r="J75" s="76"/>
-      <c r="K75" s="76"/>
-      <c r="L75" s="76">
-        <v>0</v>
-      </c>
-      <c r="M75" s="76">
-        <v>1</v>
-      </c>
-      <c r="N75" s="76">
-        <v>0</v>
-      </c>
-      <c r="O75" s="76">
-        <v>0</v>
-      </c>
-      <c r="P75" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="76"/>
-      <c r="R75" s="76">
-        <v>0</v>
-      </c>
-      <c r="S75" s="76">
-        <v>0</v>
-      </c>
-      <c r="T75" s="73"/>
+      <c r="B75" s="53">
+        <v>0</v>
+      </c>
+      <c r="C75" s="57">
+        <v>0</v>
+      </c>
+      <c r="D75" s="57">
+        <v>0</v>
+      </c>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57">
+        <v>1</v>
+      </c>
+      <c r="G75" s="57">
+        <v>1</v>
+      </c>
+      <c r="H75" s="57">
+        <v>1</v>
+      </c>
+      <c r="I75" s="57"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57">
+        <v>0</v>
+      </c>
+      <c r="M75" s="57">
+        <v>1</v>
+      </c>
+      <c r="N75" s="57">
+        <v>0</v>
+      </c>
+      <c r="O75" s="57">
+        <v>0</v>
+      </c>
+      <c r="P75" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="57">
+        <v>0</v>
+      </c>
+      <c r="S75" s="57">
+        <v>0</v>
+      </c>
+      <c r="T75" s="54"/>
       <c r="U75" s="15">
         <f>SUM(B75:T75)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
       <c r="B76" s="32">
         <v>0</v>
       </c>
-      <c r="C76" s="75">
-        <v>1</v>
-      </c>
-      <c r="D76" s="75">
-        <v>1</v>
-      </c>
-      <c r="E76" s="75"/>
-      <c r="F76" s="75">
-        <v>1</v>
-      </c>
-      <c r="G76" s="75">
-        <v>1</v>
-      </c>
-      <c r="H76" s="75">
-        <v>1</v>
-      </c>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75">
-        <v>0</v>
-      </c>
-      <c r="M76" s="75">
-        <v>0</v>
-      </c>
-      <c r="N76" s="75">
-        <v>0</v>
-      </c>
-      <c r="O76" s="75">
-        <v>0</v>
-      </c>
-      <c r="P76" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="75"/>
-      <c r="R76" s="75">
+      <c r="C76" s="56">
+        <v>1</v>
+      </c>
+      <c r="D76" s="56">
+        <v>1</v>
+      </c>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56">
+        <v>1</v>
+      </c>
+      <c r="G76" s="56">
+        <v>1</v>
+      </c>
+      <c r="H76" s="56">
+        <v>1</v>
+      </c>
+      <c r="I76" s="56"/>
+      <c r="J76" s="56"/>
+      <c r="K76" s="56"/>
+      <c r="L76" s="56">
+        <v>0</v>
+      </c>
+      <c r="M76" s="56">
+        <v>0</v>
+      </c>
+      <c r="N76" s="56">
+        <v>0</v>
+      </c>
+      <c r="O76" s="56">
+        <v>0</v>
+      </c>
+      <c r="P76" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="56"/>
+      <c r="R76" s="56">
         <v>0.5</v>
       </c>
-      <c r="S76" s="75">
+      <c r="S76" s="56">
         <v>1</v>
       </c>
       <c r="T76" s="33"/>
@@ -6147,95 +6146,113 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="8">
-        <f>SUM(B2:B76)</f>
-        <v>13</v>
+        <f t="shared" ref="B77:T77" si="3">SUM(B2:B76)</f>
+        <v>18</v>
       </c>
       <c r="C77" s="4">
-        <f>SUM(C2:C76)</f>
+        <f t="shared" si="3"/>
         <v>34.049999999999997</v>
       </c>
       <c r="D77" s="4">
-        <f>SUM(D2:D76)</f>
+        <f t="shared" si="3"/>
         <v>37.549999999999997</v>
       </c>
       <c r="E77" s="4">
-        <f>SUM(E2:E76)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F77" s="4">
-        <f>SUM(F2:F76)</f>
+        <f t="shared" si="3"/>
         <v>51.8</v>
       </c>
       <c r="G77" s="4">
-        <f>SUM(G2:G76)</f>
+        <f t="shared" si="3"/>
         <v>32.25</v>
       </c>
       <c r="H77" s="4">
-        <f>SUM(H2:H76)</f>
+        <f t="shared" si="3"/>
         <v>42.55</v>
       </c>
       <c r="I77" s="4">
-        <f>SUM(I2:I76)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77" s="4">
-        <f>SUM(J2:J76)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K77" s="4">
-        <f>SUM(K2:K76)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L77" s="4">
-        <f>SUM(L2:L76)</f>
+        <f t="shared" si="3"/>
         <v>34.299999999999997</v>
       </c>
       <c r="M77" s="4">
-        <f>SUM(M2:M76)</f>
+        <f t="shared" si="3"/>
         <v>32.549999999999997</v>
       </c>
       <c r="N77" s="4">
-        <f>SUM(N2:N76)</f>
+        <f t="shared" si="3"/>
         <v>30.25</v>
       </c>
       <c r="O77" s="4">
-        <f>SUM(O2:O76)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="P77" s="4">
-        <f>SUM(P2:P76)</f>
+        <f t="shared" si="3"/>
         <v>29.5</v>
       </c>
       <c r="Q77" s="4">
-        <f>SUM(Q2:Q76)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R77" s="4">
-        <f>SUM(R2:R76)</f>
+        <f t="shared" si="3"/>
         <v>42.3</v>
       </c>
       <c r="S77" s="4">
-        <f>SUM(S2:S76)</f>
+        <f t="shared" si="3"/>
         <v>39.75</v>
       </c>
       <c r="T77" s="5">
-        <f>SUM(T2:T76)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U77" s="6">
         <f t="shared" si="2"/>
-        <v>448.85</v>
+        <v>453.85</v>
       </c>
       <c r="W77" s="52"/>
       <c r="X77" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W4:AD12"/>
     <mergeCell ref="W14:X14"/>
@@ -6243,50 +6260,32 @@
     <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W14:X14" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Y14:Z14" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="W15:X15" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Y15:Z15" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="W20:X20" location="Sheet1!A2" display="처음으로" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AA14:AB15" location="Sheet1!A76:U76" display="채점결과" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="W21:X21" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Y21:Z21" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="W22:X22" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Y22:Z22" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AA21:AB22" location="Sheet1!A76:U76" display="채점결과" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="W41:X41" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Y41:Z41" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="W42:X42" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="Y42:Z42" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AA41:AB42" location="Sheet1!A76:U76" display="채점결과" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="W59:X59" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Y59:Z59" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="W60:X60" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Y60:Z60" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AA59:AB60" location="Sheet1!A76:U76" display="채점결과" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="W40:X40" location="Sheet1!A2" display="처음으로" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="W58:X58" location="Sheet1!A2" display="처음으로" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="W14:X14" location="Sheet1!B2:S19" display="1, 2장 이동"/>
+    <hyperlink ref="Y14:Z14" location="Sheet1!B20:S39" display="3, 4장 이동"/>
+    <hyperlink ref="W15:X15" location="Sheet1!B40:S57" display="5, 6장 이동"/>
+    <hyperlink ref="Y15:Z15" location="Sheet1!B58:S75" display="7, 8장 이동"/>
+    <hyperlink ref="W20:X20" location="Sheet1!A2" display="처음으로"/>
+    <hyperlink ref="AA14:AB15" location="Sheet1!A76:U76" display="채점결과"/>
+    <hyperlink ref="W21:X21" location="Sheet1!B2:S19" display="1, 2장 이동"/>
+    <hyperlink ref="Y21:Z21" location="Sheet1!B20:S39" display="3, 4장 이동"/>
+    <hyperlink ref="W22:X22" location="Sheet1!B40:S57" display="5, 6장 이동"/>
+    <hyperlink ref="Y22:Z22" location="Sheet1!B58:S75" display="7, 8장 이동"/>
+    <hyperlink ref="AA21:AB22" location="Sheet1!A76:U76" display="채점결과"/>
+    <hyperlink ref="W41:X41" location="Sheet1!B2:S19" display="1, 2장 이동"/>
+    <hyperlink ref="Y41:Z41" location="Sheet1!B20:S39" display="3, 4장 이동"/>
+    <hyperlink ref="W42:X42" location="Sheet1!B40:S57" display="5, 6장 이동"/>
+    <hyperlink ref="Y42:Z42" location="Sheet1!B58:S75" display="7, 8장 이동"/>
+    <hyperlink ref="AA41:AB42" location="Sheet1!A76:U76" display="채점결과"/>
+    <hyperlink ref="W59:X59" location="Sheet1!B2:S19" display="1, 2장 이동"/>
+    <hyperlink ref="Y59:Z59" location="Sheet1!B20:S39" display="3, 4장 이동"/>
+    <hyperlink ref="W60:X60" location="Sheet1!B40:S57" display="5, 6장 이동"/>
+    <hyperlink ref="Y60:Z60" location="Sheet1!B58:S75" display="7, 8장 이동"/>
+    <hyperlink ref="AA59:AB60" location="Sheet1!A76:U76" display="채점결과"/>
+    <hyperlink ref="W40:X40" location="Sheet1!A2" display="처음으로"/>
+    <hyperlink ref="W58:X58" location="Sheet1!A2" display="처음으로"/>
   </hyperlinks>
   <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\test\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305046\Desktop\DeepLearningStudy\PPT data\6 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1696,6 +1696,36 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="60" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1722,36 +1752,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -2287,8 +2287,8 @@
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2473,16 +2473,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="W3" s="66" t="s">
+      <c r="W3" s="76" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="68"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="78"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -2537,16 +2537,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W4" s="69" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="71"/>
+      <c r="W4" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="80"/>
+      <c r="Z4" s="80"/>
+      <c r="AA4" s="80"/>
+      <c r="AB4" s="80"/>
+      <c r="AC4" s="80"/>
+      <c r="AD4" s="81"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -2601,14 +2601,14 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="W5" s="69"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="70"/>
-      <c r="AA5" s="70"/>
-      <c r="AB5" s="70"/>
-      <c r="AC5" s="70"/>
-      <c r="AD5" s="71"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="80"/>
+      <c r="Y5" s="80"/>
+      <c r="Z5" s="80"/>
+      <c r="AA5" s="80"/>
+      <c r="AB5" s="80"/>
+      <c r="AC5" s="80"/>
+      <c r="AD5" s="81"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2663,14 +2663,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W6" s="69"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="70"/>
-      <c r="AA6" s="70"/>
-      <c r="AB6" s="70"/>
-      <c r="AC6" s="70"/>
-      <c r="AD6" s="71"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="81"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2725,14 +2725,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W7" s="69"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="71"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="80"/>
+      <c r="Y7" s="80"/>
+      <c r="Z7" s="80"/>
+      <c r="AA7" s="80"/>
+      <c r="AB7" s="80"/>
+      <c r="AC7" s="80"/>
+      <c r="AD7" s="81"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -2787,21 +2787,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W8" s="69"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="71"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="80"/>
+      <c r="Y8" s="80"/>
+      <c r="Z8" s="80"/>
+      <c r="AA8" s="80"/>
+      <c r="AB8" s="80"/>
+      <c r="AC8" s="80"/>
+      <c r="AD8" s="81"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
       <c r="B9" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C9" s="21">
         <v>0.75</v>
@@ -2847,16 +2847,16 @@
       <c r="T9" s="22"/>
       <c r="U9" s="14">
         <f t="shared" si="0"/>
-        <v>8.25</v>
-      </c>
-      <c r="W9" s="69"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="71"/>
+        <v>8.75</v>
+      </c>
+      <c r="W9" s="79"/>
+      <c r="X9" s="80"/>
+      <c r="Y9" s="80"/>
+      <c r="Z9" s="80"/>
+      <c r="AA9" s="80"/>
+      <c r="AB9" s="80"/>
+      <c r="AC9" s="80"/>
+      <c r="AD9" s="81"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -2911,14 +2911,14 @@
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="W10" s="69"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="71"/>
+      <c r="W10" s="79"/>
+      <c r="X10" s="80"/>
+      <c r="Y10" s="80"/>
+      <c r="Z10" s="80"/>
+      <c r="AA10" s="80"/>
+      <c r="AB10" s="80"/>
+      <c r="AC10" s="80"/>
+      <c r="AD10" s="81"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -2973,14 +2973,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W11" s="69"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="71"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="80"/>
+      <c r="AA11" s="80"/>
+      <c r="AB11" s="80"/>
+      <c r="AC11" s="80"/>
+      <c r="AD11" s="81"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -3035,14 +3035,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W12" s="72"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="73"/>
-      <c r="AB12" s="73"/>
-      <c r="AC12" s="73"/>
-      <c r="AD12" s="74"/>
+      <c r="W12" s="82"/>
+      <c r="X12" s="83"/>
+      <c r="Y12" s="83"/>
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="83"/>
+      <c r="AB12" s="83"/>
+      <c r="AC12" s="83"/>
+      <c r="AD12" s="84"/>
     </row>
     <row r="13" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
@@ -3151,18 +3151,18 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="W14" s="75" t="s">
+      <c r="W14" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="75"/>
-      <c r="Y14" s="76" t="s">
+      <c r="X14" s="68"/>
+      <c r="Y14" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="77" t="s">
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AB14" s="78"/>
+      <c r="AB14" s="71"/>
     </row>
     <row r="15" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
@@ -3217,16 +3217,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W15" s="81" t="s">
+      <c r="W15" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="X15" s="81"/>
-      <c r="Y15" s="82" t="s">
+      <c r="X15" s="74"/>
+      <c r="Y15" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="Z15" s="82"/>
-      <c r="AA15" s="79"/>
-      <c r="AB15" s="80"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="72"/>
+      <c r="AB15" s="73"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -3497,10 +3497,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W20" s="83" t="s">
+      <c r="W20" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="X20" s="84"/>
+      <c r="X20" s="67"/>
     </row>
     <row r="21" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
@@ -3555,18 +3555,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W21" s="75" t="s">
+      <c r="W21" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="76" t="s">
+      <c r="X21" s="68"/>
+      <c r="Y21" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="76"/>
-      <c r="AA21" s="77" t="s">
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AB21" s="78"/>
+      <c r="AB21" s="71"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -3621,16 +3621,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W22" s="81" t="s">
+      <c r="W22" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="X22" s="81"/>
-      <c r="Y22" s="82" t="s">
+      <c r="X22" s="74"/>
+      <c r="Y22" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="80"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="72"/>
+      <c r="AB22" s="73"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
@@ -4421,10 +4421,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W40" s="83" t="s">
+      <c r="W40" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="X40" s="84"/>
+      <c r="X40" s="67"/>
     </row>
     <row r="41" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
@@ -4453,18 +4453,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W41" s="75" t="s">
+      <c r="W41" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="X41" s="75"/>
-      <c r="Y41" s="76" t="s">
+      <c r="X41" s="68"/>
+      <c r="Y41" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="Z41" s="76"/>
-      <c r="AA41" s="77" t="s">
+      <c r="Z41" s="69"/>
+      <c r="AA41" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AB41" s="78"/>
+      <c r="AB41" s="71"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
@@ -4519,16 +4519,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W42" s="81" t="s">
+      <c r="W42" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="X42" s="81"/>
-      <c r="Y42" s="82" t="s">
+      <c r="X42" s="74"/>
+      <c r="Y42" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="79"/>
-      <c r="AB42" s="80"/>
+      <c r="Z42" s="75"/>
+      <c r="AA42" s="72"/>
+      <c r="AB42" s="73"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
@@ -5119,7 +5119,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" s="24">
         <v>1</v>
@@ -5165,7 +5165,7 @@
       <c r="T55" s="25"/>
       <c r="U55" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.3">
@@ -5173,7 +5173,7 @@
         <v>41</v>
       </c>
       <c r="B56" s="23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56" s="24">
         <v>0</v>
@@ -5219,7 +5219,7 @@
       <c r="T56" s="25"/>
       <c r="U56" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.3">
@@ -5227,7 +5227,7 @@
         <v>37</v>
       </c>
       <c r="B57" s="49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57" s="50">
         <v>1</v>
@@ -5273,7 +5273,7 @@
       <c r="T57" s="51"/>
       <c r="U57" s="40">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.3">
@@ -5303,10 +5303,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W58" s="83" t="s">
+      <c r="W58" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="X58" s="84"/>
+      <c r="X58" s="67"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
@@ -5335,18 +5335,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W59" s="75" t="s">
+      <c r="W59" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="X59" s="75"/>
-      <c r="Y59" s="76" t="s">
+      <c r="X59" s="68"/>
+      <c r="Y59" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="Z59" s="76"/>
-      <c r="AA59" s="77" t="s">
+      <c r="Z59" s="69"/>
+      <c r="AA59" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="AB59" s="78"/>
+      <c r="AB59" s="71"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
@@ -5401,16 +5401,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W60" s="81" t="s">
+      <c r="W60" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="X60" s="81"/>
-      <c r="Y60" s="82" t="s">
+      <c r="X60" s="74"/>
+      <c r="Y60" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="Z60" s="82"/>
-      <c r="AA60" s="79"/>
-      <c r="AB60" s="80"/>
+      <c r="Z60" s="75"/>
+      <c r="AA60" s="72"/>
+      <c r="AB60" s="73"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="B77" s="8">
         <f t="shared" ref="B77:T77" si="3">SUM(B2:B76)</f>
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="C77" s="4">
         <f t="shared" si="3"/>
@@ -6228,31 +6228,13 @@
       </c>
       <c r="U77" s="6">
         <f t="shared" si="2"/>
-        <v>453.85</v>
+        <v>457.35</v>
       </c>
       <c r="W77" s="52"/>
       <c r="X77" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W4:AD12"/>
     <mergeCell ref="W14:X14"/>
@@ -6260,6 +6242,24 @@
     <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -1,33 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305046\Desktop\DeepLearningStudy\PPT data\6 week\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="7" rupBuild="8.1.835.35184"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="2070" windowWidth="17280" windowHeight="8970" tabRatio="559"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="550" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>정답제출에 파일이 없는 인원의 셀은 숨기기 해놓았습니다. 
 숨기기를 취소하시려면 모든셀을 선택 후 마우스 우클릭 
@@ -338,120 +326,191 @@
   </si>
   <si>
     <t>7,8-(19)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="64" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+  </numFmts>
+  <fonts count="29">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF954F72"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF0563C1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <i/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF7F7F7F"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF3F3F76"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF00B0F0"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
       <u/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FFFFFFFF"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8.0"/>
+      <name val="돋움"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -507,8 +566,182 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="69">
+  <borders count="78">
     <border>
       <left/>
       <right/>
@@ -1133,14 +1366,14 @@
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1148,29 +1381,29 @@
       <left/>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
@@ -1180,7 +1413,7 @@
     <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom/>
@@ -1188,12 +1421,12 @@
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1202,43 +1435,43 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="1" diagonalDown="1">
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1246,10 +1479,10 @@
     <border diagonalUp="1" diagonalDown="1">
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1342,16 +1575,16 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1432,13 +1665,13 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
+        <color theme="0" tint="-0.249950"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -1458,15 +1691,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
@@ -1484,277 +1824,467 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="58">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="58">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="55">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="64" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="69" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="70" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="71" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="72" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="73" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="74" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="73" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="75" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="76" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="77" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="32" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="33" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="59" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="66" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="68" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="60" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="65" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="61" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="67" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="62" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="63" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="64" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="60" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="59" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="66" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="68" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="60" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="65" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="61" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="67" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="62" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="63" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="64" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="60">
+    <cellStyle name="20% - 강조색1" xfId="36" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="40" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="44" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="48" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="52" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="56" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="37" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="41" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="45" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="49" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="53" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="57" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="38" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="42" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="46" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="50" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="54" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="58" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="35" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="39" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="43" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="47" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="51" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="55" builtinId="49"/>
+    <cellStyle name="경고문" xfId="20" builtinId="11"/>
+    <cellStyle name="계산" xfId="28" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="33" builtinId="27"/>
+    <cellStyle name="메모" xfId="19" builtinId="10"/>
+    <cellStyle name="백분율" xfId="14" builtinId="5"/>
+    <cellStyle name="보통" xfId="34" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="59" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="29" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="12" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="15" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="30" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="31" builtinId="25"/>
+    <cellStyle name="입력" xfId="26" builtinId="20"/>
+    <cellStyle name="제목" xfId="21" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="22" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="23" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="24" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="25" builtinId="19"/>
+    <cellStyle name="좋음" xfId="32" builtinId="26"/>
+    <cellStyle name="출력" xfId="27" builtinId="21"/>
+    <cellStyle name="통화" xfId="13" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="16" builtinId="7"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="20% - 강조색1" xfId="2"/>
     <cellStyle name="20% - 강조색1 2" xfId="10"/>
     <cellStyle name="메모" xfId="1"/>
@@ -1764,7 +2294,6 @@
     <cellStyle name="열어본 하이퍼링크" xfId="3"/>
     <cellStyle name="입력" xfId="4"/>
     <cellStyle name="입력 2" xfId="11"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="8"/>
     <cellStyle name="하이퍼링크" xfId="6"/>
   </cellStyles>
@@ -1791,49 +2320,57 @@
         <bottom style="thin">
           <color rgb="FF6182D6"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <sz val="11"/>
-        <color indexed="64"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <sz val="11"/>
-        <color indexed="64"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <sz val="11"/>
-        <color indexed="64"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <top style="thin">
           <color rgb="FF6182D6"/>
         </top>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <sz val="11"/>
-        <color indexed="64"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
+        <color rgb="FF000000"/>
       </font>
       <border>
         <bottom style="medium">
           <color rgb="FF6182D6"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <border>
@@ -1845,6 +2382,7 @@
         <bottom style="medium">
           <color rgb="FF6182D6"/>
         </bottom>
+        <diagonal/>
         <vertical/>
         <horizontal/>
       </border>
@@ -1868,7 +2406,8 @@
     <dxf>
       <font>
         <b/>
-        <sz val="11"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1881,7 +2420,8 @@
     <dxf>
       <font>
         <b/>
-        <sz val="11"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1894,7 +2434,8 @@
     <dxf>
       <font>
         <b/>
-        <sz val="11"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1907,12 +2448,14 @@
         <top style="thick">
           <color rgb="FFFFFFFF"/>
         </top>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
         <b/>
-        <sz val="11"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -1925,11 +2468,13 @@
         <bottom style="thick">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
       </border>
     </dxf>
     <dxf>
       <font>
-        <sz val="11"/>
+        <sz val="11.0"/>
+        <name val="맑은 고딕"/>
         <color rgb="FF000000"/>
       </font>
       <fill>
@@ -1951,6 +2496,7 @@
         <bottom style="thin">
           <color rgb="FFFFFFFF"/>
         </bottom>
+        <diagonal/>
         <vertical style="thin">
           <color rgb="FFFFFFFF"/>
         </vertical>
@@ -1970,7 +2516,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" table="0" count="7">
+    <tableStyle name="Light Style 1 - Accent 1" pivot="1" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -1980,14 +2526,6 @@
       <tableStyleElement type="firstColumnStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2282,30 +2820,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="4" width="9" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="16" width="9" style="1" customWidth="1"/>
-    <col min="17" max="17" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="1"/>
+    <col min="1" max="4" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="1" width="9.00500011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="8" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="11" style="1" width="9.00500011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="16" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="17" max="17" style="1" width="9.00500011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="18" max="19" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="20" max="20" style="1" width="9.00500011" hidden="1" customWidth="1" outlineLevel="0"/>
+    <col min="21" max="21" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="22" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" ht="17.250000">
       <c r="A1" s="34"/>
       <c r="B1" s="7" t="s">
         <v>14</v>
@@ -2366,7 +2903,7 @@
       </c>
       <c r="U1" s="35"/>
     </row>
-    <row r="2" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" ht="17.250000">
       <c r="A2" s="9" t="s">
         <v>74</v>
       </c>
@@ -2416,201 +2953,201 @@
       </c>
       <c r="T2" s="19"/>
       <c r="U2" s="36">
-        <f t="shared" ref="U2:U33" si="0">SUM(B2:T2)</f>
+        <f>SUM(B2:T2)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" ht="16.500000" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>92</v>
       </c>
       <c r="B3" s="64">
         <v>1</v>
       </c>
-      <c r="C3" s="65">
-        <v>1</v>
-      </c>
-      <c r="D3" s="65">
-        <v>1</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65">
-        <v>1</v>
-      </c>
-      <c r="G3" s="65">
-        <v>1</v>
-      </c>
-      <c r="H3" s="65">
-        <v>1</v>
-      </c>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65">
-        <v>1</v>
-      </c>
-      <c r="M3" s="65">
-        <v>1</v>
-      </c>
-      <c r="N3" s="65">
-        <v>1</v>
-      </c>
-      <c r="O3" s="65">
-        <v>0</v>
-      </c>
-      <c r="P3" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65">
-        <v>1</v>
-      </c>
-      <c r="S3" s="65">
+      <c r="C3" s="58">
+        <v>1</v>
+      </c>
+      <c r="D3" s="58">
+        <v>1</v>
+      </c>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58">
+        <v>1</v>
+      </c>
+      <c r="G3" s="58">
+        <v>1</v>
+      </c>
+      <c r="H3" s="58">
+        <v>1</v>
+      </c>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58">
+        <v>1</v>
+      </c>
+      <c r="M3" s="58">
+        <v>1</v>
+      </c>
+      <c r="N3" s="58">
+        <v>1</v>
+      </c>
+      <c r="O3" s="58">
+        <v>0</v>
+      </c>
+      <c r="P3" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="58">
+        <v>1</v>
+      </c>
+      <c r="S3" s="58">
         <v>1</v>
       </c>
       <c r="T3" s="22"/>
       <c r="U3" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B3:T3)</f>
         <v>12</v>
       </c>
-      <c r="W3" s="76" t="s">
+      <c r="W3" s="75" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="77"/>
-      <c r="Y3" s="77"/>
-      <c r="Z3" s="77"/>
-      <c r="AA3" s="77"/>
-      <c r="AB3" s="77"/>
-      <c r="AC3" s="77"/>
-      <c r="AD3" s="78"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X3" s="76"/>
+      <c r="Y3" s="76"/>
+      <c r="Z3" s="76"/>
+      <c r="AA3" s="76"/>
+      <c r="AB3" s="76"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="77"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="10" t="s">
         <v>73</v>
       </c>
       <c r="B4" s="64">
         <v>0</v>
       </c>
-      <c r="C4" s="65">
-        <v>0</v>
-      </c>
-      <c r="D4" s="65">
-        <v>0</v>
-      </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65">
-        <v>0</v>
-      </c>
-      <c r="G4" s="65">
-        <v>1</v>
-      </c>
-      <c r="H4" s="65">
-        <v>0</v>
-      </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65">
-        <v>1</v>
-      </c>
-      <c r="M4" s="65">
-        <v>1</v>
-      </c>
-      <c r="N4" s="65">
-        <v>0</v>
-      </c>
-      <c r="O4" s="65">
-        <v>1</v>
-      </c>
-      <c r="P4" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65">
-        <v>0</v>
-      </c>
-      <c r="S4" s="65">
+      <c r="C4" s="58">
+        <v>0</v>
+      </c>
+      <c r="D4" s="58">
+        <v>0</v>
+      </c>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58">
+        <v>0</v>
+      </c>
+      <c r="G4" s="58">
+        <v>1</v>
+      </c>
+      <c r="H4" s="58">
+        <v>0</v>
+      </c>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="58">
+        <v>1</v>
+      </c>
+      <c r="M4" s="58">
+        <v>1</v>
+      </c>
+      <c r="N4" s="58">
+        <v>0</v>
+      </c>
+      <c r="O4" s="58">
+        <v>1</v>
+      </c>
+      <c r="P4" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58">
+        <v>0</v>
+      </c>
+      <c r="S4" s="58">
         <v>0</v>
       </c>
       <c r="T4" s="22"/>
       <c r="U4" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B4:T4)</f>
         <v>5</v>
       </c>
-      <c r="W4" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="80"/>
-      <c r="AA4" s="80"/>
-      <c r="AB4" s="80"/>
-      <c r="AC4" s="80"/>
-      <c r="AD4" s="81"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W4" s="78" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="80"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
       <c r="B5" s="64">
         <v>1</v>
       </c>
-      <c r="C5" s="65">
+      <c r="C5" s="58">
         <v>0.5</v>
       </c>
-      <c r="D5" s="65">
-        <v>1</v>
-      </c>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65">
-        <v>1</v>
-      </c>
-      <c r="G5" s="65">
-        <v>1</v>
-      </c>
-      <c r="H5" s="65">
-        <v>1</v>
-      </c>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65">
-        <v>1</v>
-      </c>
-      <c r="M5" s="65">
-        <v>1</v>
-      </c>
-      <c r="N5" s="65">
-        <v>1</v>
-      </c>
-      <c r="O5" s="65">
-        <v>1</v>
-      </c>
-      <c r="P5" s="65">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65">
-        <v>1</v>
-      </c>
-      <c r="S5" s="65">
+      <c r="D5" s="58">
+        <v>1</v>
+      </c>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58">
+        <v>1</v>
+      </c>
+      <c r="G5" s="58">
+        <v>1</v>
+      </c>
+      <c r="H5" s="58">
+        <v>1</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="58">
+        <v>1</v>
+      </c>
+      <c r="M5" s="58">
+        <v>1</v>
+      </c>
+      <c r="N5" s="58">
+        <v>1</v>
+      </c>
+      <c r="O5" s="58">
+        <v>1</v>
+      </c>
+      <c r="P5" s="58">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="58"/>
+      <c r="R5" s="58">
+        <v>1</v>
+      </c>
+      <c r="S5" s="58">
         <v>0</v>
       </c>
       <c r="T5" s="22"/>
       <c r="U5" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B5:T5)</f>
         <v>11.5</v>
       </c>
-      <c r="W5" s="79"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80"/>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="81"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W5" s="78"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="80"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
@@ -2660,19 +3197,19 @@
       </c>
       <c r="T6" s="22"/>
       <c r="U6" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B6:T6)</f>
         <v>10</v>
       </c>
-      <c r="W6" s="79"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="81"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W6" s="78"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="80"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
@@ -2722,19 +3259,19 @@
       </c>
       <c r="T7" s="22"/>
       <c r="U7" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B7:T7)</f>
         <v>9</v>
       </c>
-      <c r="W7" s="79"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="81"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W7" s="78"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="80"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
@@ -2784,19 +3321,19 @@
       </c>
       <c r="T8" s="22"/>
       <c r="U8" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B8:T8)</f>
         <v>4</v>
       </c>
-      <c r="W8" s="79"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
-      <c r="AA8" s="80"/>
-      <c r="AB8" s="80"/>
-      <c r="AC8" s="80"/>
-      <c r="AD8" s="81"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W8" s="78"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="80"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
@@ -2846,19 +3383,19 @@
       </c>
       <c r="T9" s="22"/>
       <c r="U9" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B9:T9)</f>
         <v>8.75</v>
       </c>
-      <c r="W9" s="79"/>
-      <c r="X9" s="80"/>
-      <c r="Y9" s="80"/>
-      <c r="Z9" s="80"/>
-      <c r="AA9" s="80"/>
-      <c r="AB9" s="80"/>
-      <c r="AC9" s="80"/>
-      <c r="AD9" s="81"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W9" s="78"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="79"/>
+      <c r="AD9" s="80"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
@@ -2908,19 +3445,19 @@
       </c>
       <c r="T10" s="22"/>
       <c r="U10" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B10:T10)</f>
         <v>2.1</v>
       </c>
-      <c r="W10" s="79"/>
-      <c r="X10" s="80"/>
-      <c r="Y10" s="80"/>
-      <c r="Z10" s="80"/>
-      <c r="AA10" s="80"/>
-      <c r="AB10" s="80"/>
-      <c r="AC10" s="80"/>
-      <c r="AD10" s="81"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W10" s="78"/>
+      <c r="X10" s="79"/>
+      <c r="Y10" s="79"/>
+      <c r="Z10" s="79"/>
+      <c r="AA10" s="79"/>
+      <c r="AB10" s="79"/>
+      <c r="AC10" s="79"/>
+      <c r="AD10" s="80"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -2970,19 +3507,19 @@
       </c>
       <c r="T11" s="22"/>
       <c r="U11" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B11:T11)</f>
         <v>10</v>
       </c>
-      <c r="W11" s="79"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
-      <c r="AC11" s="80"/>
-      <c r="AD11" s="81"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W11" s="78"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="80"/>
+    </row>
+    <row r="12" spans="1:30" ht="17.250000">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -3032,19 +3569,19 @@
       </c>
       <c r="T12" s="22"/>
       <c r="U12" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B12:T12)</f>
         <v>7</v>
       </c>
-      <c r="W12" s="82"/>
-      <c r="X12" s="83"/>
-      <c r="Y12" s="83"/>
-      <c r="Z12" s="83"/>
-      <c r="AA12" s="83"/>
-      <c r="AB12" s="83"/>
-      <c r="AC12" s="83"/>
-      <c r="AD12" s="84"/>
-    </row>
-    <row r="13" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="W12" s="81"/>
+      <c r="X12" s="82"/>
+      <c r="Y12" s="82"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="82"/>
+      <c r="AB12" s="82"/>
+      <c r="AC12" s="82"/>
+      <c r="AD12" s="83"/>
+    </row>
+    <row r="13" spans="1:30" ht="17.250000">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -3094,11 +3631,11 @@
       </c>
       <c r="T13" s="22"/>
       <c r="U13" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B13:T13)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" ht="17.250000">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -3148,23 +3685,23 @@
       </c>
       <c r="T14" s="22"/>
       <c r="U14" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B14:T14)</f>
         <v>11.5</v>
       </c>
-      <c r="W14" s="68" t="s">
+      <c r="W14" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="69" t="s">
+      <c r="X14" s="67"/>
+      <c r="Y14" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="70" t="s">
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="AB14" s="71"/>
-    </row>
-    <row r="15" spans="1:30" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AB14" s="70"/>
+    </row>
+    <row r="15" spans="1:30" ht="17.250000">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
@@ -3214,21 +3751,21 @@
       </c>
       <c r="T15" s="22"/>
       <c r="U15" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:T15)</f>
         <v>9</v>
       </c>
-      <c r="W15" s="74" t="s">
+      <c r="W15" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="75" t="s">
+      <c r="X15" s="73"/>
+      <c r="Y15" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="Z15" s="75"/>
-      <c r="AA15" s="72"/>
-      <c r="AB15" s="73"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="71"/>
+      <c r="AB15" s="72"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -3278,11 +3815,11 @@
       </c>
       <c r="T16" s="22"/>
       <c r="U16" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B16:T16)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
@@ -3332,11 +3869,11 @@
       </c>
       <c r="T17" s="22"/>
       <c r="U17" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B17:T17)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
@@ -3386,11 +3923,11 @@
       </c>
       <c r="T18" s="22"/>
       <c r="U18" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B18:T18)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" ht="17.250000">
       <c r="A19" s="37" t="s">
         <v>26</v>
       </c>
@@ -3440,11 +3977,11 @@
       </c>
       <c r="T19" s="39"/>
       <c r="U19" s="40">
-        <f t="shared" si="0"/>
+        <f>SUM(B19:T19)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" ht="17.250000">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -3494,15 +4031,15 @@
       </c>
       <c r="T20" s="43"/>
       <c r="U20" s="36">
-        <f t="shared" si="0"/>
+        <f>SUM(B20:T20)</f>
         <v>7</v>
       </c>
-      <c r="W20" s="66" t="s">
+      <c r="W20" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="X20" s="67"/>
-    </row>
-    <row r="21" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X20" s="66"/>
+    </row>
+    <row r="21" spans="1:28" ht="17.250000">
       <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
@@ -3552,23 +4089,23 @@
       </c>
       <c r="T21" s="18"/>
       <c r="U21" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B21:T21)</f>
         <v>9</v>
       </c>
-      <c r="W21" s="68" t="s">
+      <c r="W21" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="68"/>
-      <c r="Y21" s="69" t="s">
+      <c r="X21" s="67"/>
+      <c r="Y21" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="70" t="s">
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="AB21" s="71"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB21" s="70"/>
+    </row>
+    <row r="22" spans="1:28" ht="17.250000">
       <c r="A22" s="10" t="s">
         <v>77</v>
       </c>
@@ -3618,21 +4155,21 @@
       </c>
       <c r="T22" s="18"/>
       <c r="U22" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B22:T22)</f>
         <v>5</v>
       </c>
-      <c r="W22" s="74" t="s">
+      <c r="W22" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="75" t="s">
+      <c r="X22" s="73"/>
+      <c r="Y22" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="75"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="73"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="72"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
@@ -3682,11 +4219,11 @@
       </c>
       <c r="T23" s="18"/>
       <c r="U23" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B23:T23)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28">
       <c r="A24" s="10" t="s">
         <v>76</v>
       </c>
@@ -3736,11 +4273,11 @@
       </c>
       <c r="T24" s="18"/>
       <c r="U24" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B24:T24)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28">
       <c r="A25" s="10" t="s">
         <v>67</v>
       </c>
@@ -3790,11 +4327,11 @@
       </c>
       <c r="T25" s="18"/>
       <c r="U25" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B25:T25)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28">
       <c r="A26" s="10" t="s">
         <v>63</v>
       </c>
@@ -3818,11 +4355,11 @@
       <c r="S26" s="17"/>
       <c r="T26" s="18"/>
       <c r="U26" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B26:T26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -3846,67 +4383,119 @@
       <c r="S27" s="17"/>
       <c r="T27" s="18"/>
       <c r="U27" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B27:T27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28">
       <c r="A28" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
+      <c r="B28" s="16">
+        <v>0</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0</v>
+      </c>
       <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
+      <c r="F28" s="17">
+        <v>1</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28" s="17">
+        <v>1</v>
+      </c>
       <c r="I28" s="17"/>
       <c r="J28" s="17"/>
       <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
+      <c r="L28" s="17">
+        <v>1</v>
+      </c>
+      <c r="M28" s="17">
+        <v>0</v>
+      </c>
+      <c r="N28" s="17">
+        <v>1</v>
+      </c>
+      <c r="O28" s="17">
+        <v>1</v>
+      </c>
+      <c r="P28" s="17">
+        <v>1</v>
+      </c>
       <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
+      <c r="R28" s="17">
+        <v>1</v>
+      </c>
+      <c r="S28" s="17">
+        <v>1</v>
+      </c>
       <c r="T28" s="18"/>
       <c r="U28" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B28:T28)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
+      <c r="B29" s="16">
+        <v>1</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="17">
+        <v>1</v>
+      </c>
       <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="17">
+        <v>1</v>
+      </c>
+      <c r="H29" s="17">
+        <v>0</v>
+      </c>
       <c r="I29" s="17"/>
       <c r="J29" s="17"/>
       <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="17"/>
+      <c r="L29" s="17">
+        <v>1</v>
+      </c>
+      <c r="M29" s="17">
+        <v>1</v>
+      </c>
+      <c r="N29" s="17">
+        <v>1</v>
+      </c>
+      <c r="O29" s="17">
+        <v>1</v>
+      </c>
+      <c r="P29" s="17">
+        <v>1</v>
+      </c>
       <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
+      <c r="R29" s="17">
+        <v>1</v>
+      </c>
+      <c r="S29" s="17">
+        <v>0</v>
+      </c>
       <c r="T29" s="18"/>
       <c r="U29" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B29:T29)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28">
       <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
@@ -3930,11 +4519,11 @@
       <c r="S30" s="17"/>
       <c r="T30" s="18"/>
       <c r="U30" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B30:T30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="10" t="s">
         <v>35</v>
       </c>
@@ -3958,11 +4547,11 @@
       <c r="S31" s="17"/>
       <c r="T31" s="18"/>
       <c r="U31" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B31:T31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
@@ -4012,11 +4601,11 @@
       </c>
       <c r="T32" s="18"/>
       <c r="U32" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B32:T32)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28">
       <c r="A33" s="10" t="s">
         <v>34</v>
       </c>
@@ -4066,11 +4655,11 @@
       </c>
       <c r="T33" s="18"/>
       <c r="U33" s="14">
-        <f t="shared" si="0"/>
+        <f>SUM(B33:T33)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28">
       <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
@@ -4120,11 +4709,11 @@
       </c>
       <c r="T34" s="18"/>
       <c r="U34" s="14">
-        <f t="shared" ref="U34:U65" si="1">SUM(B34:T34)</f>
+        <f>SUM(B34:T34)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28">
       <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
@@ -4174,11 +4763,11 @@
       </c>
       <c r="T35" s="18"/>
       <c r="U35" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B35:T35)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
@@ -4228,11 +4817,11 @@
       </c>
       <c r="T36" s="18"/>
       <c r="U36" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B36:T36)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28">
       <c r="A37" s="10" t="s">
         <v>31</v>
       </c>
@@ -4282,11 +4871,11 @@
       </c>
       <c r="T37" s="18"/>
       <c r="U37" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B37:T37)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
@@ -4336,11 +4925,11 @@
       </c>
       <c r="T38" s="18"/>
       <c r="U38" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B38:T38)</f>
         <v>6.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:28" ht="17.250000">
       <c r="A39" s="37" t="s">
         <v>36</v>
       </c>
@@ -4390,11 +4979,11 @@
       </c>
       <c r="T39" s="45"/>
       <c r="U39" s="40">
-        <f t="shared" si="1"/>
+        <f>SUM(B39:T39)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:28" ht="17.250000">
       <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
@@ -4418,15 +5007,15 @@
       <c r="S40" s="47"/>
       <c r="T40" s="48"/>
       <c r="U40" s="36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="66" t="s">
+        <f>SUM(B40:T40)</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="X40" s="67"/>
-    </row>
-    <row r="41" spans="1:28" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="X40" s="66"/>
+    </row>
+    <row r="41" spans="1:28" ht="17.250000">
       <c r="A41" s="10" t="s">
         <v>88</v>
       </c>
@@ -4450,23 +5039,23 @@
       <c r="S41" s="24"/>
       <c r="T41" s="25"/>
       <c r="U41" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="68" t="s">
+        <f>SUM(B41:T41)</f>
+        <v>0</v>
+      </c>
+      <c r="W41" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="X41" s="68"/>
-      <c r="Y41" s="69" t="s">
+      <c r="X41" s="67"/>
+      <c r="Y41" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="70" t="s">
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="AB41" s="71"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB41" s="70"/>
+    </row>
+    <row r="42" spans="1:28" ht="17.250000">
       <c r="A42" s="10" t="s">
         <v>82</v>
       </c>
@@ -4516,21 +5105,21 @@
       </c>
       <c r="T42" s="25"/>
       <c r="U42" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B42:T42)</f>
         <v>9</v>
       </c>
-      <c r="W42" s="74" t="s">
+      <c r="W42" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="X42" s="74"/>
-      <c r="Y42" s="75" t="s">
+      <c r="X42" s="73"/>
+      <c r="Y42" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="Z42" s="75"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="73"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z42" s="74"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="72"/>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="10" t="s">
         <v>83</v>
       </c>
@@ -4580,11 +5169,11 @@
       </c>
       <c r="T43" s="25"/>
       <c r="U43" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B43:T43)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28">
       <c r="A44" s="10" t="s">
         <v>84</v>
       </c>
@@ -4634,11 +5223,11 @@
       </c>
       <c r="T44" s="25"/>
       <c r="U44" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B44:T44)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28">
       <c r="A45" s="10" t="s">
         <v>85</v>
       </c>
@@ -4688,11 +5277,11 @@
       </c>
       <c r="T45" s="25"/>
       <c r="U45" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B45:T45)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28">
       <c r="A46" s="10" t="s">
         <v>87</v>
       </c>
@@ -4738,11 +5327,11 @@
       </c>
       <c r="T46" s="25"/>
       <c r="U46" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B46:T46)</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28">
       <c r="A47" s="10" t="s">
         <v>86</v>
       </c>
@@ -4788,11 +5377,11 @@
       </c>
       <c r="T47" s="25"/>
       <c r="U47" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B47:T47)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28">
       <c r="A48" s="10" t="s">
         <v>80</v>
       </c>
@@ -4840,11 +5429,11 @@
       </c>
       <c r="T48" s="25"/>
       <c r="U48" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B48:T48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28">
       <c r="A49" s="10" t="s">
         <v>47</v>
       </c>
@@ -4892,11 +5481,11 @@
       </c>
       <c r="T49" s="25"/>
       <c r="U49" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B49:T49)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28">
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
@@ -4920,11 +5509,11 @@
       <c r="S50" s="24"/>
       <c r="T50" s="25"/>
       <c r="U50" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B50:T50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
@@ -4948,11 +5537,11 @@
       <c r="S51" s="24"/>
       <c r="T51" s="25"/>
       <c r="U51" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B51:T51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28">
       <c r="A52" s="10" t="s">
         <v>45</v>
       </c>
@@ -5002,11 +5591,11 @@
       </c>
       <c r="T52" s="25"/>
       <c r="U52" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B52:T52)</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28">
       <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
@@ -5056,11 +5645,11 @@
       </c>
       <c r="T53" s="25"/>
       <c r="U53" s="14">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B53:T53)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28">
       <c r="A54" s="10" t="s">
         <v>51</v>
       </c>
@@ -5110,11 +5699,11 @@
       </c>
       <c r="T54" s="25"/>
       <c r="U54" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B54:T54)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28">
       <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
@@ -5164,11 +5753,11 @@
       </c>
       <c r="T55" s="25"/>
       <c r="U55" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B55:T55)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28">
       <c r="A56" s="10" t="s">
         <v>41</v>
       </c>
@@ -5218,11 +5807,11 @@
       </c>
       <c r="T56" s="25"/>
       <c r="U56" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B56:T56)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28" ht="17.250000">
       <c r="A57" s="37" t="s">
         <v>37</v>
       </c>
@@ -5272,11 +5861,11 @@
       </c>
       <c r="T57" s="51"/>
       <c r="U57" s="40">
-        <f t="shared" si="1"/>
+        <f>SUM(B57:T57)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28" ht="17.250000">
       <c r="A58" s="12" t="s">
         <v>89</v>
       </c>
@@ -5300,55 +5889,81 @@
       <c r="S58" s="27"/>
       <c r="T58" s="28"/>
       <c r="U58" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="66" t="s">
+        <f>SUM(B58:T58)</f>
+        <v>0</v>
+      </c>
+      <c r="W58" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="X58" s="67"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X58" s="66"/>
+    </row>
+    <row r="59" spans="1:28" ht="28.500000">
       <c r="A59" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="30"/>
-      <c r="D59" s="30"/>
+      <c r="B59" s="29">
+        <v>0</v>
+      </c>
+      <c r="C59" s="30">
+        <v>0</v>
+      </c>
+      <c r="D59" s="30">
+        <v>0</v>
+      </c>
       <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
+      <c r="F59" s="30">
+        <v>1</v>
+      </c>
+      <c r="G59" s="30">
+        <v>1</v>
+      </c>
+      <c r="H59" s="30">
+        <v>1</v>
+      </c>
       <c r="I59" s="30"/>
       <c r="J59" s="30"/>
       <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="30"/>
+      <c r="L59" s="30">
+        <v>1</v>
+      </c>
+      <c r="M59" s="30">
+        <v>1</v>
+      </c>
+      <c r="N59" s="30">
+        <v>1</v>
+      </c>
+      <c r="O59" s="30">
+        <v>1</v>
+      </c>
+      <c r="P59" s="30">
+        <v>1</v>
+      </c>
       <c r="Q59" s="30"/>
-      <c r="R59" s="30"/>
-      <c r="S59" s="30"/>
+      <c r="R59" s="30">
+        <v>1</v>
+      </c>
+      <c r="S59" s="30">
+        <v>1</v>
+      </c>
       <c r="T59" s="31"/>
       <c r="U59" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W59" s="68" t="s">
+        <f>SUM(B59:T59)</f>
+        <v>10</v>
+      </c>
+      <c r="W59" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="X59" s="68"/>
-      <c r="Y59" s="69" t="s">
+      <c r="X59" s="67"/>
+      <c r="Y59" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="Z59" s="69"/>
-      <c r="AA59" s="70" t="s">
+      <c r="Z59" s="68"/>
+      <c r="AA59" s="69" t="s">
         <v>97</v>
       </c>
-      <c r="AB59" s="71"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB59" s="70"/>
+    </row>
+    <row r="60" spans="1:28" ht="17.250000">
       <c r="A60" s="10" t="s">
         <v>91</v>
       </c>
@@ -5398,21 +6013,21 @@
       </c>
       <c r="T60" s="31"/>
       <c r="U60" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B60:T60)</f>
         <v>9</v>
       </c>
-      <c r="W60" s="74" t="s">
+      <c r="W60" s="73" t="s">
         <v>60</v>
       </c>
-      <c r="X60" s="74"/>
-      <c r="Y60" s="75" t="s">
+      <c r="X60" s="73"/>
+      <c r="Y60" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="Z60" s="75"/>
-      <c r="AA60" s="72"/>
-      <c r="AB60" s="73"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z60" s="74"/>
+      <c r="AA60" s="71"/>
+      <c r="AB60" s="72"/>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="10" t="s">
         <v>93</v>
       </c>
@@ -5436,11 +6051,11 @@
       <c r="S61" s="30"/>
       <c r="T61" s="31"/>
       <c r="U61" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B61:T61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="10" t="s">
         <v>96</v>
       </c>
@@ -5490,11 +6105,11 @@
       </c>
       <c r="T62" s="31"/>
       <c r="U62" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B62:T62)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28">
       <c r="A63" s="10" t="s">
         <v>94</v>
       </c>
@@ -5518,39 +6133,65 @@
       <c r="S63" s="30"/>
       <c r="T63" s="31"/>
       <c r="U63" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+        <f>SUM(B63:T63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
+      <c r="B64" s="29">
+        <v>0</v>
+      </c>
+      <c r="C64" s="30">
+        <v>0</v>
+      </c>
+      <c r="D64" s="30">
+        <v>1</v>
+      </c>
       <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
+      <c r="F64" s="30">
+        <v>1</v>
+      </c>
+      <c r="G64" s="30">
+        <v>1</v>
+      </c>
+      <c r="H64" s="30">
+        <v>1</v>
+      </c>
       <c r="I64" s="30"/>
       <c r="J64" s="30"/>
       <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="30"/>
+      <c r="L64" s="30">
+        <v>0</v>
+      </c>
+      <c r="M64" s="30">
+        <v>0</v>
+      </c>
+      <c r="N64" s="30">
+        <v>0</v>
+      </c>
+      <c r="O64" s="30">
+        <v>1</v>
+      </c>
+      <c r="P64" s="30">
+        <v>1</v>
+      </c>
       <c r="Q64" s="30"/>
-      <c r="R64" s="30"/>
-      <c r="S64" s="30"/>
+      <c r="R64" s="30">
+        <v>1</v>
+      </c>
+      <c r="S64" s="30">
+        <v>0</v>
+      </c>
       <c r="T64" s="31"/>
       <c r="U64" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B64:T64)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" s="10" t="s">
         <v>99</v>
       </c>
@@ -5600,11 +6241,11 @@
       </c>
       <c r="T65" s="31"/>
       <c r="U65" s="14">
-        <f t="shared" si="1"/>
+        <f>SUM(B65:T65)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24">
       <c r="A66" s="10" t="s">
         <v>101</v>
       </c>
@@ -5654,11 +6295,11 @@
       </c>
       <c r="T66" s="31"/>
       <c r="U66" s="14">
-        <f t="shared" ref="U66:U77" si="2">SUM(B66:T66)</f>
+        <f>SUM(B66:T66)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24">
       <c r="A67" s="10" t="s">
         <v>43</v>
       </c>
@@ -5682,11 +6323,11 @@
       <c r="S67" s="30"/>
       <c r="T67" s="31"/>
       <c r="U67" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B67:T67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" s="10" t="s">
         <v>46</v>
       </c>
@@ -5710,11 +6351,11 @@
       <c r="S68" s="30"/>
       <c r="T68" s="31"/>
       <c r="U68" s="14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+        <f>SUM(B68:T68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
@@ -5764,11 +6405,11 @@
       </c>
       <c r="T69" s="31"/>
       <c r="U69" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(B69:T69)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24">
       <c r="A70" s="10" t="s">
         <v>57</v>
       </c>
@@ -5818,11 +6459,11 @@
       </c>
       <c r="T70" s="31"/>
       <c r="U70" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(B70:T70)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24">
       <c r="A71" s="10" t="s">
         <v>56</v>
       </c>
@@ -5872,11 +6513,11 @@
       </c>
       <c r="T71" s="31"/>
       <c r="U71" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(B71:T71)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24">
       <c r="A72" s="10" t="s">
         <v>58</v>
       </c>
@@ -5926,11 +6567,11 @@
       </c>
       <c r="T72" s="31"/>
       <c r="U72" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(B72:T72)</f>
         <v>10.5</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24">
       <c r="A73" s="10" t="s">
         <v>53</v>
       </c>
@@ -5980,11 +6621,11 @@
       </c>
       <c r="T73" s="31"/>
       <c r="U73" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(B73:T73)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24">
       <c r="A74" s="10" t="s">
         <v>52</v>
       </c>
@@ -6034,11 +6675,11 @@
       </c>
       <c r="T74" s="31"/>
       <c r="U74" s="14">
-        <f t="shared" si="2"/>
+        <f>SUM(B74:T74)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24">
       <c r="A75" s="11" t="s">
         <v>55</v>
       </c>
@@ -6092,7 +6733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:24" ht="17.250000">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
@@ -6146,89 +6787,89 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:24" ht="17.250000">
       <c r="A77" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="8">
-        <f t="shared" ref="B77:T77" si="3">SUM(B2:B76)</f>
-        <v>21.5</v>
+        <f>SUM(B2:B76)</f>
+        <v>22.5</v>
       </c>
       <c r="C77" s="4">
-        <f t="shared" si="3"/>
-        <v>34.049999999999997</v>
+        <f>SUM(C2:C76)</f>
+        <v>36.05</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="3"/>
-        <v>37.549999999999997</v>
+        <f>SUM(D2:D76)</f>
+        <v>39.55</v>
       </c>
       <c r="E77" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(E2:E76)</f>
         <v>0</v>
       </c>
       <c r="F77" s="4">
-        <f t="shared" si="3"/>
-        <v>51.8</v>
+        <f>SUM(F2:F76)</f>
+        <v>55.8</v>
       </c>
       <c r="G77" s="4">
-        <f t="shared" si="3"/>
-        <v>32.25</v>
+        <f>SUM(G2:G76)</f>
+        <v>36.25</v>
       </c>
       <c r="H77" s="4">
-        <f t="shared" si="3"/>
-        <v>42.55</v>
+        <f>SUM(H2:H76)</f>
+        <v>45.55</v>
       </c>
       <c r="I77" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(I2:I76)</f>
         <v>0</v>
       </c>
       <c r="J77" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(J2:J76)</f>
         <v>0</v>
       </c>
       <c r="K77" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(K2:K76)</f>
         <v>0</v>
       </c>
       <c r="L77" s="4">
-        <f t="shared" si="3"/>
-        <v>34.299999999999997</v>
+        <f>SUM(L2:L76)</f>
+        <v>37.3</v>
       </c>
       <c r="M77" s="4">
-        <f t="shared" si="3"/>
-        <v>32.549999999999997</v>
+        <f>SUM(M2:M76)</f>
+        <v>34.55</v>
       </c>
       <c r="N77" s="4">
-        <f t="shared" si="3"/>
-        <v>30.25</v>
+        <f>SUM(N2:N76)</f>
+        <v>33.25</v>
       </c>
       <c r="O77" s="4">
-        <f t="shared" si="3"/>
-        <v>29</v>
+        <f>SUM(O2:O76)</f>
+        <v>33</v>
       </c>
       <c r="P77" s="4">
-        <f t="shared" si="3"/>
-        <v>29.5</v>
+        <f>SUM(P2:P76)</f>
+        <v>33.5</v>
       </c>
       <c r="Q77" s="4">
-        <f t="shared" si="3"/>
+        <f>SUM(Q2:Q76)</f>
         <v>0</v>
       </c>
       <c r="R77" s="4">
-        <f t="shared" si="3"/>
-        <v>42.3</v>
+        <f>SUM(R2:R76)</f>
+        <v>46.3</v>
       </c>
       <c r="S77" s="4">
-        <f t="shared" si="3"/>
-        <v>39.75</v>
+        <f>SUM(S2:S76)</f>
+        <v>41.75</v>
       </c>
       <c r="T77" s="5">
-        <f t="shared" si="3"/>
+        <f>SUM(T2:T76)</f>
         <v>0</v>
       </c>
       <c r="U77" s="6">
-        <f t="shared" si="2"/>
-        <v>457.35</v>
+        <f>SUM(B77:T77)</f>
+        <v>495.35</v>
       </c>
       <c r="W77" s="52"/>
       <c r="X77" s="52"/>
@@ -6261,33 +6902,33 @@
     <mergeCell ref="W60:X60"/>
     <mergeCell ref="Y60:Z60"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W14:X14" location="Sheet1!B2:S19" display="1, 2장 이동"/>
-    <hyperlink ref="Y14:Z14" location="Sheet1!B20:S39" display="3, 4장 이동"/>
-    <hyperlink ref="W15:X15" location="Sheet1!B40:S57" display="5, 6장 이동"/>
-    <hyperlink ref="Y15:Z15" location="Sheet1!B58:S75" display="7, 8장 이동"/>
-    <hyperlink ref="W20:X20" location="Sheet1!A2" display="처음으로"/>
-    <hyperlink ref="AA14:AB15" location="Sheet1!A76:U76" display="채점결과"/>
-    <hyperlink ref="W21:X21" location="Sheet1!B2:S19" display="1, 2장 이동"/>
-    <hyperlink ref="Y21:Z21" location="Sheet1!B20:S39" display="3, 4장 이동"/>
-    <hyperlink ref="W22:X22" location="Sheet1!B40:S57" display="5, 6장 이동"/>
-    <hyperlink ref="Y22:Z22" location="Sheet1!B58:S75" display="7, 8장 이동"/>
-    <hyperlink ref="AA21:AB22" location="Sheet1!A76:U76" display="채점결과"/>
-    <hyperlink ref="W41:X41" location="Sheet1!B2:S19" display="1, 2장 이동"/>
-    <hyperlink ref="Y41:Z41" location="Sheet1!B20:S39" display="3, 4장 이동"/>
-    <hyperlink ref="W42:X42" location="Sheet1!B40:S57" display="5, 6장 이동"/>
-    <hyperlink ref="Y42:Z42" location="Sheet1!B58:S75" display="7, 8장 이동"/>
-    <hyperlink ref="AA41:AB42" location="Sheet1!A76:U76" display="채점결과"/>
-    <hyperlink ref="W59:X59" location="Sheet1!B2:S19" display="1, 2장 이동"/>
-    <hyperlink ref="Y59:Z59" location="Sheet1!B20:S39" display="3, 4장 이동"/>
-    <hyperlink ref="W60:X60" location="Sheet1!B40:S57" display="5, 6장 이동"/>
-    <hyperlink ref="Y60:Z60" location="Sheet1!B58:S75" display="7, 8장 이동"/>
-    <hyperlink ref="AA59:AB60" location="Sheet1!A76:U76" display="채점결과"/>
-    <hyperlink ref="W40:X40" location="Sheet1!A2" display="처음으로"/>
-    <hyperlink ref="W58:X58" location="Sheet1!A2" display="처음으로"/>
+    <hyperlink location="Sheet1!B2:S19" display="1, 2장 이동" ref="W14:X14"/>
+    <hyperlink location="Sheet1!B20:S39" display="3, 4장 이동" ref="Y14:Z14"/>
+    <hyperlink location="Sheet1!B40:S57" display="5, 6장 이동" ref="W15:X15"/>
+    <hyperlink location="Sheet1!B58:S75" display="7, 8장 이동" ref="Y15:Z15"/>
+    <hyperlink location="Sheet1!A2" display="처음으로" ref="W20:X20"/>
+    <hyperlink location="Sheet1!A76:U76" display="채점결과" ref="AA14:AB15"/>
+    <hyperlink location="Sheet1!B2:S19" display="1, 2장 이동" ref="W21:X21"/>
+    <hyperlink location="Sheet1!B20:S39" display="3, 4장 이동" ref="Y21:Z21"/>
+    <hyperlink location="Sheet1!B40:S57" display="5, 6장 이동" ref="W22:X22"/>
+    <hyperlink location="Sheet1!B58:S75" display="7, 8장 이동" ref="Y22:Z22"/>
+    <hyperlink location="Sheet1!A76:U76" display="채점결과" ref="AA21:AB22"/>
+    <hyperlink location="Sheet1!B2:S19" display="1, 2장 이동" ref="W41:X41"/>
+    <hyperlink location="Sheet1!B20:S39" display="3, 4장 이동" ref="Y41:Z41"/>
+    <hyperlink location="Sheet1!B40:S57" display="5, 6장 이동" ref="W42:X42"/>
+    <hyperlink location="Sheet1!B58:S75" display="7, 8장 이동" ref="Y42:Z42"/>
+    <hyperlink location="Sheet1!A76:U76" display="채점결과" ref="AA41:AB42"/>
+    <hyperlink location="Sheet1!B2:S19" display="1, 2장 이동" ref="W59:X59"/>
+    <hyperlink location="Sheet1!B20:S39" display="3, 4장 이동" ref="Y59:Z59"/>
+    <hyperlink location="Sheet1!B40:S57" display="5, 6장 이동" ref="W60:X60"/>
+    <hyperlink location="Sheet1!B58:S75" display="7, 8장 이동" ref="Y60:Z60"/>
+    <hyperlink location="Sheet1!A76:U76" display="채점결과" ref="AA59:AB60"/>
+    <hyperlink location="Sheet1!A2" display="처음으로" ref="W40:X40"/>
+    <hyperlink location="Sheet1!A2" display="처음으로" ref="W58:X58"/>
   </hyperlinks>
-  <pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dana4\OneDrive\바탕 화면\DeepLearningStudy\PPT data\6 week\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dudwl\Desktop\deeplearning스터디\DeepLearningStudy\PPT data\6 week\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_645C1C253E0BD600BD8253DBE8F5084873606418" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C70C42BE-5879-4050-AE2B-5DEA2648F97C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09E4721-47D7-441D-9791-959212C1550B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2760" windowWidth="21600" windowHeight="11385" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14520" yWindow="2610" windowWidth="14280" windowHeight="11385" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1703,36 +1703,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="64" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,6 +1729,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2305,8 +2305,8 @@
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S41" sqref="S41"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2491,16 +2491,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="W3" s="73" t="s">
+      <c r="W3" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="75"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="65"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
@@ -2555,16 +2555,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="78"/>
+      <c r="W4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="68"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
@@ -2619,14 +2619,14 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="W5" s="76"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="78"/>
+      <c r="W5" s="66"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="68"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
@@ -2681,14 +2681,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W6" s="76"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="78"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="68"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
@@ -2743,14 +2743,14 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W7" s="76"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="78"/>
+      <c r="W7" s="66"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
@@ -2805,14 +2805,14 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W8" s="76"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="78"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="68"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
@@ -2867,14 +2867,14 @@
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="78"/>
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
@@ -2929,14 +2929,14 @@
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="W10" s="76"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="78"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="68"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
@@ -2991,14 +2991,14 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W11" s="76"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="78"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="68"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
@@ -3053,14 +3053,14 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W12" s="79"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="81"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="71"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
@@ -3169,18 +3169,18 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="W14" s="65" t="s">
+      <c r="W14" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="66" t="s">
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="67" t="s">
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="AB14" s="68"/>
+      <c r="AB14" s="75"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
@@ -3235,16 +3235,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W15" s="71" t="s">
+      <c r="W15" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="72" t="s">
+      <c r="X15" s="78"/>
+      <c r="Y15" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="70"/>
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="77"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
@@ -3515,10 +3515,10 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W20" s="63" t="s">
+      <c r="W20" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="X20" s="64"/>
+      <c r="X20" s="81"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
@@ -3573,18 +3573,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W21" s="65" t="s">
+      <c r="W21" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="66" t="s">
+      <c r="X21" s="72"/>
+      <c r="Y21" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="67" t="s">
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="AB21" s="68"/>
+      <c r="AB21" s="75"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
@@ -3639,16 +3639,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W22" s="71" t="s">
+      <c r="W22" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="72" t="s">
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="70"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="77"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
@@ -3816,56 +3816,108 @@
       <c r="A26" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
+      <c r="B26" s="16">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
       <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+      <c r="G26" s="17">
+        <v>1</v>
+      </c>
+      <c r="H26" s="17">
+        <v>1</v>
+      </c>
       <c r="I26" s="17"/>
       <c r="J26" s="17"/>
       <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="17"/>
+      <c r="L26" s="17">
+        <v>1</v>
+      </c>
+      <c r="M26" s="17">
+        <v>1</v>
+      </c>
+      <c r="N26" s="17">
+        <v>1</v>
+      </c>
+      <c r="O26" s="17">
+        <v>1</v>
+      </c>
+      <c r="P26" s="17">
+        <v>0</v>
+      </c>
       <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
+      <c r="R26" s="17">
+        <v>1</v>
+      </c>
+      <c r="S26" s="17">
+        <v>1</v>
+      </c>
       <c r="T26" s="18"/>
       <c r="U26" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="B27" s="16">
+        <v>0</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1</v>
+      </c>
       <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
+      <c r="F27" s="17">
+        <v>1</v>
+      </c>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="17">
+        <v>0</v>
+      </c>
       <c r="I27" s="17"/>
       <c r="J27" s="17"/>
       <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
+      <c r="L27" s="17">
+        <v>0</v>
+      </c>
+      <c r="M27" s="17">
+        <v>0</v>
+      </c>
+      <c r="N27" s="17">
+        <v>0</v>
+      </c>
+      <c r="O27" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="P27" s="17">
+        <v>0</v>
+      </c>
       <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
+      <c r="R27" s="17">
+        <v>1</v>
+      </c>
+      <c r="S27" s="17">
+        <v>1</v>
+      </c>
       <c r="T27" s="18"/>
       <c r="U27" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
@@ -4491,10 +4543,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W40" s="63" t="s">
+      <c r="W40" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="X40" s="64"/>
+      <c r="X40" s="81"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
@@ -4523,18 +4575,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W41" s="65" t="s">
+      <c r="W41" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="66" t="s">
+      <c r="X41" s="72"/>
+      <c r="Y41" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="67" t="s">
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="AB41" s="68"/>
+      <c r="AB41" s="75"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
@@ -4589,16 +4641,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W42" s="71" t="s">
+      <c r="W42" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="72" t="s">
+      <c r="X42" s="78"/>
+      <c r="Y42" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="69"/>
-      <c r="AB42" s="70"/>
+      <c r="Z42" s="79"/>
+      <c r="AA42" s="76"/>
+      <c r="AB42" s="77"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
@@ -5402,33 +5454,59 @@
       <c r="A58" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B58" s="26"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
+      <c r="B58" s="26">
+        <v>0</v>
+      </c>
+      <c r="C58" s="27">
+        <v>0</v>
+      </c>
+      <c r="D58" s="27">
+        <v>1</v>
+      </c>
       <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
+      <c r="F58" s="27">
+        <v>1</v>
+      </c>
+      <c r="G58" s="27">
+        <v>1</v>
+      </c>
+      <c r="H58" s="27">
+        <v>0</v>
+      </c>
       <c r="I58" s="27"/>
       <c r="J58" s="27"/>
       <c r="K58" s="27"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="27"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
+      <c r="L58" s="27">
+        <v>0</v>
+      </c>
+      <c r="M58" s="27">
+        <v>0</v>
+      </c>
+      <c r="N58" s="27">
+        <v>0</v>
+      </c>
+      <c r="O58" s="27">
+        <v>0</v>
+      </c>
+      <c r="P58" s="27">
+        <v>0</v>
+      </c>
       <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
+      <c r="R58" s="27">
+        <v>0</v>
+      </c>
+      <c r="S58" s="27">
+        <v>0</v>
+      </c>
       <c r="T58" s="28"/>
       <c r="U58" s="13">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="W58" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="X58" s="64"/>
+      <c r="X58" s="81"/>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
@@ -5483,18 +5561,18 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="W59" s="65" t="s">
+      <c r="W59" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="66" t="s">
+      <c r="X59" s="72"/>
+      <c r="Y59" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="67" t="s">
+      <c r="Z59" s="73"/>
+      <c r="AA59" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="AB59" s="68"/>
+      <c r="AB59" s="75"/>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
@@ -5549,16 +5627,16 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W60" s="71" t="s">
+      <c r="W60" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="72" t="s">
+      <c r="X60" s="78"/>
+      <c r="Y60" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="Z60" s="72"/>
-      <c r="AA60" s="69"/>
-      <c r="AB60" s="70"/>
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="77"/>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
@@ -6326,15 +6404,15 @@
       </c>
       <c r="B77" s="8">
         <f t="shared" ref="B77:T77" si="3">SUM(B2:B76)</f>
-        <v>24.5</v>
+        <v>25.5</v>
       </c>
       <c r="C77" s="4">
         <f t="shared" si="3"/>
-        <v>38.049999999999997</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" si="3"/>
-        <v>41.45</v>
+        <v>44.45</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" si="3"/>
@@ -6342,15 +6420,15 @@
       </c>
       <c r="F77" s="4">
         <f t="shared" si="3"/>
-        <v>57.8</v>
+        <v>60.8</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" si="3"/>
-        <v>36.75</v>
+        <v>39.75</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" si="3"/>
-        <v>46.95</v>
+        <v>47.949999999999996</v>
       </c>
       <c r="I77" s="4">
         <f t="shared" si="3"/>
@@ -6366,19 +6444,19 @@
       </c>
       <c r="L77" s="4">
         <f t="shared" si="3"/>
-        <v>37.299999999999997</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M77" s="4">
         <f t="shared" si="3"/>
-        <v>35.549999999999997</v>
+        <v>36.549999999999997</v>
       </c>
       <c r="N77" s="4">
         <f t="shared" si="3"/>
-        <v>35.25</v>
+        <v>36.25</v>
       </c>
       <c r="O77" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="P77" s="4">
         <f t="shared" si="3"/>
@@ -6390,11 +6468,11 @@
       </c>
       <c r="R77" s="4">
         <f t="shared" si="3"/>
-        <v>48.2</v>
+        <v>50.199999999999996</v>
       </c>
       <c r="S77" s="4">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>45.75</v>
       </c>
       <c r="T77" s="5">
         <f t="shared" si="3"/>
@@ -6402,13 +6480,31 @@
       </c>
       <c r="U77" s="6">
         <f t="shared" si="2"/>
-        <v>512.04999999999995</v>
+        <v>532.54999999999995</v>
       </c>
       <c r="W77" s="50"/>
       <c r="X77" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W4:AD12"/>
     <mergeCell ref="W14:X14"/>
@@ -6416,24 +6512,6 @@
     <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dana4\OneDrive\바탕 화면\DeepLearningStudy\PPT data\6 week\test\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_645C1C253E0BD600BD8253DBE8F5084873606418" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{C70C42BE-5879-4050-AE2B-5DEA2648F97C}"/>
   <bookViews>
-    <workbookView xWindow="5880" yWindow="2760" windowWidth="21600" windowHeight="11385" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="2760" windowWidth="21600" windowHeight="11385" tabRatio="550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -344,8 +338,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1703,36 +1697,6 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="64" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1759,23 +1723,53 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - 강조색1" xfId="2" builtinId="30"/>
-    <cellStyle name="20% - 강조색1 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="20% - 강조색1 2" xfId="10"/>
     <cellStyle name="메모" xfId="1" builtinId="10"/>
-    <cellStyle name="메모 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="설명텍스트" xfId="5" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="메모 2" xfId="9"/>
+    <cellStyle name="설명텍스트" xfId="5"/>
     <cellStyle name="열어 본 하이퍼링크" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="열어 본 하이퍼링크" xfId="7" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="3" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="열어 본 하이퍼링크" xfId="7"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="3"/>
     <cellStyle name="입력" xfId="4" builtinId="20"/>
-    <cellStyle name="입력 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="입력 2" xfId="11"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="표준 2" xfId="8"/>
     <cellStyle name="하이퍼링크" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="하이퍼링크" xfId="6" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="하이퍼링크" xfId="6"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1980,7 +1974,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Normal Style 1 - Accent 1" pivot="0" count="7">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="totalRow" dxfId="11"/>
@@ -1989,7 +1983,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="8"/>
       <tableStyleElement type="firstColumnStripe" dxfId="7"/>
     </tableStyle>
-    <tableStyle name="Light Style 1 - Accent 1" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Light Style 1 - Accent 1" count="7">
       <tableStyleElement type="wholeTable" dxfId="6"/>
       <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="totalRow" dxfId="4"/>
@@ -2301,15 +2295,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S41" sqref="S41"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S63" sqref="S63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1"/>
@@ -2323,7 +2317,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30">
       <c r="A1" s="34"/>
       <c r="B1" s="7" t="s">
         <v>14</v>
@@ -2384,7 +2378,7 @@
       </c>
       <c r="U1" s="35"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30">
       <c r="A2" s="9" t="s">
         <v>74</v>
       </c>
@@ -2438,7 +2432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" ht="16.5" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>92</v>
       </c>
@@ -2491,18 +2485,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="W3" s="73" t="s">
+      <c r="W3" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="74"/>
-      <c r="AD3" s="75"/>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="65"/>
+    </row>
+    <row r="4" spans="1:30">
       <c r="A4" s="10" t="s">
         <v>73</v>
       </c>
@@ -2555,18 +2549,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W4" s="76" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77"/>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="78"/>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W4" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="68"/>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
@@ -2619,16 +2613,16 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="W5" s="76"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="77"/>
-      <c r="AB5" s="77"/>
-      <c r="AC5" s="77"/>
-      <c r="AD5" s="78"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W5" s="66"/>
+      <c r="X5" s="67"/>
+      <c r="Y5" s="67"/>
+      <c r="Z5" s="67"/>
+      <c r="AA5" s="67"/>
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67"/>
+      <c r="AD5" s="68"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
@@ -2681,16 +2675,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W6" s="76"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="78"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W6" s="66"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="68"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
@@ -2743,16 +2737,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W7" s="76"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="77"/>
-      <c r="Z7" s="77"/>
-      <c r="AA7" s="77"/>
-      <c r="AB7" s="77"/>
-      <c r="AC7" s="77"/>
-      <c r="AD7" s="78"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W7" s="66"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="67"/>
+      <c r="AD7" s="68"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
@@ -2805,16 +2799,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W8" s="76"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="77"/>
-      <c r="Z8" s="77"/>
-      <c r="AA8" s="77"/>
-      <c r="AB8" s="77"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="78"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W8" s="66"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="67"/>
+      <c r="AA8" s="67"/>
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="68"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
@@ -2867,16 +2861,16 @@
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="W9" s="76"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="77"/>
-      <c r="Z9" s="77"/>
-      <c r="AA9" s="77"/>
-      <c r="AB9" s="77"/>
-      <c r="AC9" s="77"/>
-      <c r="AD9" s="78"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W9" s="66"/>
+      <c r="X9" s="67"/>
+      <c r="Y9" s="67"/>
+      <c r="Z9" s="67"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="67"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
@@ -2929,16 +2923,16 @@
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="W10" s="76"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-      <c r="AA10" s="77"/>
-      <c r="AB10" s="77"/>
-      <c r="AC10" s="77"/>
-      <c r="AD10" s="78"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W10" s="66"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
+      <c r="AA10" s="67"/>
+      <c r="AB10" s="67"/>
+      <c r="AC10" s="67"/>
+      <c r="AD10" s="68"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -2991,16 +2985,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W11" s="76"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="77"/>
-      <c r="AB11" s="77"/>
-      <c r="AC11" s="77"/>
-      <c r="AD11" s="78"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W11" s="66"/>
+      <c r="X11" s="67"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="68"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -3053,16 +3047,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W12" s="79"/>
-      <c r="X12" s="80"/>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="80"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
-      <c r="AC12" s="80"/>
-      <c r="AD12" s="81"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="W12" s="69"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="70"/>
+      <c r="AD12" s="71"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -3116,7 +3110,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -3169,20 +3163,20 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="W14" s="65" t="s">
+      <c r="W14" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="65"/>
-      <c r="Y14" s="66" t="s">
+      <c r="X14" s="72"/>
+      <c r="Y14" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="67" t="s">
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="AB14" s="68"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="AB14" s="75"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
@@ -3235,18 +3229,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W15" s="71" t="s">
+      <c r="W15" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="72" t="s">
+      <c r="X15" s="78"/>
+      <c r="Y15" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="Z15" s="72"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="70"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="Z15" s="79"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="77"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -3300,7 +3294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:28">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
@@ -3354,7 +3348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:28">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
@@ -3408,7 +3402,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:28">
       <c r="A19" s="37" t="s">
         <v>26</v>
       </c>
@@ -3462,7 +3456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:28">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -3515,12 +3509,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W20" s="63" t="s">
+      <c r="W20" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="X20" s="64"/>
-    </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X20" s="81"/>
+    </row>
+    <row r="21" spans="1:28">
       <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
@@ -3573,20 +3567,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W21" s="65" t="s">
+      <c r="W21" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="66" t="s">
+      <c r="X21" s="72"/>
+      <c r="Y21" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="67" t="s">
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="AB21" s="68"/>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB21" s="75"/>
+    </row>
+    <row r="22" spans="1:28">
       <c r="A22" s="10" t="s">
         <v>77</v>
       </c>
@@ -3639,18 +3633,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W22" s="71" t="s">
+      <c r="W22" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="72" t="s">
+      <c r="X22" s="78"/>
+      <c r="Y22" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="70"/>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="77"/>
+    </row>
+    <row r="23" spans="1:28">
       <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
@@ -3704,7 +3698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:28">
       <c r="A24" s="10" t="s">
         <v>76</v>
       </c>
@@ -3758,7 +3752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:28">
       <c r="A25" s="10" t="s">
         <v>67</v>
       </c>
@@ -3812,7 +3806,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:28">
       <c r="A26" s="10" t="s">
         <v>63</v>
       </c>
@@ -3840,7 +3834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:28">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -3868,7 +3862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:28">
       <c r="A28" s="10" t="s">
         <v>79</v>
       </c>
@@ -3922,7 +3916,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:28">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -3976,63 +3970,115 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:28">
       <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
+      <c r="B30" s="16">
+        <v>1</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
       <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0</v>
+      </c>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
       <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17">
+        <v>0</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+      <c r="O30" s="17">
+        <v>1</v>
+      </c>
+      <c r="P30" s="17">
+        <v>0</v>
+      </c>
       <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
+      <c r="R30" s="17">
+        <v>1</v>
+      </c>
+      <c r="S30" s="17">
+        <v>0</v>
+      </c>
       <c r="T30" s="18"/>
       <c r="U30" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28">
       <c r="A31" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
+      <c r="B31" s="16">
+        <v>1</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0</v>
+      </c>
+      <c r="D31" s="17">
+        <v>0</v>
+      </c>
       <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17">
+        <v>0</v>
+      </c>
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
       <c r="I31" s="17"/>
       <c r="J31" s="17"/>
       <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
+      <c r="L31" s="17">
+        <v>1</v>
+      </c>
+      <c r="M31" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="N31" s="17">
+        <v>1</v>
+      </c>
+      <c r="O31" s="17">
+        <v>1</v>
+      </c>
+      <c r="P31" s="17">
+        <v>0</v>
+      </c>
       <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
+      <c r="R31" s="17">
+        <v>1</v>
+      </c>
+      <c r="S31" s="17">
+        <v>1</v>
+      </c>
       <c r="T31" s="18"/>
       <c r="U31" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28">
       <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
@@ -4086,7 +4132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:28">
       <c r="A33" s="10" t="s">
         <v>34</v>
       </c>
@@ -4140,7 +4186,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:28">
       <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
@@ -4194,7 +4240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:28">
       <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
@@ -4248,7 +4294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:28">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
@@ -4302,7 +4348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:28">
       <c r="A37" s="10" t="s">
         <v>31</v>
       </c>
@@ -4356,7 +4402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:28">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
@@ -4410,7 +4456,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:28">
       <c r="A39" s="37" t="s">
         <v>36</v>
       </c>
@@ -4464,7 +4510,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:28">
       <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
@@ -4491,12 +4537,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W40" s="63" t="s">
+      <c r="W40" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="X40" s="64"/>
-    </row>
-    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X40" s="81"/>
+    </row>
+    <row r="41" spans="1:28">
       <c r="A41" s="10" t="s">
         <v>88</v>
       </c>
@@ -4523,20 +4569,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W41" s="65" t="s">
+      <c r="W41" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="X41" s="65"/>
-      <c r="Y41" s="66" t="s">
+      <c r="X41" s="72"/>
+      <c r="Y41" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="67" t="s">
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="AB41" s="68"/>
-    </row>
-    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB41" s="75"/>
+    </row>
+    <row r="42" spans="1:28">
       <c r="A42" s="10" t="s">
         <v>82</v>
       </c>
@@ -4589,18 +4635,18 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W42" s="71" t="s">
+      <c r="W42" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="72" t="s">
+      <c r="X42" s="78"/>
+      <c r="Y42" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="69"/>
-      <c r="AB42" s="70"/>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z42" s="79"/>
+      <c r="AA42" s="76"/>
+      <c r="AB42" s="77"/>
+    </row>
+    <row r="43" spans="1:28">
       <c r="A43" s="10" t="s">
         <v>83</v>
       </c>
@@ -4654,7 +4700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:28">
       <c r="A44" s="10" t="s">
         <v>84</v>
       </c>
@@ -4708,7 +4754,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:28">
       <c r="A45" s="10" t="s">
         <v>85</v>
       </c>
@@ -4762,7 +4808,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:28">
       <c r="A46" s="10" t="s">
         <v>87</v>
       </c>
@@ -4812,7 +4858,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:28">
       <c r="A47" s="10" t="s">
         <v>86</v>
       </c>
@@ -4862,7 +4908,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:28">
       <c r="A48" s="10" t="s">
         <v>80</v>
       </c>
@@ -4914,7 +4960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:28">
       <c r="A49" s="10" t="s">
         <v>47</v>
       </c>
@@ -4966,7 +5012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:28">
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
@@ -5020,7 +5066,7 @@
         <v>8.7000000000000011</v>
       </c>
     </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
@@ -5074,7 +5120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:28">
       <c r="A52" s="10" t="s">
         <v>45</v>
       </c>
@@ -5128,7 +5174,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:28">
       <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
@@ -5182,7 +5228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:28">
       <c r="A54" s="10" t="s">
         <v>51</v>
       </c>
@@ -5236,7 +5282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:28">
       <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
@@ -5290,7 +5336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:28">
       <c r="A56" s="10" t="s">
         <v>41</v>
       </c>
@@ -5344,7 +5390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:28">
       <c r="A57" s="37" t="s">
         <v>37</v>
       </c>
@@ -5398,7 +5444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:28">
       <c r="A58" s="12" t="s">
         <v>89</v>
       </c>
@@ -5425,12 +5471,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W58" s="63" t="s">
+      <c r="W58" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="X58" s="64"/>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="X58" s="81"/>
+    </row>
+    <row r="59" spans="1:28">
       <c r="A59" s="10" t="s">
         <v>90</v>
       </c>
@@ -5483,20 +5529,20 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="W59" s="65" t="s">
+      <c r="W59" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="X59" s="65"/>
-      <c r="Y59" s="66" t="s">
+      <c r="X59" s="72"/>
+      <c r="Y59" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="Z59" s="66"/>
-      <c r="AA59" s="67" t="s">
+      <c r="Z59" s="73"/>
+      <c r="AA59" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="AB59" s="68"/>
-    </row>
-    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AB59" s="75"/>
+    </row>
+    <row r="60" spans="1:28">
       <c r="A60" s="10" t="s">
         <v>91</v>
       </c>
@@ -5549,46 +5595,72 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W60" s="71" t="s">
+      <c r="W60" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="X60" s="71"/>
-      <c r="Y60" s="72" t="s">
+      <c r="X60" s="78"/>
+      <c r="Y60" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="Z60" s="72"/>
-      <c r="AA60" s="69"/>
-      <c r="AB60" s="70"/>
-    </row>
-    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="Z60" s="79"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="77"/>
+    </row>
+    <row r="61" spans="1:28">
       <c r="A61" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
+      <c r="B61" s="29">
+        <v>1</v>
+      </c>
+      <c r="C61" s="30">
+        <v>0</v>
+      </c>
+      <c r="D61" s="30">
+        <v>1</v>
+      </c>
       <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
+      <c r="F61" s="30">
+        <v>1</v>
+      </c>
+      <c r="G61" s="30">
+        <v>1</v>
+      </c>
+      <c r="H61" s="30">
+        <v>1</v>
+      </c>
       <c r="I61" s="30"/>
       <c r="J61" s="30"/>
       <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
+      <c r="L61" s="30">
+        <v>0</v>
+      </c>
+      <c r="M61" s="30">
+        <v>1</v>
+      </c>
+      <c r="N61" s="30">
+        <v>0</v>
+      </c>
+      <c r="O61" s="30">
+        <v>1</v>
+      </c>
+      <c r="P61" s="30">
+        <v>1</v>
+      </c>
       <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
+      <c r="R61" s="30">
+        <v>1</v>
+      </c>
+      <c r="S61" s="30">
+        <v>1</v>
+      </c>
       <c r="T61" s="31"/>
       <c r="U61" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28">
       <c r="A62" s="10" t="s">
         <v>96</v>
       </c>
@@ -5642,35 +5714,61 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:28">
       <c r="A63" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
+      <c r="B63" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="C63" s="30">
+        <v>1</v>
+      </c>
+      <c r="D63" s="30">
+        <v>1</v>
+      </c>
       <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
+      <c r="F63" s="30">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="30">
+        <v>1</v>
+      </c>
+      <c r="H63" s="30">
+        <v>0</v>
+      </c>
       <c r="I63" s="30"/>
       <c r="J63" s="30"/>
       <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
+      <c r="L63" s="30">
+        <v>1</v>
+      </c>
+      <c r="M63" s="30">
+        <v>0</v>
+      </c>
+      <c r="N63" s="30">
+        <v>0</v>
+      </c>
+      <c r="O63" s="30">
+        <v>1</v>
+      </c>
+      <c r="P63" s="30">
+        <v>0.5</v>
+      </c>
       <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
+      <c r="R63" s="30">
+        <v>1</v>
+      </c>
+      <c r="S63" s="30">
+        <v>0</v>
+      </c>
       <c r="T63" s="31"/>
       <c r="U63" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28">
       <c r="A64" s="10" t="s">
         <v>95</v>
       </c>
@@ -5724,7 +5822,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:24">
       <c r="A65" s="10" t="s">
         <v>99</v>
       </c>
@@ -5778,7 +5876,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:24">
       <c r="A66" s="10" t="s">
         <v>101</v>
       </c>
@@ -5832,7 +5930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:24">
       <c r="A67" s="10" t="s">
         <v>43</v>
       </c>
@@ -5860,7 +5958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:24">
       <c r="A68" s="10" t="s">
         <v>46</v>
       </c>
@@ -5888,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:24">
       <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
@@ -5942,7 +6040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:24">
       <c r="A70" s="10" t="s">
         <v>57</v>
       </c>
@@ -5996,7 +6094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:24">
       <c r="A71" s="10" t="s">
         <v>56</v>
       </c>
@@ -6050,7 +6148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:24">
       <c r="A72" s="10" t="s">
         <v>58</v>
       </c>
@@ -6104,7 +6202,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:24">
       <c r="A73" s="10" t="s">
         <v>53</v>
       </c>
@@ -6158,7 +6256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:24">
       <c r="A74" s="10" t="s">
         <v>52</v>
       </c>
@@ -6212,7 +6310,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:24">
       <c r="A75" s="11" t="s">
         <v>55</v>
       </c>
@@ -6266,7 +6364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:24">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
@@ -6320,21 +6418,21 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:24">
       <c r="A77" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="8">
         <f t="shared" ref="B77:T77" si="3">SUM(B2:B76)</f>
-        <v>24.5</v>
+        <v>28</v>
       </c>
       <c r="C77" s="4">
         <f t="shared" si="3"/>
-        <v>38.049999999999997</v>
+        <v>39.049999999999997</v>
       </c>
       <c r="D77" s="4">
         <f t="shared" si="3"/>
-        <v>41.45</v>
+        <v>44.45</v>
       </c>
       <c r="E77" s="4">
         <f t="shared" si="3"/>
@@ -6342,15 +6440,15 @@
       </c>
       <c r="F77" s="4">
         <f t="shared" si="3"/>
-        <v>57.8</v>
+        <v>60.3</v>
       </c>
       <c r="G77" s="4">
         <f t="shared" si="3"/>
-        <v>36.75</v>
+        <v>39.75</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" si="3"/>
-        <v>46.95</v>
+        <v>48.949999999999996</v>
       </c>
       <c r="I77" s="4">
         <f t="shared" si="3"/>
@@ -6366,23 +6464,23 @@
       </c>
       <c r="L77" s="4">
         <f t="shared" si="3"/>
-        <v>37.299999999999997</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="M77" s="4">
         <f t="shared" si="3"/>
-        <v>35.549999999999997</v>
+        <v>37.049999999999997</v>
       </c>
       <c r="N77" s="4">
         <f t="shared" si="3"/>
-        <v>35.25</v>
+        <v>36.25</v>
       </c>
       <c r="O77" s="4">
         <f t="shared" si="3"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P77" s="4">
         <f t="shared" si="3"/>
-        <v>33.5</v>
+        <v>35</v>
       </c>
       <c r="Q77" s="4">
         <f t="shared" si="3"/>
@@ -6390,11 +6488,11 @@
       </c>
       <c r="R77" s="4">
         <f t="shared" si="3"/>
-        <v>48.2</v>
+        <v>52.199999999999996</v>
       </c>
       <c r="S77" s="4">
         <f t="shared" si="3"/>
-        <v>43.75</v>
+        <v>45.75</v>
       </c>
       <c r="T77" s="5">
         <f t="shared" si="3"/>
@@ -6402,13 +6500,31 @@
       </c>
       <c r="U77" s="6">
         <f t="shared" si="2"/>
-        <v>512.04999999999995</v>
+        <v>543.04999999999995</v>
       </c>
       <c r="W77" s="50"/>
       <c r="X77" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W4:AD12"/>
     <mergeCell ref="W14:X14"/>
@@ -6416,50 +6532,32 @@
     <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="W14:X14" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="Y14:Z14" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="W15:X15" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="Y15:Z15" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="W20:X20" location="Sheet1!A2" display="처음으로" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="AA14:AB15" location="Sheet1!A76:U76" display="채점결과" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="W21:X21" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="Y21:Z21" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="W22:X22" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="Y22:Z22" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="AA21:AB22" location="Sheet1!A76:U76" display="채점결과" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="W41:X41" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Y41:Z41" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="W42:X42" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="Y42:Z42" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="AA41:AB42" location="Sheet1!A76:U76" display="채점결과" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="W59:X59" location="Sheet1!B2:S19" display="1, 2장 이동" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="Y59:Z59" location="Sheet1!B20:S39" display="3, 4장 이동" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="W60:X60" location="Sheet1!B40:S57" display="5, 6장 이동" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="Y60:Z60" location="Sheet1!B58:S75" display="7, 8장 이동" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="AA59:AB60" location="Sheet1!A76:U76" display="채점결과" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="W40:X40" location="Sheet1!A2" display="처음으로" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="W58:X58" location="Sheet1!A2" display="처음으로" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="W14:X14" location="Sheet1!B2:S19" display="1, 2장 이동"/>
+    <hyperlink ref="Y14:Z14" location="Sheet1!B20:S39" display="3, 4장 이동"/>
+    <hyperlink ref="W15:X15" location="Sheet1!B40:S57" display="5, 6장 이동"/>
+    <hyperlink ref="Y15:Z15" location="Sheet1!B58:S75" display="7, 8장 이동"/>
+    <hyperlink ref="W20:X20" location="Sheet1!A2" display="처음으로"/>
+    <hyperlink ref="AA14:AB15" location="Sheet1!A76:U76" display="채점결과"/>
+    <hyperlink ref="W21:X21" location="Sheet1!B2:S19" display="1, 2장 이동"/>
+    <hyperlink ref="Y21:Z21" location="Sheet1!B20:S39" display="3, 4장 이동"/>
+    <hyperlink ref="W22:X22" location="Sheet1!B40:S57" display="5, 6장 이동"/>
+    <hyperlink ref="Y22:Z22" location="Sheet1!B58:S75" display="7, 8장 이동"/>
+    <hyperlink ref="AA21:AB22" location="Sheet1!A76:U76" display="채점결과"/>
+    <hyperlink ref="W41:X41" location="Sheet1!B2:S19" display="1, 2장 이동"/>
+    <hyperlink ref="Y41:Z41" location="Sheet1!B20:S39" display="3, 4장 이동"/>
+    <hyperlink ref="W42:X42" location="Sheet1!B40:S57" display="5, 6장 이동"/>
+    <hyperlink ref="Y42:Z42" location="Sheet1!B58:S75" display="7, 8장 이동"/>
+    <hyperlink ref="AA41:AB42" location="Sheet1!A76:U76" display="채점결과"/>
+    <hyperlink ref="W59:X59" location="Sheet1!B2:S19" display="1, 2장 이동"/>
+    <hyperlink ref="Y59:Z59" location="Sheet1!B20:S39" display="3, 4장 이동"/>
+    <hyperlink ref="W60:X60" location="Sheet1!B40:S57" display="5, 6장 이동"/>
+    <hyperlink ref="Y60:Z60" location="Sheet1!B58:S75" display="7, 8장 이동"/>
+    <hyperlink ref="AA59:AB60" location="Sheet1!A76:U76" display="채점결과"/>
+    <hyperlink ref="W40:X40" location="Sheet1!A2" display="처음으로"/>
+    <hyperlink ref="W58:X58" location="Sheet1!A2" display="처음으로"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/PPT data/6 week/test/인원별 맞은개수.xlsx
+++ b/PPT data/6 week/test/인원별 맞은개수.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2018305046\Desktop\DeepLearningStudy\PPT data\6 week\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5880" yWindow="2760" windowWidth="21600" windowHeight="11385" tabRatio="550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -338,8 +343,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1697,6 +1702,36 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="64" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1723,36 +1758,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="53" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="54" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="49" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="51" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="52" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="44" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="46" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -2295,15 +2300,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S63" sqref="S63"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="9" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" hidden="1" customWidth="1"/>
@@ -2317,7 +2322,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" s="34"/>
       <c r="B1" s="7" t="s">
         <v>14</v>
@@ -2378,7 +2383,7 @@
       </c>
       <c r="U1" s="35"/>
     </row>
-    <row r="2" spans="1:30">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>74</v>
       </c>
@@ -2432,7 +2437,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="16.5" customHeight="1">
+    <row r="3" spans="1:30" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>92</v>
       </c>
@@ -2485,18 +2490,18 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="W3" s="63" t="s">
+      <c r="W3" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="65"/>
-    </row>
-    <row r="4" spans="1:30">
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
+      <c r="AB3" s="74"/>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="75"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>73</v>
       </c>
@@ -2549,18 +2554,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="W4" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="68"/>
-    </row>
-    <row r="5" spans="1:30">
+      <c r="W4" s="76" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="78"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>65</v>
       </c>
@@ -2613,16 +2618,16 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="W5" s="66"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="68"/>
-    </row>
-    <row r="6" spans="1:30">
+      <c r="W5" s="76"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="77"/>
+      <c r="AB5" s="77"/>
+      <c r="AC5" s="77"/>
+      <c r="AD5" s="78"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>70</v>
       </c>
@@ -2675,16 +2680,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W6" s="66"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="68"/>
-    </row>
-    <row r="7" spans="1:30">
+      <c r="W6" s="76"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="78"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>64</v>
       </c>
@@ -2737,16 +2742,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W7" s="66"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68"/>
-    </row>
-    <row r="8" spans="1:30">
+      <c r="W7" s="76"/>
+      <c r="X7" s="77"/>
+      <c r="Y7" s="77"/>
+      <c r="Z7" s="77"/>
+      <c r="AA7" s="77"/>
+      <c r="AB7" s="77"/>
+      <c r="AC7" s="77"/>
+      <c r="AD7" s="78"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>66</v>
       </c>
@@ -2799,16 +2804,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="W8" s="66"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="67"/>
-      <c r="AA8" s="67"/>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="68"/>
-    </row>
-    <row r="9" spans="1:30">
+      <c r="W8" s="76"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="78"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>69</v>
       </c>
@@ -2861,16 +2866,16 @@
         <f t="shared" si="0"/>
         <v>8.75</v>
       </c>
-      <c r="W9" s="66"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="67"/>
-      <c r="Z9" s="67"/>
-      <c r="AA9" s="67"/>
-      <c r="AB9" s="67"/>
-      <c r="AC9" s="67"/>
-      <c r="AD9" s="68"/>
-    </row>
-    <row r="10" spans="1:30">
+      <c r="W9" s="76"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+      <c r="AA9" s="77"/>
+      <c r="AB9" s="77"/>
+      <c r="AC9" s="77"/>
+      <c r="AD9" s="78"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>75</v>
       </c>
@@ -2923,16 +2928,16 @@
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="W10" s="66"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
-      <c r="AA10" s="67"/>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="68"/>
-    </row>
-    <row r="11" spans="1:30">
+      <c r="W10" s="76"/>
+      <c r="X10" s="77"/>
+      <c r="Y10" s="77"/>
+      <c r="Z10" s="77"/>
+      <c r="AA10" s="77"/>
+      <c r="AB10" s="77"/>
+      <c r="AC10" s="77"/>
+      <c r="AD10" s="78"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>23</v>
       </c>
@@ -2985,16 +2990,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W11" s="66"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="67"/>
-      <c r="Z11" s="67"/>
-      <c r="AA11" s="67"/>
-      <c r="AB11" s="67"/>
-      <c r="AC11" s="67"/>
-      <c r="AD11" s="68"/>
-    </row>
-    <row r="12" spans="1:30">
+      <c r="W11" s="76"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="78"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -3047,16 +3052,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W12" s="69"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="71"/>
-    </row>
-    <row r="13" spans="1:30">
+      <c r="W12" s="79"/>
+      <c r="X12" s="80"/>
+      <c r="Y12" s="80"/>
+      <c r="Z12" s="80"/>
+      <c r="AA12" s="80"/>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="80"/>
+      <c r="AD12" s="81"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -3110,7 +3115,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
@@ -3163,20 +3168,20 @@
         <f t="shared" si="0"/>
         <v>11.5</v>
       </c>
-      <c r="W14" s="72" t="s">
+      <c r="W14" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="73" t="s">
+      <c r="X14" s="65"/>
+      <c r="Y14" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="74" t="s">
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="AB14" s="75"/>
-    </row>
-    <row r="15" spans="1:30">
+      <c r="AB14" s="68"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
@@ -3229,18 +3234,18 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W15" s="78" t="s">
+      <c r="W15" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="X15" s="78"/>
-      <c r="Y15" s="79" t="s">
+      <c r="X15" s="71"/>
+      <c r="Y15" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="Z15" s="79"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="77"/>
-    </row>
-    <row r="16" spans="1:30">
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="69"/>
+      <c r="AB15" s="70"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:28">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>29</v>
       </c>
@@ -3348,7 +3353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:28">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>22</v>
       </c>
@@ -3402,7 +3407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:28">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>26</v>
       </c>
@@ -3456,7 +3461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:28">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>68</v>
       </c>
@@ -3509,12 +3514,12 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="W20" s="80" t="s">
+      <c r="W20" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="X20" s="81"/>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="X20" s="64"/>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>71</v>
       </c>
@@ -3567,25 +3572,25 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="W21" s="72" t="s">
+      <c r="W21" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="73" t="s">
+      <c r="X21" s="65"/>
+      <c r="Y21" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="74" t="s">
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="AB21" s="75"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="AB21" s="68"/>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="16">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="17">
         <v>0</v>
@@ -3631,25 +3636,25 @@
       <c r="T22" s="18"/>
       <c r="U22" s="14">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="W22" s="78" t="s">
+        <v>5.5</v>
+      </c>
+      <c r="W22" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="79" t="s">
+      <c r="X22" s="71"/>
+      <c r="Y22" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="77"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="70"/>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>72</v>
       </c>
       <c r="B23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" s="17">
         <v>1</v>
@@ -3695,10 +3700,10 @@
       <c r="T23" s="18"/>
       <c r="U23" s="14">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>76</v>
       </c>
@@ -3752,7 +3757,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:28">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>67</v>
       </c>
@@ -3806,7 +3811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:28">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>63</v>
       </c>
@@ -3834,7 +3839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:28">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>78</v>
       </c>
@@ -3862,7 +3867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:28">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>79</v>
       </c>
@@ -3916,7 +3921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:28">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>32</v>
       </c>
@@ -3970,7 +3975,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:28">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>40</v>
       </c>
@@ -4024,7 +4029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:28">
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>35</v>
       </c>
@@ -4078,7 +4083,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="32" spans="1:28">
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>39</v>
       </c>
@@ -4132,7 +4137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:28">
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>34</v>
       </c>
@@ -4186,7 +4191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:28">
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>42</v>
       </c>
@@ -4240,7 +4245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:28">
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>38</v>
       </c>
@@ -4294,7 +4299,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:28">
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>30</v>
       </c>
@@ -4348,7 +4353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:28">
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>31</v>
       </c>
@@ -4402,7 +4407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:28">
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>33</v>
       </c>
@@ -4456,7 +4461,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="39" spans="1:28">
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>36</v>
       </c>
@@ -4510,7 +4515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:28">
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>81</v>
       </c>
@@ -4537,12 +4542,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W40" s="80" t="s">
+      <c r="W40" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="X40" s="81"/>
-    </row>
-    <row r="41" spans="1:28">
+      <c r="X40" s="64"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>88</v>
       </c>
@@ -4569,20 +4574,20 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W41" s="72" t="s">
+      <c r="W41" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="73" t="s">
+      <c r="X41" s="65"/>
+      <c r="Y41" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="74" t="s">
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="AB41" s="75"/>
-    </row>
-    <row r="42" spans="1:28">
+      <c r="AB41" s="68"/>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>82</v>
       </c>
@@ -4635,18 +4640,18 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W42" s="78" t="s">
+      <c r="W42" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="X42" s="78"/>
-      <c r="Y42" s="79" t="s">
+      <c r="X42" s="71"/>
+      <c r="Y42" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="Z42" s="79"/>
-      <c r="AA42" s="76"/>
-      <c r="AB42" s="77"/>
-    </row>
-    <row r="43" spans="1:28">
+      <c r="Z42" s="72"/>
+      <c r="AA42" s="69"/>
+      <c r="AB42" s="70"/>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>83</v>
       </c>
@@ -4700,7 +4705,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:28">
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>84</v>
       </c>
@@ -4754,7 +4759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:28">
+    <row r="45" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>85</v>
       </c>
@@ -4808,7 +4813,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:28">
+    <row r="46" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>87</v>
       </c>
@@ -4858,7 +4863,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="47" spans="1:28">
+    <row r="47" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>86</v>
       </c>
@@ -4908,7 +4913,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:28">
+    <row r="48" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>80</v>
       </c>
@@ -4960,7 +4965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:28">
+    <row r="49" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>47</v>
       </c>
@@ -5012,7 +5017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:28">
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>48</v>
       </c>
@@ -5066,7 +5071,7 @@
         <v>8.7000000000000011</v>
       </c>
     </row>
-    <row r="51" spans="1:28">
+    <row r="51" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>49</v>
       </c>
@@ -5120,7 +5125,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:28">
+    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>45</v>
       </c>
@@ -5174,7 +5179,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="53" spans="1:28">
+    <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>44</v>
       </c>
@@ -5228,7 +5233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:28">
+    <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>51</v>
       </c>
@@ -5282,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:28">
+    <row r="55" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>50</v>
       </c>
@@ -5336,7 +5341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="56" spans="1:28">
+    <row r="56" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>41</v>
       </c>
@@ -5390,7 +5395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:28">
+    <row r="57" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A57" s="37" t="s">
         <v>37</v>
       </c>
@@ -5444,7 +5449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:28">
+    <row r="58" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
         <v>89</v>
       </c>
@@ -5471,12 +5476,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W58" s="80" t="s">
+      <c r="W58" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="X58" s="81"/>
-    </row>
-    <row r="59" spans="1:28">
+      <c r="X58" s="64"/>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>90</v>
       </c>
@@ -5529,20 +5534,20 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="W59" s="72" t="s">
+      <c r="W59" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="X59" s="72"/>
-      <c r="Y59" s="73" t="s">
+      <c r="X59" s="65"/>
+      <c r="Y59" s="66" t="s">
         <v>61</v>
       </c>
-      <c r="Z59" s="73"/>
-      <c r="AA59" s="74" t="s">
+      <c r="Z59" s="66"/>
+      <c r="AA59" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="AB59" s="75"/>
-    </row>
-    <row r="60" spans="1:28">
+      <c r="AB59" s="68"/>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>91</v>
       </c>
@@ -5595,18 +5600,18 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="W60" s="78" t="s">
+      <c r="W60" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="X60" s="78"/>
-      <c r="Y60" s="79" t="s">
+      <c r="X60" s="71"/>
+      <c r="Y60" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="Z60" s="79"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="77"/>
-    </row>
-    <row r="61" spans="1:28">
+      <c r="Z60" s="72"/>
+      <c r="AA60" s="69"/>
+      <c r="AB60" s="70"/>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>93</v>
       </c>
@@ -5660,7 +5665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:28">
+    <row r="62" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>96</v>
       </c>
@@ -5714,7 +5719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:28">
+    <row r="63" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>94</v>
       </c>
@@ -5768,7 +5773,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="64" spans="1:28">
+    <row r="64" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>95</v>
       </c>
@@ -5822,7 +5827,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:24">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>99</v>
       </c>
@@ -5876,7 +5881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:24">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>101</v>
       </c>
@@ -5930,7 +5935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>43</v>
       </c>
@@ -5958,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:24">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>46</v>
       </c>
@@ -5986,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>54</v>
       </c>
@@ -6040,7 +6045,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="70" spans="1:24">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>57</v>
       </c>
@@ -6094,7 +6099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:24">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>56</v>
       </c>
@@ -6148,7 +6153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:24">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
         <v>58</v>
       </c>
@@ -6202,7 +6207,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="73" spans="1:24">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>53</v>
       </c>
@@ -6256,7 +6261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:24">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>52</v>
       </c>
@@ -6310,7 +6315,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:24">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>55</v>
       </c>
@@ -6364,7 +6369,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:24">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
         <v>102</v>
       </c>
@@ -6418,13 +6423,13 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="77" spans="1:24">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B77" s="8">
         <f t="shared" ref="B77:T77" si="3">SUM(B2:B76)</f>
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="C77" s="4">
         <f t="shared" si="3"/>
@@ -6500,31 +6505,13 @@
       </c>
       <c r="U77" s="6">
         <f t="shared" si="2"/>
-        <v>543.04999999999995</v>
+        <v>544.54999999999995</v>
       </c>
       <c r="W77" s="50"/>
       <c r="X77" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="W58:X58"/>
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="Y59:Z59"/>
-    <mergeCell ref="AA59:AB60"/>
-    <mergeCell ref="W60:X60"/>
-    <mergeCell ref="Y60:Z60"/>
-    <mergeCell ref="W40:X40"/>
-    <mergeCell ref="W41:X41"/>
-    <mergeCell ref="Y41:Z41"/>
-    <mergeCell ref="AA41:AB42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:Z21"/>
-    <mergeCell ref="AA21:AB22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:Z22"/>
     <mergeCell ref="W3:AD3"/>
     <mergeCell ref="W4:AD12"/>
     <mergeCell ref="W14:X14"/>
@@ -6532,6 +6519,24 @@
     <mergeCell ref="AA14:AB15"/>
     <mergeCell ref="W15:X15"/>
     <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:Z21"/>
+    <mergeCell ref="AA21:AB22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:Z22"/>
+    <mergeCell ref="W40:X40"/>
+    <mergeCell ref="W41:X41"/>
+    <mergeCell ref="Y41:Z41"/>
+    <mergeCell ref="AA41:AB42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="W58:X58"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="Y59:Z59"/>
+    <mergeCell ref="AA59:AB60"/>
+    <mergeCell ref="W60:X60"/>
+    <mergeCell ref="Y60:Z60"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
